--- a/scenarios/08272020 MD & HD Scenarios.xlsx
+++ b/scenarios/08272020 MD & HD Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgillera/Documents/GitHub/binder/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3942893C-9BA9-A248-9DF2-ADB193320D74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20ECA7-B6C2-CC4A-B4A6-80860A56CD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2420" yWindow="460" windowWidth="26840" windowHeight="18160" activeTab="3" xr2:uid="{5A765FE7-95B9-B249-9108-336E4EE881D7}"/>
+    <workbookView xWindow="3400" yWindow="720" windowWidth="26840" windowHeight="18160" activeTab="1" xr2:uid="{5A765FE7-95B9-B249-9108-336E4EE881D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Fuel Availability" sheetId="4" r:id="rId4"/>
     <sheet name="Outputs" sheetId="6" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="plugs">'Fuel Availability'!$Q$6</definedName>
+    <definedName name="plugs_per_station">'Fuel Availability'!$Q$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -112,8 +116,221 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dwyer, Michael T.</author>
+  </authors>
+  <commentList>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{144EF24F-0B3D-BB41-A1B8-0CEFBC5A8BD8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dwyer, Michael T.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+should be 61785/21218 based on https://afdc.energy.gov/stations/states</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{88B96362-EB50-B246-9734-263F70CA5630}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dwyer, Michael T.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AFDC methodology changed in 2011:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Pre-2011: Number of stations/installations
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">2011+: Number of plugs
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column uses an </t>
+        </r>
+        <r>
+          <rPr>
+            <i/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>average plugs per station</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> metric to get station count from the plug counts post-2010</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0" xr:uid="{12B29DC5-B757-BB4D-B7E4-FDC78AD8CFE8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dwyer, Michael T.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+2015 and after are from GPRA2019 Progr Success case data provided by Tom Stephens</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K5" authorId="0" shapeId="0" xr:uid="{A29CF9EA-0D2F-A248-A548-D5F3BFDCB9C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Dwyer, Michael T.:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">AFDC: https://www.afdc.energy.gov/data/10333
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Frozen post-2012 (no new data available)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>Current Analysis</t>
   </si>
@@ -316,27 +533,6 @@
     <t>Avg. plugs per station:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Year </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Electricity </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Propane </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Methanol (M85) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> LNG </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biodiesel** </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hydrogen (Base Case)</t>
-  </si>
-  <si>
     <t>Medium Duty Vehicles from TRUCK Excel Model</t>
   </si>
   <si>
@@ -394,18 +590,49 @@
     <t>Sensitivity Scenario</t>
   </si>
   <si>
-    <t>ONE CASE: KEEP SAME</t>
-  </si>
-  <si>
-    <t>SECOND CASE: INCREASE TO DIESEL/PROPANE</t>
+    <t>SECOND CASE: INCREASE TO DIESEL/PROPANE STATION COUNT</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Electricity</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Methanol (M85)</t>
+  </si>
+  <si>
+    <t>LNG</t>
+  </si>
+  <si>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>Biodiesel**</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>E85</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>FIRST CASE: KEEP SAME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="0_)"/>
     <numFmt numFmtId="166" formatCode="0.00_)"/>
@@ -413,7 +640,7 @@
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="32">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -513,33 +740,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF366092"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF366092"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF366092"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
@@ -595,6 +795,64 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -673,18 +931,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -695,8 +941,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1224,67 +1482,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF4F81BD"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF4F81BD"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1537,7 +1744,6 @@
     <xf numFmtId="164" fontId="4" fillId="11" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="11" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="10" fillId="7" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1546,7 +1752,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1594,63 +1799,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="15" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="14" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="16" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="17" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="17" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="14" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="17" fillId="14" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="15" fillId="13" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1683,9 +1831,6 @@
     <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1696,39 +1841,92 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="19" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="19" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="27" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="27" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="173" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="5" xr:uid="{68ECD8CA-EE61-3949-805D-24E062E5EAB7}"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
@@ -2163,16 +2361,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19">
-      <c r="A1" s="200" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="201"/>
+      <c r="A1" s="168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="169"/>
     </row>
     <row r="2" spans="1:14" ht="19">
-      <c r="A2" s="196" t="s">
-        <v>76</v>
-      </c>
-      <c r="B2" s="196"/>
+      <c r="A2" s="164" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="164"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -2184,370 +2382,370 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="19">
-      <c r="A3" s="196" t="s">
-        <v>80</v>
-      </c>
-      <c r="B3" s="196"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
+      <c r="A3" s="164" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="164"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
       <c r="J3" s="35"/>
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:14" ht="19">
-      <c r="A4" s="196"/>
-      <c r="B4" s="196"/>
-      <c r="C4" s="116"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="116"/>
-      <c r="I4" s="116"/>
+      <c r="A4" s="164"/>
+      <c r="B4" s="164"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="19">
-      <c r="A5" s="196"/>
-      <c r="B5" s="196"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="171"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="116"/>
+      <c r="A5" s="164"/>
+      <c r="B5" s="164"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
       <c r="J5" s="35"/>
       <c r="K5" s="35"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
-      <c r="N5" s="115"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
+      <c r="N5" s="114"/>
     </row>
     <row r="6" spans="1:14" ht="19">
-      <c r="A6" s="196"/>
-      <c r="B6" s="196"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173"/>
-      <c r="F6" s="173"/>
-      <c r="G6" s="173"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="116"/>
+      <c r="A6" s="164"/>
+      <c r="B6" s="164"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="142"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
-      <c r="N6" s="115"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
+      <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:14" ht="19">
-      <c r="A7" s="196"/>
-      <c r="B7" s="196"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="116"/>
-      <c r="I7" s="116"/>
+      <c r="A7" s="164"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="183"/>
-      <c r="N7" s="115"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="151"/>
+      <c r="N7" s="114"/>
     </row>
     <row r="8" spans="1:14" ht="19">
-      <c r="A8" s="200" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="201"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="116"/>
+      <c r="A8" s="168" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="169"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="143"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="115"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="152"/>
+      <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:14" ht="19">
-      <c r="A9" s="197" t="s">
+      <c r="A9" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="198" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" s="171"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="116"/>
-      <c r="I9" s="116"/>
+      <c r="B9" s="166" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="140"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="185"/>
-      <c r="N9" s="115"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="153"/>
+      <c r="N9" s="114"/>
     </row>
     <row r="10" spans="1:14" ht="19">
-      <c r="A10" s="197" t="s">
+      <c r="A10" s="165" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="198"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="116"/>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="185"/>
-      <c r="N10" s="115"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="153"/>
+      <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:14" ht="19">
-      <c r="A11" s="197" t="s">
+      <c r="A11" s="165" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="196"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="116"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="116"/>
+      <c r="B11" s="164"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="185"/>
-      <c r="N11" s="115"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="153"/>
+      <c r="N11" s="114"/>
     </row>
     <row r="12" spans="1:14" ht="19">
-      <c r="A12" s="197" t="s">
+      <c r="A12" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="197"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="171"/>
-      <c r="E12" s="171"/>
-      <c r="F12" s="171"/>
-      <c r="G12" s="171"/>
-      <c r="H12" s="116"/>
-      <c r="I12" s="116"/>
+      <c r="B12" s="165"/>
+      <c r="C12" s="114"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="140"/>
+      <c r="F12" s="140"/>
+      <c r="G12" s="140"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="185"/>
-      <c r="N12" s="115"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="153"/>
+      <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:14" ht="19">
-      <c r="A13" s="196"/>
-      <c r="B13" s="199"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="174"/>
-      <c r="F13" s="174"/>
-      <c r="G13" s="174"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
+      <c r="A13" s="164"/>
+      <c r="B13" s="167"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="143"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="185"/>
-      <c r="N13" s="115"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="153"/>
+      <c r="N13" s="114"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="171"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="176"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="176"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
+      <c r="B14" s="140"/>
+      <c r="C14" s="141"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="145"/>
+      <c r="F14" s="145"/>
+      <c r="G14" s="145"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="185"/>
-      <c r="N14" s="115"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="114"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="116"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="177"/>
-      <c r="F15" s="177"/>
-      <c r="G15" s="177"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="141"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="185"/>
-      <c r="N15" s="115"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="114"/>
     </row>
     <row r="16" spans="1:14">
-      <c r="B16" s="116"/>
-      <c r="C16" s="178"/>
-      <c r="D16" s="179"/>
-      <c r="E16" s="179"/>
-      <c r="F16" s="179"/>
-      <c r="G16" s="179"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="148"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="185"/>
-      <c r="N16" s="115"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="153"/>
+      <c r="N16" s="114"/>
     </row>
     <row r="17" spans="1:14">
       <c r="B17" s="35"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="185"/>
-      <c r="N17" s="115"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="153"/>
+      <c r="N17" s="114"/>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="35"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="171"/>
-      <c r="E18" s="171"/>
-      <c r="F18" s="171"/>
-      <c r="G18" s="171"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="185"/>
-      <c r="N18" s="115"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="153"/>
+      <c r="N18" s="114"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="B19" s="171"/>
-      <c r="C19" s="172"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="174"/>
-      <c r="F19" s="174"/>
-      <c r="G19" s="174"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="141"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="143"/>
+      <c r="F19" s="143"/>
+      <c r="G19" s="143"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="185"/>
-      <c r="N19" s="115"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="153"/>
+      <c r="N19" s="114"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="B20" s="171"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="176"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="176"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
+      <c r="B20" s="140"/>
+      <c r="C20" s="141"/>
+      <c r="D20" s="145"/>
+      <c r="E20" s="145"/>
+      <c r="F20" s="145"/>
+      <c r="G20" s="145"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="185"/>
-      <c r="N20" s="115"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="153"/>
+      <c r="N20" s="114"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="B21" s="116"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="180"/>
-      <c r="E21" s="180"/>
-      <c r="F21" s="180"/>
-      <c r="G21" s="180"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="185"/>
-      <c r="N21" s="115"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="153"/>
+      <c r="N21" s="114"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="B22" s="116"/>
-      <c r="C22" s="178"/>
-      <c r="D22" s="181"/>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="150"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="185"/>
-      <c r="N22" s="115"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="153"/>
+      <c r="N22" s="114"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="B23" s="115"/>
-      <c r="C23" s="115"/>
-      <c r="D23" s="115"/>
-      <c r="E23" s="115"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
+      <c r="B23" s="114"/>
+      <c r="C23" s="114"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="114"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="185"/>
-      <c r="N23" s="115"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="153"/>
+      <c r="N23" s="114"/>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="35"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="185"/>
-      <c r="N24" s="115"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="153"/>
+      <c r="N24" s="114"/>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="185"/>
-      <c r="N25" s="115"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="153"/>
+      <c r="N25" s="114"/>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="35"/>
@@ -2561,9 +2759,9 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="185"/>
-      <c r="N26" s="115"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="153"/>
+      <c r="N26" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2577,8 +2775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBEA18C-6EEF-5A4C-A92E-C1E1118A87DA}">
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2594,8 +2792,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="163" t="s">
-        <v>81</v>
+      <c r="A1" s="132" t="s">
+        <v>74</v>
       </c>
       <c r="B1" s="35"/>
       <c r="C1" s="35"/>
@@ -2609,7 +2807,7 @@
       <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="154" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="35"/>
@@ -2624,7 +2822,7 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1">
-      <c r="A3" s="186" t="s">
+      <c r="A3" s="154" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="35"/>
@@ -2658,7 +2856,7 @@
       <c r="J4" s="35"/>
       <c r="K4" s="35"/>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2703,7 +2901,7 @@
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
-      <c r="M6" s="169" t="s">
+      <c r="M6" s="138" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2727,7 +2925,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="M7" s="170" t="s">
+      <c r="M7" s="139" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2743,7 +2941,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
-      <c r="M8" s="121">
+      <c r="M8" s="119">
         <v>1000000</v>
       </c>
     </row>
@@ -2758,7 +2956,7 @@
       <c r="I9" s="35"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
-      <c r="M9" s="121">
+      <c r="M9" s="119">
         <v>1000000</v>
       </c>
     </row>
@@ -2774,7 +2972,7 @@
       <c r="I10" s="35"/>
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
-      <c r="M10" s="121">
+      <c r="M10" s="119">
         <v>1000000</v>
       </c>
     </row>
@@ -2797,13 +2995,13 @@
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
-      <c r="M11" s="122">
+      <c r="M11" s="120">
         <v>1000000</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="112"/>
-      <c r="C12" s="111" t="s">
+      <c r="B12" s="111"/>
+      <c r="C12" s="110" t="s">
         <v>55</v>
       </c>
       <c r="D12" s="103">
@@ -2822,43 +3020,43 @@
       <c r="I12" s="35"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
-      <c r="M12" s="121">
+      <c r="M12" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="B13" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="109">
+      <c r="D13" s="108">
         <v>147.57</v>
       </c>
-      <c r="E13" s="109">
+      <c r="E13" s="108">
         <v>80</v>
       </c>
-      <c r="F13" s="109">
+      <c r="F13" s="108">
         <v>65</v>
       </c>
-      <c r="G13" s="109">
+      <c r="G13" s="108">
         <v>60</v>
       </c>
       <c r="H13" s="35"/>
       <c r="I13" s="35"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
-      <c r="M13" s="121">
+      <c r="M13" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="113"/>
-      <c r="C14" s="111" t="s">
+      <c r="B14" s="112"/>
+      <c r="C14" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="208">
+      <c r="D14" s="174">
         <f>D12-D13</f>
         <v>0</v>
       </c>
@@ -2878,28 +3076,28 @@
       <c r="I14" s="35"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
-      <c r="M14" s="121">
+      <c r="M14" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="19">
-      <c r="B15" s="113"/>
-      <c r="C15" s="187" t="s">
+      <c r="B15" s="112"/>
+      <c r="C15" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="188">
+      <c r="D15" s="156">
         <f>D14*G46</f>
         <v>0</v>
       </c>
-      <c r="E15" s="188">
+      <c r="E15" s="156">
         <f>E14*H46</f>
         <v>9259.08</v>
       </c>
-      <c r="F15" s="188">
+      <c r="F15" s="156">
         <f>F14*I46</f>
         <v>4420.9500000000007</v>
       </c>
-      <c r="G15" s="188">
+      <c r="G15" s="156">
         <f>G14*J46</f>
         <v>0</v>
       </c>
@@ -2907,30 +3105,30 @@
       <c r="I15" s="35"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
-      <c r="M15" s="121">
+      <c r="M15" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="19">
-      <c r="B16" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="190" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="191">
+      <c r="B16" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="194" t="s">
+        <v>81</v>
+      </c>
+      <c r="D16" s="195">
         <f>D15*1.5</f>
         <v>0</v>
       </c>
-      <c r="E16" s="191">
+      <c r="E16" s="195">
         <f t="shared" ref="E16:G16" si="0">E15*1.5</f>
         <v>13888.619999999999</v>
       </c>
-      <c r="F16" s="191">
+      <c r="F16" s="195">
         <f t="shared" si="0"/>
         <v>6631.4250000000011</v>
       </c>
-      <c r="G16" s="191">
+      <c r="G16" s="195">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2938,20 +3136,20 @@
       <c r="I16" s="35"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
-      <c r="M16" s="123"/>
+      <c r="M16" s="121"/>
     </row>
     <row r="17" spans="1:13" ht="19">
-      <c r="B17" s="116"/>
-      <c r="C17" s="190"/>
-      <c r="D17" s="191"/>
-      <c r="E17" s="191"/>
-      <c r="F17" s="191"/>
-      <c r="G17" s="191"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
-      <c r="M17" s="123"/>
+      <c r="M17" s="121"/>
     </row>
     <row r="18" spans="1:13" ht="17" thickBot="1">
       <c r="B18" s="35"/>
@@ -2964,7 +3162,7 @@
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
-      <c r="M18" s="122">
+      <c r="M18" s="120">
         <v>1000000</v>
       </c>
     </row>
@@ -2987,13 +3185,13 @@
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
-      <c r="M19" s="121">
+      <c r="M19" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="B20" s="112"/>
-      <c r="C20" s="111" t="s">
+      <c r="B20" s="111"/>
+      <c r="C20" s="110" t="s">
         <v>59</v>
       </c>
       <c r="D20" s="106">
@@ -3012,55 +3210,55 @@
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
-      <c r="M20" s="121">
+      <c r="M20" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="B21" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C21" s="111" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="108">
         <v>16</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="108">
         <v>10</v>
       </c>
-      <c r="F21" s="109">
+      <c r="F21" s="108">
         <v>8</v>
       </c>
-      <c r="G21" s="109">
+      <c r="G21" s="108">
         <v>8</v>
       </c>
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
-      <c r="M21" s="121">
+      <c r="M21" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="B22" s="113"/>
-      <c r="C22" s="114" t="s">
+      <c r="B22" s="112"/>
+      <c r="C22" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="207">
+      <c r="D22" s="173">
         <f>D20-D21</f>
         <v>11.43</v>
       </c>
-      <c r="E22" s="207">
+      <c r="E22" s="173">
         <f>E20-E21</f>
         <v>6</v>
       </c>
-      <c r="F22" s="110">
+      <c r="F22" s="109">
         <f>F20-F21</f>
         <v>2</v>
       </c>
-      <c r="G22" s="207">
+      <c r="G22" s="173">
         <f>G20-G21</f>
         <v>0</v>
       </c>
@@ -3068,28 +3266,28 @@
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
-      <c r="M22" s="121">
+      <c r="M22" s="119">
         <v>1000000</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1">
-      <c r="B23" s="113"/>
-      <c r="C23" s="187" t="s">
+      <c r="B23" s="112"/>
+      <c r="C23" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="189">
+      <c r="D23" s="157">
         <f>D22*G44</f>
         <v>36621.72</v>
       </c>
-      <c r="E23" s="189">
+      <c r="E23" s="157">
         <f>E22*H44</f>
         <v>16668</v>
       </c>
-      <c r="F23" s="189">
+      <c r="F23" s="157">
         <f>F22*I44</f>
         <v>5434</v>
       </c>
-      <c r="G23" s="189">
+      <c r="G23" s="157">
         <f>G22*J44</f>
         <v>0</v>
       </c>
@@ -3097,30 +3295,30 @@
       <c r="I23" s="35"/>
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
-      <c r="M23" s="122">
+      <c r="M23" s="120">
         <v>1000000</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="19">
-      <c r="B24" s="116" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="204" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="205">
+      <c r="B24" s="115" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="196" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="197">
         <f>D23*1.5</f>
         <v>54932.58</v>
       </c>
-      <c r="E24" s="205">
+      <c r="E24" s="197">
         <f>E23*1.5</f>
         <v>25002</v>
       </c>
-      <c r="F24" s="205">
+      <c r="F24" s="197">
         <f t="shared" ref="E24:G24" si="1">F23*1.5</f>
         <v>8151</v>
       </c>
-      <c r="G24" s="205">
+      <c r="G24" s="197">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3128,13 +3326,13 @@
       <c r="I24" s="35"/>
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
-      <c r="M24" s="121">
+      <c r="M24" s="119">
         <v>190188</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="35"/>
-      <c r="B25" s="116"/>
+      <c r="B25" s="115"/>
       <c r="C25" s="35"/>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3144,7 +3342,7 @@
       <c r="I25" s="35"/>
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
-      <c r="M25" s="121">
+      <c r="M25" s="119">
         <v>164413</v>
       </c>
     </row>
@@ -3160,7 +3358,7 @@
       <c r="I26" s="35"/>
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
-      <c r="M26" s="121">
+      <c r="M26" s="119">
         <v>138638</v>
       </c>
     </row>
@@ -3176,7 +3374,7 @@
       <c r="I27" s="35"/>
       <c r="J27" s="35"/>
       <c r="K27" s="35"/>
-      <c r="M27" s="121">
+      <c r="M27" s="119">
         <v>112862</v>
       </c>
     </row>
@@ -3192,12 +3390,12 @@
       <c r="I28" s="35"/>
       <c r="J28" s="35"/>
       <c r="K28" s="35"/>
-      <c r="M28" s="122">
+      <c r="M28" s="120">
         <v>87087</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1">
-      <c r="A29" s="125" t="s">
+      <c r="A29" s="123" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -3228,12 +3426,12 @@
         <v>9</v>
       </c>
       <c r="K29" s="43"/>
-      <c r="M29" s="121">
+      <c r="M29" s="119">
         <v>75720</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="126"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="37" t="s">
         <v>14</v>
       </c>
@@ -3262,12 +3460,12 @@
         <v>10</v>
       </c>
       <c r="K30" s="43"/>
-      <c r="M30" s="121">
+      <c r="M30" s="119">
         <v>64353</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="126"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="37" t="s">
         <v>16</v>
       </c>
@@ -3296,12 +3494,12 @@
         <v>11</v>
       </c>
       <c r="K31" s="43"/>
-      <c r="M31" s="121">
+      <c r="M31" s="119">
         <v>52986</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="17" thickBot="1">
-      <c r="A32" s="127"/>
+      <c r="A32" s="125"/>
       <c r="B32" s="47" t="s">
         <v>17</v>
       </c>
@@ -3330,12 +3528,12 @@
         <v>2050</v>
       </c>
       <c r="K32" s="43"/>
-      <c r="M32" s="121">
+      <c r="M32" s="119">
         <v>41619</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="17" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="128" t="s">
+      <c r="A33" s="126" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -3366,12 +3564,12 @@
         <v>2</v>
       </c>
       <c r="K33" s="43"/>
-      <c r="M33" s="122">
+      <c r="M33" s="120">
         <v>30251</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="126"/>
+      <c r="A34" s="124"/>
       <c r="B34" s="57" t="s">
         <v>20</v>
       </c>
@@ -3400,12 +3598,12 @@
         <v>0.35</v>
       </c>
       <c r="K34" s="61"/>
-      <c r="M34" s="121">
+      <c r="M34" s="119">
         <v>27282</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="126"/>
+      <c r="A35" s="124"/>
       <c r="B35" s="37" t="s">
         <v>21</v>
       </c>
@@ -3434,12 +3632,12 @@
         <v>10.4</v>
       </c>
       <c r="K35" s="61"/>
-      <c r="M35" s="121">
+      <c r="M35" s="119">
         <v>24313</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="126"/>
+      <c r="A36" s="124"/>
       <c r="B36" s="37" t="s">
         <v>22</v>
       </c>
@@ -3468,12 +3666,12 @@
         <v>11776</v>
       </c>
       <c r="K36" s="61"/>
-      <c r="M36" s="121">
+      <c r="M36" s="119">
         <v>21343</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="126"/>
+      <c r="A37" s="124"/>
       <c r="B37" s="37" t="s">
         <v>23</v>
       </c>
@@ -3502,12 +3700,12 @@
         <v>0.46</v>
       </c>
       <c r="K37" s="61"/>
-      <c r="M37" s="121">
+      <c r="M37" s="119">
         <v>18374</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="17" thickBot="1">
-      <c r="A38" s="126"/>
+      <c r="A38" s="124"/>
       <c r="B38" s="37" t="s">
         <v>24</v>
       </c>
@@ -3536,12 +3734,12 @@
         <v>0.8</v>
       </c>
       <c r="K38" s="61"/>
-      <c r="M38" s="123">
+      <c r="M38" s="121">
         <v>15404</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="126"/>
+      <c r="A39" s="124"/>
       <c r="B39" s="37" t="s">
         <v>25</v>
       </c>
@@ -3570,12 +3768,12 @@
         <v>2.2799999999999998</v>
       </c>
       <c r="K39" s="61"/>
-      <c r="M39" s="124">
+      <c r="M39" s="122">
         <v>14926</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="126"/>
+      <c r="A40" s="124"/>
       <c r="B40" s="37" t="s">
         <v>26</v>
       </c>
@@ -3604,12 +3802,12 @@
         <v>17236</v>
       </c>
       <c r="K40" s="29"/>
-      <c r="M40" s="121">
+      <c r="M40" s="119">
         <v>14449</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="17" thickBot="1">
-      <c r="A41" s="129"/>
+      <c r="A41" s="127"/>
       <c r="B41" s="47" t="s">
         <v>27</v>
       </c>
@@ -3622,12 +3820,12 @@
       <c r="I41" s="48"/>
       <c r="J41" s="49"/>
       <c r="K41" s="61"/>
-      <c r="M41" s="121">
+      <c r="M41" s="119">
         <v>13971</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="17" customHeight="1" thickTop="1">
-      <c r="A42" s="130" t="s">
+      <c r="A42" s="128" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="51" t="s">
@@ -3658,12 +3856,12 @@
         <v>5000</v>
       </c>
       <c r="K42" s="29"/>
-      <c r="M42" s="121">
+      <c r="M42" s="119">
         <v>13493</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="17" thickBot="1">
-      <c r="A43" s="126"/>
+      <c r="A43" s="124"/>
       <c r="B43" s="37" t="s">
         <v>30</v>
       </c>
@@ -3692,12 +3890,12 @@
         <v>1</v>
       </c>
       <c r="K43" s="29"/>
-      <c r="M43" s="122">
+      <c r="M43" s="120">
         <v>13015</v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="126"/>
+      <c r="A44" s="124"/>
       <c r="B44" s="37" t="s">
         <v>31</v>
       </c>
@@ -3713,25 +3911,25 @@
       <c r="F44" s="66">
         <v>11385</v>
       </c>
-      <c r="G44" s="118">
+      <c r="G44" s="116">
         <v>3204</v>
       </c>
-      <c r="H44" s="119">
+      <c r="H44" s="117">
         <v>2778</v>
       </c>
-      <c r="I44" s="119">
+      <c r="I44" s="117">
         <v>2717</v>
       </c>
-      <c r="J44" s="120">
+      <c r="J44" s="118">
         <v>1770</v>
       </c>
       <c r="K44" s="67"/>
-      <c r="M44" s="121">
+      <c r="M44" s="119">
         <v>12537</v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="126"/>
+      <c r="A45" s="124"/>
       <c r="B45" s="37" t="s">
         <v>32</v>
       </c>
@@ -3760,12 +3958,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="K45" s="29"/>
-      <c r="M45" s="121">
+      <c r="M45" s="119">
         <v>12059</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="126"/>
+      <c r="A46" s="124"/>
       <c r="B46" s="71" t="s">
         <v>33</v>
       </c>
@@ -3781,25 +3979,25 @@
       <c r="F46" s="73">
         <v>331</v>
       </c>
-      <c r="G46" s="118">
+      <c r="G46" s="116">
         <v>302.58</v>
       </c>
-      <c r="H46" s="119">
+      <c r="H46" s="117">
         <v>298.68</v>
       </c>
-      <c r="I46" s="119">
+      <c r="I46" s="117">
         <v>294.73</v>
       </c>
-      <c r="J46" s="120">
+      <c r="J46" s="118">
         <v>277.27999999999997</v>
       </c>
       <c r="K46" s="67"/>
-      <c r="M46" s="121">
+      <c r="M46" s="119">
         <v>11582</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="126"/>
+      <c r="A47" s="124"/>
       <c r="B47" s="37" t="s">
         <v>34</v>
       </c>
@@ -3828,12 +4026,12 @@
         <v>4</v>
       </c>
       <c r="K47" s="29"/>
-      <c r="M47" s="121">
+      <c r="M47" s="119">
         <v>11104</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="17" thickBot="1">
-      <c r="A48" s="126"/>
+      <c r="A48" s="124"/>
       <c r="B48" s="57" t="s">
         <v>35</v>
       </c>
@@ -3862,12 +4060,12 @@
         <v>0.12</v>
       </c>
       <c r="K48" s="79"/>
-      <c r="M48" s="122">
+      <c r="M48" s="120">
         <v>10626</v>
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="126"/>
+      <c r="A49" s="124"/>
       <c r="B49" s="37" t="s">
         <v>36</v>
       </c>
@@ -3896,12 +4094,12 @@
         <v>5</v>
       </c>
       <c r="K49" s="29"/>
-      <c r="M49" s="121">
+      <c r="M49" s="119">
         <v>10148</v>
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="126"/>
+      <c r="A50" s="124"/>
       <c r="B50" s="37" t="s">
         <v>37</v>
       </c>
@@ -3930,12 +4128,12 @@
         <v>0</v>
       </c>
       <c r="K50" s="29"/>
-      <c r="M50" s="121">
+      <c r="M50" s="119">
         <v>9670</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" thickBot="1">
-      <c r="A51" s="129"/>
+      <c r="A51" s="127"/>
       <c r="B51" s="47" t="s">
         <v>38</v>
       </c>
@@ -3965,7 +4163,7 @@
       </c>
       <c r="K51" s="29"/>
       <c r="L51" s="35"/>
-      <c r="M51" s="121">
+      <c r="M51" s="119">
         <v>9192</v>
       </c>
       <c r="N51" s="35"/>
@@ -3974,7 +4172,7 @@
       <c r="R51" s="15"/>
     </row>
     <row r="52" spans="1:18" ht="17" customHeight="1" thickTop="1">
-      <c r="A52" s="131" t="s">
+      <c r="A52" s="129" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="80" t="s">
@@ -4006,14 +4204,14 @@
       </c>
       <c r="K52" s="29"/>
       <c r="L52" s="35"/>
-      <c r="M52" s="121">
+      <c r="M52" s="119">
         <v>8714</v>
       </c>
       <c r="N52" s="35"/>
       <c r="O52" s="35"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1">
-      <c r="A53" s="132"/>
+      <c r="A53" s="130"/>
       <c r="B53" s="83" t="s">
         <v>41</v>
       </c>
@@ -4043,14 +4241,14 @@
       </c>
       <c r="K53" s="79"/>
       <c r="L53" s="35"/>
-      <c r="M53" s="122">
+      <c r="M53" s="120">
         <v>8237</v>
       </c>
       <c r="N53" s="35"/>
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="132"/>
+      <c r="A54" s="130"/>
       <c r="B54" s="21" t="s">
         <v>42</v>
       </c>
@@ -4085,7 +4283,7 @@
       <c r="O54" s="35"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="132"/>
+      <c r="A55" s="130"/>
       <c r="B55" s="21" t="s">
         <v>43</v>
       </c>
@@ -4120,7 +4318,7 @@
       <c r="O55" s="35"/>
     </row>
     <row r="56" spans="1:18" ht="17" thickBot="1">
-      <c r="A56" s="133"/>
+      <c r="A56" s="131"/>
       <c r="B56" s="22" t="s">
         <v>44</v>
       </c>
@@ -4155,7 +4353,7 @@
       <c r="O56" s="35"/>
     </row>
     <row r="57" spans="1:18" ht="17" customHeight="1" thickTop="1">
-      <c r="A57" s="131" t="s">
+      <c r="A57" s="129" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4192,7 +4390,7 @@
       <c r="O57" s="35"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="132"/>
+      <c r="A58" s="130"/>
       <c r="B58" s="21" t="s">
         <v>47</v>
       </c>
@@ -4227,7 +4425,7 @@
       <c r="O58" s="35"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="132"/>
+      <c r="A59" s="130"/>
       <c r="B59" s="21" t="s">
         <v>48</v>
       </c>
@@ -4262,7 +4460,7 @@
       <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="132"/>
+      <c r="A60" s="130"/>
       <c r="B60" s="21" t="s">
         <v>49</v>
       </c>
@@ -4297,7 +4495,7 @@
       <c r="O60" s="35"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="132"/>
+      <c r="A61" s="130"/>
       <c r="B61" s="21" t="s">
         <v>50</v>
       </c>
@@ -4332,7 +4530,7 @@
       <c r="O61" s="35"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="132"/>
+      <c r="A62" s="130"/>
       <c r="B62" s="83" t="s">
         <v>51</v>
       </c>
@@ -4367,7 +4565,7 @@
       <c r="O62" s="35"/>
     </row>
     <row r="63" spans="1:18" ht="17" thickBot="1">
-      <c r="A63" s="133"/>
+      <c r="A63" s="131"/>
       <c r="B63" s="100" t="s">
         <v>52</v>
       </c>
@@ -4582,7 +4780,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4594,7 +4792,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="132" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4605,18 +4803,18 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="163" t="s">
-        <v>91</v>
+      <c r="B5" s="132" t="s">
+        <v>84</v>
       </c>
       <c r="E5" s="35"/>
       <c r="F5" s="35"/>
       <c r="G5" s="35"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="115"/>
-      <c r="J5" s="115"/>
-      <c r="K5" s="115"/>
-      <c r="L5" s="115"/>
-      <c r="M5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
+      <c r="M5" s="114"/>
     </row>
     <row r="6" spans="1:13">
       <c r="E6" s="14" t="s">
@@ -4624,45 +4822,45 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="35"/>
-      <c r="H6" s="116"/>
-      <c r="I6" s="115"/>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
+      <c r="K6" s="114"/>
+      <c r="L6" s="114"/>
+      <c r="M6" s="114"/>
     </row>
     <row r="7" spans="1:13" ht="19">
-      <c r="A7" s="194"/>
-      <c r="B7" s="206" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="206" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" s="194"/>
-      <c r="F7" s="194" t="s">
+      <c r="A7" s="162"/>
+      <c r="B7" s="172" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="172" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="162"/>
+      <c r="F7" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="195" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="195" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="165"/>
-      <c r="J7" s="165"/>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="115"/>
+      <c r="G7" s="163" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="163" t="s">
+        <v>77</v>
+      </c>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="114"/>
+      <c r="L7" s="114"/>
+      <c r="M7" s="114"/>
     </row>
     <row r="8" spans="1:13" ht="19">
       <c r="A8" s="33">
         <v>2007</v>
       </c>
-      <c r="B8" s="117">
+      <c r="B8" s="198">
         <v>10</v>
       </c>
-      <c r="C8" s="117">
+      <c r="C8" s="198">
         <v>10</v>
       </c>
       <c r="E8" s="33">
@@ -4671,26 +4869,26 @@
       <c r="F8" s="34">
         <v>10</v>
       </c>
-      <c r="G8" s="193">
+      <c r="G8" s="161">
         <v>10</v>
       </c>
-      <c r="H8" s="193">
+      <c r="H8" s="161">
         <v>10</v>
       </c>
-      <c r="I8" s="165"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="115"/>
+      <c r="I8" s="134"/>
+      <c r="J8" s="135"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
     </row>
     <row r="9" spans="1:13" ht="19">
       <c r="A9" s="16">
         <v>2008</v>
       </c>
-      <c r="B9" s="108">
+      <c r="B9" s="199">
         <v>10</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="199">
         <v>10</v>
       </c>
       <c r="E9" s="16">
@@ -4699,26 +4897,26 @@
       <c r="F9" s="30">
         <v>10</v>
       </c>
-      <c r="G9" s="193">
+      <c r="G9" s="161">
         <v>10</v>
       </c>
-      <c r="H9" s="193">
+      <c r="H9" s="161">
         <v>10</v>
       </c>
-      <c r="I9" s="165"/>
-      <c r="J9" s="166"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
+      <c r="I9" s="134"/>
+      <c r="J9" s="135"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="1:13" ht="19">
       <c r="A10" s="16">
         <v>2009</v>
       </c>
-      <c r="B10" s="108">
+      <c r="B10" s="199">
         <v>10</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="199">
         <v>10</v>
       </c>
       <c r="E10" s="16">
@@ -4727,26 +4925,26 @@
       <c r="F10" s="30">
         <v>10</v>
       </c>
-      <c r="G10" s="193">
+      <c r="G10" s="161">
         <v>10</v>
       </c>
-      <c r="H10" s="193">
+      <c r="H10" s="161">
         <v>10</v>
       </c>
-      <c r="I10" s="165"/>
-      <c r="J10" s="166"/>
-      <c r="K10" s="115"/>
-      <c r="L10" s="115"/>
-      <c r="M10" s="115"/>
+      <c r="I10" s="134"/>
+      <c r="J10" s="135"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="114"/>
     </row>
     <row r="11" spans="1:13" ht="19">
       <c r="A11" s="17">
         <v>2010</v>
       </c>
-      <c r="B11" s="108">
+      <c r="B11" s="199">
         <v>10</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="199">
         <v>10</v>
       </c>
       <c r="E11" s="17">
@@ -4755,26 +4953,26 @@
       <c r="F11" s="30">
         <v>10</v>
       </c>
-      <c r="G11" s="193">
+      <c r="G11" s="161">
         <v>10</v>
       </c>
-      <c r="H11" s="193">
+      <c r="H11" s="161">
         <v>10</v>
       </c>
-      <c r="I11" s="165"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="115"/>
-      <c r="M11" s="115"/>
+      <c r="I11" s="134"/>
+      <c r="J11" s="135"/>
+      <c r="K11" s="114"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="114"/>
     </row>
     <row r="12" spans="1:13" ht="19">
       <c r="A12" s="16">
         <v>2011</v>
       </c>
-      <c r="B12" s="108">
+      <c r="B12" s="199">
         <v>10</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="199">
         <v>10</v>
       </c>
       <c r="E12" s="16">
@@ -4783,26 +4981,26 @@
       <c r="F12" s="30">
         <v>10</v>
       </c>
-      <c r="G12" s="193">
+      <c r="G12" s="161">
         <v>10</v>
       </c>
-      <c r="H12" s="193">
+      <c r="H12" s="161">
         <v>10</v>
       </c>
-      <c r="I12" s="165"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="115"/>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
+      <c r="I12" s="134"/>
+      <c r="J12" s="135"/>
+      <c r="K12" s="114"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="114"/>
     </row>
     <row r="13" spans="1:13" ht="19">
       <c r="A13" s="18">
         <v>2012</v>
       </c>
-      <c r="B13" s="108">
+      <c r="B13" s="199">
         <v>10</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="199">
         <v>10</v>
       </c>
       <c r="E13" s="18">
@@ -4811,26 +5009,26 @@
       <c r="F13" s="30">
         <v>10</v>
       </c>
-      <c r="G13" s="193">
+      <c r="G13" s="161">
         <v>10</v>
       </c>
-      <c r="H13" s="193">
+      <c r="H13" s="161">
         <v>10</v>
       </c>
-      <c r="I13" s="167"/>
-      <c r="J13" s="166"/>
-      <c r="K13" s="115"/>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="135"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
     </row>
     <row r="14" spans="1:13" ht="19">
       <c r="A14" s="18">
         <v>2013</v>
       </c>
-      <c r="B14" s="108">
+      <c r="B14" s="199">
         <v>10</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="199">
         <v>10</v>
       </c>
       <c r="E14" s="18">
@@ -4839,26 +5037,26 @@
       <c r="F14" s="30">
         <v>10</v>
       </c>
-      <c r="G14" s="193">
+      <c r="G14" s="161">
         <v>10</v>
       </c>
-      <c r="H14" s="193">
+      <c r="H14" s="161">
         <v>10</v>
       </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="166"/>
-      <c r="K14" s="115"/>
-      <c r="L14" s="115"/>
-      <c r="M14" s="115"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="135"/>
+      <c r="K14" s="114"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="114"/>
     </row>
     <row r="15" spans="1:13" ht="19">
       <c r="A15" s="18">
         <v>2014</v>
       </c>
-      <c r="B15" s="108">
+      <c r="B15" s="199">
         <v>10</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="199">
         <v>10</v>
       </c>
       <c r="E15" s="18">
@@ -4867,26 +5065,26 @@
       <c r="F15" s="30">
         <v>10</v>
       </c>
-      <c r="G15" s="193">
+      <c r="G15" s="161">
         <v>10</v>
       </c>
-      <c r="H15" s="193">
+      <c r="H15" s="161">
         <v>10</v>
       </c>
-      <c r="I15" s="167"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="115"/>
-      <c r="L15" s="115"/>
-      <c r="M15" s="115"/>
+      <c r="I15" s="136"/>
+      <c r="J15" s="135"/>
+      <c r="K15" s="114"/>
+      <c r="L15" s="114"/>
+      <c r="M15" s="114"/>
     </row>
     <row r="16" spans="1:13" ht="19">
       <c r="A16" s="19">
         <v>2015</v>
       </c>
-      <c r="B16" s="108">
+      <c r="B16" s="199">
         <v>10</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="199">
         <v>10</v>
       </c>
       <c r="E16" s="19">
@@ -4895,26 +5093,26 @@
       <c r="F16" s="30">
         <v>14</v>
       </c>
-      <c r="G16" s="193">
+      <c r="G16" s="161">
         <v>10</v>
       </c>
-      <c r="H16" s="193">
+      <c r="H16" s="161">
         <v>10</v>
       </c>
-      <c r="I16" s="167"/>
-      <c r="J16" s="166"/>
-      <c r="K16" s="115"/>
-      <c r="L16" s="115"/>
-      <c r="M16" s="115"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="135"/>
+      <c r="K16" s="114"/>
+      <c r="L16" s="114"/>
+      <c r="M16" s="114"/>
     </row>
     <row r="17" spans="1:13" ht="19">
       <c r="A17" s="18">
         <v>2016</v>
       </c>
-      <c r="B17" s="108">
+      <c r="B17" s="199">
         <v>10</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="199">
         <v>10</v>
       </c>
       <c r="E17" s="18">
@@ -4923,26 +5121,26 @@
       <c r="F17" s="31">
         <v>14</v>
       </c>
-      <c r="G17" s="193">
+      <c r="G17" s="161">
         <v>10</v>
       </c>
-      <c r="H17" s="193">
+      <c r="H17" s="161">
         <v>10</v>
       </c>
-      <c r="I17" s="167"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="114"/>
+      <c r="L17" s="114"/>
+      <c r="M17" s="114"/>
     </row>
     <row r="18" spans="1:13" ht="19">
       <c r="A18" s="18">
         <v>2017</v>
       </c>
-      <c r="B18" s="108">
+      <c r="B18" s="199">
         <v>10</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="199">
         <v>10</v>
       </c>
       <c r="E18" s="18">
@@ -4951,26 +5149,26 @@
       <c r="F18" s="30">
         <v>14</v>
       </c>
-      <c r="G18" s="193">
+      <c r="G18" s="161">
         <v>10</v>
       </c>
-      <c r="H18" s="193">
+      <c r="H18" s="161">
         <v>10</v>
       </c>
-      <c r="I18" s="167"/>
-      <c r="J18" s="166"/>
-      <c r="K18" s="115"/>
-      <c r="L18" s="115"/>
-      <c r="M18" s="115"/>
+      <c r="I18" s="136"/>
+      <c r="J18" s="135"/>
+      <c r="K18" s="114"/>
+      <c r="L18" s="114"/>
+      <c r="M18" s="114"/>
     </row>
     <row r="19" spans="1:13" ht="19">
       <c r="A19" s="18">
         <v>2018</v>
       </c>
-      <c r="B19" s="108">
+      <c r="B19" s="199">
         <v>10</v>
       </c>
-      <c r="C19" s="108">
+      <c r="C19" s="199">
         <v>10</v>
       </c>
       <c r="E19" s="18">
@@ -4979,26 +5177,26 @@
       <c r="F19" s="30">
         <v>14</v>
       </c>
-      <c r="G19" s="193">
+      <c r="G19" s="161">
         <v>10</v>
       </c>
-      <c r="H19" s="193">
+      <c r="H19" s="161">
         <v>10</v>
       </c>
-      <c r="I19" s="167"/>
-      <c r="J19" s="166"/>
-      <c r="K19" s="115"/>
-      <c r="L19" s="115"/>
-      <c r="M19" s="115"/>
+      <c r="I19" s="136"/>
+      <c r="J19" s="135"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
     </row>
     <row r="20" spans="1:13" ht="19">
       <c r="A20" s="18">
         <v>2019</v>
       </c>
-      <c r="B20" s="108">
+      <c r="B20" s="199">
         <v>10</v>
       </c>
-      <c r="C20" s="108">
+      <c r="C20" s="199">
         <v>10</v>
       </c>
       <c r="E20" s="18">
@@ -5007,26 +5205,26 @@
       <c r="F20" s="30">
         <v>14</v>
       </c>
-      <c r="G20" s="193">
+      <c r="G20" s="161">
         <v>10</v>
       </c>
-      <c r="H20" s="193">
+      <c r="H20" s="161">
         <v>10</v>
       </c>
-      <c r="I20" s="167"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
+      <c r="I20" s="136"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
     </row>
     <row r="21" spans="1:13" ht="19">
       <c r="A21" s="19">
         <v>2020</v>
       </c>
-      <c r="B21" s="108">
+      <c r="B21" s="199">
         <v>10</v>
       </c>
-      <c r="C21" s="108">
+      <c r="C21" s="199">
         <v>10</v>
       </c>
       <c r="E21" s="19">
@@ -5035,26 +5233,26 @@
       <c r="F21" s="30">
         <v>14</v>
       </c>
-      <c r="G21" s="193">
+      <c r="G21" s="161">
         <v>10</v>
       </c>
-      <c r="H21" s="193">
+      <c r="H21" s="161">
         <v>10</v>
       </c>
-      <c r="I21" s="167"/>
-      <c r="J21" s="166"/>
-      <c r="K21" s="115"/>
-      <c r="L21" s="115"/>
-      <c r="M21" s="115"/>
+      <c r="I21" s="136"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
     </row>
     <row r="22" spans="1:13" ht="19">
       <c r="A22" s="18">
         <v>2021</v>
       </c>
-      <c r="B22" s="108">
+      <c r="B22" s="199">
         <v>10</v>
       </c>
-      <c r="C22" s="108">
+      <c r="C22" s="199">
         <v>9</v>
       </c>
       <c r="E22" s="18">
@@ -5063,26 +5261,26 @@
       <c r="F22" s="30">
         <v>14</v>
       </c>
-      <c r="G22" s="193">
+      <c r="G22" s="161">
         <v>10</v>
       </c>
-      <c r="H22" s="193">
+      <c r="H22" s="161">
         <v>10</v>
       </c>
-      <c r="I22" s="167"/>
-      <c r="J22" s="166"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="115"/>
+      <c r="I22" s="136"/>
+      <c r="J22" s="135"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
     </row>
     <row r="23" spans="1:13" ht="19">
       <c r="A23" s="18">
         <v>2022</v>
       </c>
-      <c r="B23" s="108">
+      <c r="B23" s="199">
         <v>9</v>
       </c>
-      <c r="C23" s="108">
+      <c r="C23" s="199">
         <v>8</v>
       </c>
       <c r="E23" s="18">
@@ -5091,26 +5289,26 @@
       <c r="F23" s="30">
         <v>14</v>
       </c>
-      <c r="G23" s="193">
+      <c r="G23" s="161">
         <v>9</v>
       </c>
-      <c r="H23" s="193">
+      <c r="H23" s="161">
         <v>9</v>
       </c>
-      <c r="I23" s="167"/>
-      <c r="J23" s="166"/>
-      <c r="K23" s="115"/>
-      <c r="L23" s="115"/>
-      <c r="M23" s="115"/>
+      <c r="I23" s="136"/>
+      <c r="J23" s="135"/>
+      <c r="K23" s="114"/>
+      <c r="L23" s="114"/>
+      <c r="M23" s="114"/>
     </row>
     <row r="24" spans="1:13" ht="19">
       <c r="A24" s="18">
         <v>2023</v>
       </c>
-      <c r="B24" s="108">
+      <c r="B24" s="199">
         <v>9</v>
       </c>
-      <c r="C24" s="108">
+      <c r="C24" s="199">
         <v>7</v>
       </c>
       <c r="E24" s="18">
@@ -5119,26 +5317,26 @@
       <c r="F24" s="30">
         <v>12.5</v>
       </c>
-      <c r="G24" s="193">
+      <c r="G24" s="161">
         <v>9</v>
       </c>
-      <c r="H24" s="193">
+      <c r="H24" s="161">
         <v>9</v>
       </c>
-      <c r="I24" s="167"/>
-      <c r="J24" s="166"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="135"/>
+      <c r="K24" s="114"/>
+      <c r="L24" s="114"/>
+      <c r="M24" s="114"/>
     </row>
     <row r="25" spans="1:13" ht="19">
       <c r="A25" s="18">
         <v>2024</v>
       </c>
-      <c r="B25" s="108">
+      <c r="B25" s="199">
         <v>8</v>
       </c>
-      <c r="C25" s="108">
+      <c r="C25" s="199">
         <v>6</v>
       </c>
       <c r="E25" s="18">
@@ -5147,26 +5345,26 @@
       <c r="F25" s="30">
         <v>9</v>
       </c>
-      <c r="G25" s="193">
+      <c r="G25" s="161">
         <v>8</v>
       </c>
-      <c r="H25" s="193">
+      <c r="H25" s="161">
         <v>8</v>
       </c>
-      <c r="I25" s="167"/>
-      <c r="J25" s="166"/>
-      <c r="K25" s="115"/>
-      <c r="L25" s="115"/>
-      <c r="M25" s="115"/>
+      <c r="I25" s="136"/>
+      <c r="J25" s="135"/>
+      <c r="K25" s="114"/>
+      <c r="L25" s="114"/>
+      <c r="M25" s="114"/>
     </row>
     <row r="26" spans="1:13" ht="19">
       <c r="A26" s="19">
         <v>2025</v>
       </c>
-      <c r="B26" s="108">
+      <c r="B26" s="199">
         <v>6</v>
       </c>
-      <c r="C26" s="108">
+      <c r="C26" s="199">
         <v>5</v>
       </c>
       <c r="E26" s="19">
@@ -5175,26 +5373,26 @@
       <c r="F26" s="30">
         <v>7</v>
       </c>
-      <c r="G26" s="193">
+      <c r="G26" s="161">
         <v>6</v>
       </c>
-      <c r="H26" s="193">
+      <c r="H26" s="161">
         <v>6</v>
       </c>
-      <c r="I26" s="167"/>
-      <c r="J26" s="166"/>
-      <c r="K26" s="115"/>
-      <c r="L26" s="115"/>
-      <c r="M26" s="115"/>
+      <c r="I26" s="136"/>
+      <c r="J26" s="135"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="114"/>
     </row>
     <row r="27" spans="1:13" ht="19">
       <c r="A27" s="18">
         <v>2026</v>
       </c>
-      <c r="B27" s="108">
+      <c r="B27" s="199">
         <v>5</v>
       </c>
-      <c r="C27" s="108">
+      <c r="C27" s="199">
         <v>5</v>
       </c>
       <c r="E27" s="18">
@@ -5203,26 +5401,26 @@
       <c r="F27" s="30">
         <v>6.7</v>
       </c>
-      <c r="G27" s="193">
+      <c r="G27" s="161">
         <v>5</v>
       </c>
-      <c r="H27" s="193">
+      <c r="H27" s="161">
         <v>5</v>
       </c>
-      <c r="I27" s="167"/>
-      <c r="J27" s="166"/>
-      <c r="K27" s="115"/>
-      <c r="L27" s="115"/>
-      <c r="M27" s="115"/>
+      <c r="I27" s="136"/>
+      <c r="J27" s="135"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
     </row>
     <row r="28" spans="1:13" ht="19">
       <c r="A28" s="18">
         <v>2027</v>
       </c>
-      <c r="B28" s="108">
+      <c r="B28" s="199">
         <v>5</v>
       </c>
-      <c r="C28" s="108">
+      <c r="C28" s="199">
         <v>5</v>
       </c>
       <c r="E28" s="18">
@@ -5231,26 +5429,26 @@
       <c r="F28" s="30">
         <v>6.5</v>
       </c>
-      <c r="G28" s="193">
+      <c r="G28" s="161">
         <v>5</v>
       </c>
-      <c r="H28" s="193">
+      <c r="H28" s="161">
         <v>5</v>
       </c>
-      <c r="I28" s="167"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="115"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="115"/>
+      <c r="I28" s="136"/>
+      <c r="J28" s="135"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
     </row>
     <row r="29" spans="1:13" ht="19">
       <c r="A29" s="18">
         <v>2028</v>
       </c>
-      <c r="B29" s="108">
+      <c r="B29" s="199">
         <v>5</v>
       </c>
-      <c r="C29" s="108">
+      <c r="C29" s="199">
         <v>5</v>
       </c>
       <c r="E29" s="18">
@@ -5259,26 +5457,26 @@
       <c r="F29" s="30">
         <v>6.25</v>
       </c>
-      <c r="G29" s="193">
+      <c r="G29" s="161">
         <v>5</v>
       </c>
-      <c r="H29" s="193">
+      <c r="H29" s="161">
         <v>5</v>
       </c>
-      <c r="I29" s="167"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="115"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="115"/>
+      <c r="I29" s="136"/>
+      <c r="J29" s="135"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
     </row>
     <row r="30" spans="1:13" ht="19">
       <c r="A30" s="18">
         <v>2029</v>
       </c>
-      <c r="B30" s="108">
+      <c r="B30" s="199">
         <v>5</v>
       </c>
-      <c r="C30" s="108">
+      <c r="C30" s="199">
         <v>5</v>
       </c>
       <c r="E30" s="18">
@@ -5287,26 +5485,26 @@
       <c r="F30" s="30">
         <v>6.05</v>
       </c>
-      <c r="G30" s="193">
+      <c r="G30" s="161">
         <v>4</v>
       </c>
-      <c r="H30" s="193">
+      <c r="H30" s="161">
         <v>4</v>
       </c>
-      <c r="I30" s="167"/>
-      <c r="J30" s="166"/>
-      <c r="K30" s="115"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="115"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="135"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
     </row>
     <row r="31" spans="1:13" ht="19">
       <c r="A31" s="19">
         <v>2030</v>
       </c>
-      <c r="B31" s="108">
+      <c r="B31" s="199">
         <v>5</v>
       </c>
-      <c r="C31" s="108">
+      <c r="C31" s="199">
         <v>4</v>
       </c>
       <c r="E31" s="19">
@@ -5315,26 +5513,26 @@
       <c r="F31" s="30">
         <v>5.92</v>
       </c>
-      <c r="G31" s="193">
+      <c r="G31" s="161">
         <v>4</v>
       </c>
-      <c r="H31" s="193">
+      <c r="H31" s="161">
         <v>4</v>
       </c>
-      <c r="I31" s="167"/>
-      <c r="J31" s="166"/>
-      <c r="K31" s="115"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="115"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="135"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
     </row>
     <row r="32" spans="1:13" ht="19">
       <c r="A32" s="18">
         <v>2031</v>
       </c>
-      <c r="B32" s="108">
+      <c r="B32" s="199">
         <v>5</v>
       </c>
-      <c r="C32" s="108">
+      <c r="C32" s="199">
         <v>4</v>
       </c>
       <c r="E32" s="18">
@@ -5343,26 +5541,26 @@
       <c r="F32" s="30">
         <v>5.75</v>
       </c>
-      <c r="G32" s="193">
+      <c r="G32" s="161">
         <v>4</v>
       </c>
-      <c r="H32" s="193">
+      <c r="H32" s="161">
         <v>4</v>
       </c>
-      <c r="I32" s="167"/>
-      <c r="J32" s="166"/>
-      <c r="K32" s="115"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="115"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="135"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
     </row>
     <row r="33" spans="1:13" ht="19">
       <c r="A33" s="18">
         <v>2032</v>
       </c>
-      <c r="B33" s="108">
+      <c r="B33" s="199">
         <v>5</v>
       </c>
-      <c r="C33" s="108">
+      <c r="C33" s="199">
         <v>4</v>
       </c>
       <c r="E33" s="18">
@@ -5371,26 +5569,26 @@
       <c r="F33" s="30">
         <v>5.55</v>
       </c>
-      <c r="G33" s="193">
+      <c r="G33" s="161">
         <v>4</v>
       </c>
-      <c r="H33" s="193">
+      <c r="H33" s="161">
         <v>4</v>
       </c>
-      <c r="I33" s="167"/>
-      <c r="J33" s="166"/>
-      <c r="K33" s="115"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="135"/>
+      <c r="K33" s="114"/>
+      <c r="L33" s="114"/>
+      <c r="M33" s="114"/>
     </row>
     <row r="34" spans="1:13" ht="19">
       <c r="A34" s="18">
         <v>2033</v>
       </c>
-      <c r="B34" s="108">
+      <c r="B34" s="199">
         <v>5</v>
       </c>
-      <c r="C34" s="108">
+      <c r="C34" s="199">
         <v>4</v>
       </c>
       <c r="E34" s="18">
@@ -5399,26 +5597,26 @@
       <c r="F34" s="30">
         <v>5.36</v>
       </c>
-      <c r="G34" s="193">
+      <c r="G34" s="161">
         <v>4</v>
       </c>
-      <c r="H34" s="193">
+      <c r="H34" s="161">
         <v>4</v>
       </c>
-      <c r="I34" s="167"/>
-      <c r="J34" s="166"/>
-      <c r="K34" s="115"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115"/>
+      <c r="I34" s="136"/>
+      <c r="J34" s="135"/>
+      <c r="K34" s="114"/>
+      <c r="L34" s="114"/>
+      <c r="M34" s="114"/>
     </row>
     <row r="35" spans="1:13" ht="19">
       <c r="A35" s="18">
         <v>2034</v>
       </c>
-      <c r="B35" s="108">
+      <c r="B35" s="199">
         <v>5</v>
       </c>
-      <c r="C35" s="108">
+      <c r="C35" s="199">
         <v>4</v>
       </c>
       <c r="E35" s="18">
@@ -5427,26 +5625,26 @@
       <c r="F35" s="30">
         <v>5.17</v>
       </c>
-      <c r="G35" s="193">
+      <c r="G35" s="161">
         <v>4</v>
       </c>
-      <c r="H35" s="193">
+      <c r="H35" s="161">
         <v>4</v>
       </c>
-      <c r="I35" s="167"/>
-      <c r="J35" s="166"/>
-      <c r="K35" s="115"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="115"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="135"/>
+      <c r="K35" s="114"/>
+      <c r="L35" s="114"/>
+      <c r="M35" s="114"/>
     </row>
     <row r="36" spans="1:13" ht="19">
       <c r="A36" s="19">
         <v>2035</v>
       </c>
-      <c r="B36" s="108">
+      <c r="B36" s="199">
         <v>5</v>
       </c>
-      <c r="C36" s="108">
+      <c r="C36" s="199">
         <v>4</v>
       </c>
       <c r="E36" s="19">
@@ -5455,26 +5653,26 @@
       <c r="F36" s="30">
         <v>5</v>
       </c>
-      <c r="G36" s="193">
+      <c r="G36" s="161">
         <v>3</v>
       </c>
-      <c r="H36" s="193">
+      <c r="H36" s="161">
         <v>3</v>
       </c>
-      <c r="I36" s="167"/>
-      <c r="J36" s="166"/>
-      <c r="K36" s="115"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="115"/>
+      <c r="I36" s="136"/>
+      <c r="J36" s="135"/>
+      <c r="K36" s="114"/>
+      <c r="L36" s="114"/>
+      <c r="M36" s="114"/>
     </row>
     <row r="37" spans="1:13" ht="19">
       <c r="A37" s="18">
         <v>2036</v>
       </c>
-      <c r="B37" s="108">
+      <c r="B37" s="199">
         <v>5</v>
       </c>
-      <c r="C37" s="108">
+      <c r="C37" s="199">
         <v>4</v>
       </c>
       <c r="E37" s="18">
@@ -5483,26 +5681,26 @@
       <c r="F37" s="30">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G37" s="193">
+      <c r="G37" s="161">
         <v>3</v>
       </c>
-      <c r="H37" s="193">
+      <c r="H37" s="161">
         <v>3</v>
       </c>
-      <c r="I37" s="167"/>
-      <c r="J37" s="166"/>
-      <c r="K37" s="115"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="115"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="114"/>
+      <c r="L37" s="114"/>
+      <c r="M37" s="114"/>
     </row>
     <row r="38" spans="1:13" ht="19">
       <c r="A38" s="18">
         <v>2037</v>
       </c>
-      <c r="B38" s="108">
+      <c r="B38" s="199">
         <v>5</v>
       </c>
-      <c r="C38" s="108">
+      <c r="C38" s="199">
         <v>4</v>
       </c>
       <c r="E38" s="18">
@@ -5511,26 +5709,26 @@
       <c r="F38" s="30">
         <v>4.7300000000000004</v>
       </c>
-      <c r="G38" s="193">
+      <c r="G38" s="161">
         <v>3</v>
       </c>
-      <c r="H38" s="193">
+      <c r="H38" s="161">
         <v>3</v>
       </c>
-      <c r="I38" s="167"/>
-      <c r="J38" s="166"/>
-      <c r="K38" s="115"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="115"/>
+      <c r="I38" s="136"/>
+      <c r="J38" s="135"/>
+      <c r="K38" s="114"/>
+      <c r="L38" s="114"/>
+      <c r="M38" s="114"/>
     </row>
     <row r="39" spans="1:13" ht="19">
       <c r="A39" s="18">
         <v>2038</v>
       </c>
-      <c r="B39" s="108">
+      <c r="B39" s="199">
         <v>5</v>
       </c>
-      <c r="C39" s="108">
+      <c r="C39" s="199">
         <v>4</v>
       </c>
       <c r="E39" s="18">
@@ -5539,26 +5737,26 @@
       <c r="F39" s="30">
         <v>4.62</v>
       </c>
-      <c r="G39" s="193">
+      <c r="G39" s="161">
         <v>3</v>
       </c>
-      <c r="H39" s="193">
+      <c r="H39" s="161">
         <v>3</v>
       </c>
-      <c r="I39" s="167"/>
-      <c r="J39" s="166"/>
-      <c r="K39" s="115"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="115"/>
+      <c r="I39" s="136"/>
+      <c r="J39" s="135"/>
+      <c r="K39" s="114"/>
+      <c r="L39" s="114"/>
+      <c r="M39" s="114"/>
     </row>
     <row r="40" spans="1:13" ht="19">
       <c r="A40" s="18">
         <v>2039</v>
       </c>
-      <c r="B40" s="108">
+      <c r="B40" s="199">
         <v>5</v>
       </c>
-      <c r="C40" s="108">
+      <c r="C40" s="199">
         <v>4</v>
       </c>
       <c r="E40" s="18">
@@ -5567,26 +5765,26 @@
       <c r="F40" s="30">
         <v>4.5</v>
       </c>
-      <c r="G40" s="193">
+      <c r="G40" s="161">
         <v>3</v>
       </c>
-      <c r="H40" s="193">
+      <c r="H40" s="161">
         <v>3</v>
       </c>
-      <c r="I40" s="167"/>
-      <c r="J40" s="166"/>
-      <c r="K40" s="115"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="115"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="135"/>
+      <c r="K40" s="114"/>
+      <c r="L40" s="114"/>
+      <c r="M40" s="114"/>
     </row>
     <row r="41" spans="1:13" ht="19">
       <c r="A41" s="19">
         <v>2040</v>
       </c>
-      <c r="B41" s="108">
+      <c r="B41" s="199">
         <v>5</v>
       </c>
-      <c r="C41" s="108">
+      <c r="C41" s="199">
         <v>4</v>
       </c>
       <c r="E41" s="19">
@@ -5595,26 +5793,26 @@
       <c r="F41" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G41" s="193">
+      <c r="G41" s="161">
         <v>3</v>
       </c>
-      <c r="H41" s="193">
+      <c r="H41" s="161">
         <v>3</v>
       </c>
-      <c r="I41" s="167"/>
-      <c r="J41" s="166"/>
-      <c r="K41" s="115"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="115"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="135"/>
+      <c r="K41" s="114"/>
+      <c r="L41" s="114"/>
+      <c r="M41" s="114"/>
     </row>
     <row r="42" spans="1:13" ht="19">
       <c r="A42" s="18">
         <v>2041</v>
       </c>
-      <c r="B42" s="108">
+      <c r="B42" s="199">
         <v>5</v>
       </c>
-      <c r="C42" s="108">
+      <c r="C42" s="199">
         <v>4</v>
       </c>
       <c r="E42" s="18">
@@ -5623,26 +5821,26 @@
       <c r="F42" s="30">
         <v>4.3</v>
       </c>
-      <c r="G42" s="193">
+      <c r="G42" s="161">
         <v>3</v>
       </c>
-      <c r="H42" s="193">
+      <c r="H42" s="161">
         <v>3</v>
       </c>
-      <c r="I42" s="167"/>
-      <c r="J42" s="166"/>
-      <c r="K42" s="115"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="115"/>
+      <c r="I42" s="136"/>
+      <c r="J42" s="135"/>
+      <c r="K42" s="114"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
     </row>
     <row r="43" spans="1:13" ht="19">
       <c r="A43" s="18">
         <v>2042</v>
       </c>
-      <c r="B43" s="108">
+      <c r="B43" s="199">
         <v>5</v>
       </c>
-      <c r="C43" s="108">
+      <c r="C43" s="199">
         <v>4</v>
       </c>
       <c r="E43" s="18">
@@ -5651,26 +5849,26 @@
       <c r="F43" s="30">
         <v>4.22</v>
       </c>
-      <c r="G43" s="193">
+      <c r="G43" s="161">
         <v>3</v>
       </c>
-      <c r="H43" s="193">
+      <c r="H43" s="161">
         <v>3</v>
       </c>
-      <c r="I43" s="167"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="115"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="115"/>
+      <c r="I43" s="136"/>
+      <c r="J43" s="135"/>
+      <c r="K43" s="114"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
     </row>
     <row r="44" spans="1:13" ht="19">
       <c r="A44" s="18">
         <v>2043</v>
       </c>
-      <c r="B44" s="108">
+      <c r="B44" s="199">
         <v>5</v>
       </c>
-      <c r="C44" s="108">
+      <c r="C44" s="199">
         <v>4</v>
       </c>
       <c r="E44" s="18">
@@ -5679,26 +5877,26 @@
       <c r="F44" s="30">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G44" s="193">
+      <c r="G44" s="161">
         <v>3</v>
       </c>
-      <c r="H44" s="193">
+      <c r="H44" s="161">
         <v>3</v>
       </c>
-      <c r="I44" s="167"/>
-      <c r="J44" s="166"/>
-      <c r="K44" s="115"/>
-      <c r="L44" s="115"/>
-      <c r="M44" s="115"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="135"/>
+      <c r="K44" s="114"/>
+      <c r="L44" s="114"/>
+      <c r="M44" s="114"/>
     </row>
     <row r="45" spans="1:13" ht="19">
       <c r="A45" s="18">
         <v>2044</v>
       </c>
-      <c r="B45" s="108">
+      <c r="B45" s="199">
         <v>5</v>
       </c>
-      <c r="C45" s="108">
+      <c r="C45" s="199">
         <v>4</v>
       </c>
       <c r="E45" s="18">
@@ -5707,26 +5905,26 @@
       <c r="F45" s="30">
         <v>4.07</v>
       </c>
-      <c r="G45" s="193">
+      <c r="G45" s="161">
         <v>3</v>
       </c>
-      <c r="H45" s="193">
+      <c r="H45" s="161">
         <v>3</v>
       </c>
-      <c r="I45" s="167"/>
-      <c r="J45" s="166"/>
-      <c r="K45" s="115"/>
-      <c r="L45" s="115"/>
-      <c r="M45" s="115"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="135"/>
+      <c r="K45" s="114"/>
+      <c r="L45" s="114"/>
+      <c r="M45" s="114"/>
     </row>
     <row r="46" spans="1:13" ht="19">
       <c r="A46" s="19">
         <v>2045</v>
       </c>
-      <c r="B46" s="108">
+      <c r="B46" s="199">
         <v>5</v>
       </c>
-      <c r="C46" s="108">
+      <c r="C46" s="199">
         <v>4</v>
       </c>
       <c r="E46" s="19">
@@ -5735,26 +5933,26 @@
       <c r="F46" s="30">
         <v>4</v>
       </c>
-      <c r="G46" s="193">
+      <c r="G46" s="161">
         <v>3</v>
       </c>
-      <c r="H46" s="193">
+      <c r="H46" s="161">
         <v>3</v>
       </c>
-      <c r="I46" s="167"/>
-      <c r="J46" s="166"/>
-      <c r="K46" s="115"/>
-      <c r="L46" s="115"/>
-      <c r="M46" s="115"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="135"/>
+      <c r="K46" s="114"/>
+      <c r="L46" s="114"/>
+      <c r="M46" s="114"/>
     </row>
     <row r="47" spans="1:13" ht="19">
       <c r="A47" s="18">
         <v>2046</v>
       </c>
-      <c r="B47" s="108">
+      <c r="B47" s="199">
         <v>5</v>
       </c>
-      <c r="C47" s="108">
+      <c r="C47" s="199">
         <v>4</v>
       </c>
       <c r="E47" s="18">
@@ -5763,26 +5961,26 @@
       <c r="F47" s="30">
         <v>4</v>
       </c>
-      <c r="G47" s="193">
+      <c r="G47" s="161">
         <v>3</v>
       </c>
-      <c r="H47" s="193">
+      <c r="H47" s="161">
         <v>3</v>
       </c>
-      <c r="I47" s="167"/>
-      <c r="J47" s="166"/>
-      <c r="K47" s="115"/>
-      <c r="L47" s="115"/>
-      <c r="M47" s="115"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="135"/>
+      <c r="K47" s="114"/>
+      <c r="L47" s="114"/>
+      <c r="M47" s="114"/>
     </row>
     <row r="48" spans="1:13" ht="19">
       <c r="A48" s="18">
         <v>2047</v>
       </c>
-      <c r="B48" s="108">
+      <c r="B48" s="199">
         <v>5</v>
       </c>
-      <c r="C48" s="108">
+      <c r="C48" s="199">
         <v>4</v>
       </c>
       <c r="E48" s="18">
@@ -5791,26 +5989,26 @@
       <c r="F48" s="30">
         <v>4</v>
       </c>
-      <c r="G48" s="193">
+      <c r="G48" s="161">
         <v>3</v>
       </c>
-      <c r="H48" s="193">
+      <c r="H48" s="161">
         <v>3</v>
       </c>
-      <c r="I48" s="167"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="115"/>
-      <c r="L48" s="115"/>
-      <c r="M48" s="115"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="135"/>
+      <c r="K48" s="114"/>
+      <c r="L48" s="114"/>
+      <c r="M48" s="114"/>
     </row>
     <row r="49" spans="1:13" ht="19">
       <c r="A49" s="18">
         <v>2048</v>
       </c>
-      <c r="B49" s="108">
+      <c r="B49" s="199">
         <v>5</v>
       </c>
-      <c r="C49" s="108">
+      <c r="C49" s="199">
         <v>4</v>
       </c>
       <c r="E49" s="18">
@@ -5819,26 +6017,26 @@
       <c r="F49" s="30">
         <v>4</v>
       </c>
-      <c r="G49" s="193">
+      <c r="G49" s="161">
         <v>3</v>
       </c>
-      <c r="H49" s="193">
+      <c r="H49" s="161">
         <v>3</v>
       </c>
-      <c r="I49" s="167"/>
-      <c r="J49" s="166"/>
-      <c r="K49" s="115"/>
-      <c r="L49" s="115"/>
-      <c r="M49" s="115"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="135"/>
+      <c r="K49" s="114"/>
+      <c r="L49" s="114"/>
+      <c r="M49" s="114"/>
     </row>
     <row r="50" spans="1:13" ht="19">
       <c r="A50" s="18">
         <v>2049</v>
       </c>
-      <c r="B50" s="108">
+      <c r="B50" s="199">
         <v>5</v>
       </c>
-      <c r="C50" s="108">
+      <c r="C50" s="199">
         <v>4</v>
       </c>
       <c r="E50" s="18">
@@ -5847,26 +6045,26 @@
       <c r="F50" s="30">
         <v>4</v>
       </c>
-      <c r="G50" s="193">
+      <c r="G50" s="161">
         <v>3</v>
       </c>
-      <c r="H50" s="193">
+      <c r="H50" s="161">
         <v>3</v>
       </c>
-      <c r="I50" s="167"/>
-      <c r="J50" s="166"/>
-      <c r="K50" s="115"/>
-      <c r="L50" s="115"/>
-      <c r="M50" s="115"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="135"/>
+      <c r="K50" s="114"/>
+      <c r="L50" s="114"/>
+      <c r="M50" s="114"/>
     </row>
     <row r="51" spans="1:13" ht="20" thickBot="1">
       <c r="A51" s="20">
         <v>2050</v>
       </c>
-      <c r="B51" s="108">
+      <c r="B51" s="199">
         <v>5</v>
       </c>
-      <c r="C51" s="108">
+      <c r="C51" s="199">
         <v>4</v>
       </c>
       <c r="E51" s="20">
@@ -5875,41 +6073,41 @@
       <c r="F51" s="32">
         <v>4</v>
       </c>
-      <c r="G51" s="193">
+      <c r="G51" s="161">
         <v>3</v>
       </c>
-      <c r="H51" s="193">
+      <c r="H51" s="161">
         <v>3</v>
       </c>
-      <c r="I51" s="167"/>
-      <c r="J51" s="166"/>
-      <c r="K51" s="115"/>
-      <c r="L51" s="115"/>
-      <c r="M51" s="115"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="135"/>
+      <c r="K51" s="114"/>
+      <c r="L51" s="114"/>
+      <c r="M51" s="114"/>
     </row>
     <row r="52" spans="1:13">
-      <c r="H52" s="115"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="115"/>
-      <c r="K52" s="115"/>
-      <c r="L52" s="115"/>
-      <c r="M52" s="115"/>
+      <c r="H52" s="114"/>
+      <c r="I52" s="114"/>
+      <c r="J52" s="114"/>
+      <c r="K52" s="114"/>
+      <c r="L52" s="114"/>
+      <c r="M52" s="114"/>
     </row>
     <row r="53" spans="1:13">
-      <c r="H53" s="115"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="115"/>
-      <c r="K53" s="115"/>
-      <c r="L53" s="115"/>
-      <c r="M53" s="115"/>
+      <c r="H53" s="114"/>
+      <c r="I53" s="114"/>
+      <c r="J53" s="114"/>
+      <c r="K53" s="114"/>
+      <c r="L53" s="114"/>
+      <c r="M53" s="114"/>
     </row>
     <row r="54" spans="1:13">
-      <c r="H54" s="115"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="115"/>
-      <c r="K54" s="115"/>
-      <c r="L54" s="115"/>
-      <c r="M54" s="115"/>
+      <c r="H54" s="114"/>
+      <c r="I54" s="114"/>
+      <c r="J54" s="114"/>
+      <c r="K54" s="114"/>
+      <c r="L54" s="114"/>
+      <c r="M54" s="114"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5919,11 +6117,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C09B5-9790-9C47-A4C7-72279D6D9F9A}">
-  <dimension ref="A1:K64"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{287C09B5-9790-9C47-A4C7-72279D6D9F9A}">
+  <dimension ref="A1:N64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5933,1399 +6131,1896 @@
     <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="18.5" customWidth="1"/>
     <col min="7" max="7" width="19.83203125" customWidth="1"/>
-    <col min="8" max="8" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="39.1640625" customWidth="1"/>
-    <col min="11" max="11" width="37.33203125" customWidth="1"/>
+    <col min="8" max="11" width="21.6640625" customWidth="1"/>
+    <col min="13" max="13" width="39.1640625" customWidth="1"/>
+    <col min="14" max="14" width="37.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="163" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="132" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="164"/>
-      <c r="B3" s="182" t="s">
+    <row r="3" spans="1:14" ht="19">
+      <c r="A3" s="133"/>
+      <c r="B3" s="176" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="135" t="s">
+      <c r="C3" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136" t="s">
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="179" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="178"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="179" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="175"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="178">
+        <v>2</v>
+      </c>
+      <c r="D4" s="178"/>
+      <c r="E4" s="178"/>
+      <c r="F4" s="178"/>
+      <c r="G4" s="178"/>
+      <c r="H4" s="178"/>
+      <c r="I4" s="178"/>
+      <c r="J4" s="178"/>
+      <c r="K4" s="178"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="191" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="191" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="191" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="191" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="H5" s="191" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="136"/>
-      <c r="J3" t="s">
+      <c r="I5" s="191" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="B4" s="137" t="s">
+      <c r="J5" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="193" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" s="160" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" s="160" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="180">
+        <v>1992</v>
+      </c>
+      <c r="C6" s="181"/>
+      <c r="D6" s="181">
+        <v>3297</v>
+      </c>
+      <c r="E6" s="181">
+        <v>43</v>
+      </c>
+      <c r="F6" s="181"/>
+      <c r="G6" s="200"/>
+      <c r="H6" s="181"/>
+      <c r="I6" s="181">
+        <v>349</v>
+      </c>
+      <c r="J6" s="181">
+        <v>2</v>
+      </c>
+      <c r="K6" s="203"/>
+      <c r="M6" s="170"/>
+      <c r="N6" s="170"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="180">
+        <v>1993</v>
+      </c>
+      <c r="C7" s="181"/>
+      <c r="D7" s="181">
+        <v>3297</v>
+      </c>
+      <c r="E7" s="181">
+        <v>50</v>
+      </c>
+      <c r="F7" s="181"/>
+      <c r="G7" s="200"/>
+      <c r="H7" s="181"/>
+      <c r="I7" s="181">
+        <v>497</v>
+      </c>
+      <c r="J7" s="181">
+        <v>7</v>
+      </c>
+      <c r="K7" s="203"/>
+      <c r="M7" s="170"/>
+      <c r="N7" s="170"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="180">
+        <v>1994</v>
+      </c>
+      <c r="C8" s="181"/>
+      <c r="D8" s="181">
+        <v>3299</v>
+      </c>
+      <c r="E8" s="181">
+        <v>82</v>
+      </c>
+      <c r="F8" s="181"/>
+      <c r="G8" s="200"/>
+      <c r="H8" s="181"/>
+      <c r="I8" s="181">
+        <v>1042</v>
+      </c>
+      <c r="J8" s="181">
+        <v>32</v>
+      </c>
+      <c r="K8" s="203"/>
+      <c r="M8" s="170"/>
+      <c r="N8" s="170"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="180">
+        <v>1995</v>
+      </c>
+      <c r="C9" s="181">
+        <f>188</f>
+        <v>188</v>
+      </c>
+      <c r="D9" s="181">
+        <v>3299</v>
+      </c>
+      <c r="E9" s="181">
+        <v>88</v>
+      </c>
+      <c r="F9" s="181"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181">
+        <v>1065</v>
+      </c>
+      <c r="J9" s="181">
+        <v>37</v>
+      </c>
+      <c r="K9" s="203"/>
+      <c r="M9" s="170"/>
+      <c r="N9" s="170"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="180">
+        <v>1996</v>
+      </c>
+      <c r="C10" s="181">
+        <f>194</f>
+        <v>194</v>
+      </c>
+      <c r="D10" s="181">
+        <v>4252</v>
+      </c>
+      <c r="E10" s="181">
+        <v>95</v>
+      </c>
+      <c r="F10" s="181">
+        <v>72</v>
+      </c>
+      <c r="G10" s="200"/>
+      <c r="H10" s="181"/>
+      <c r="I10" s="181">
+        <v>1419</v>
+      </c>
+      <c r="J10" s="181">
+        <v>68</v>
+      </c>
+      <c r="K10" s="203">
+        <v>190246</v>
+      </c>
+      <c r="M10" s="170"/>
+      <c r="N10" s="170"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="180">
+        <v>1997</v>
+      </c>
+      <c r="C11" s="181">
+        <f>310</f>
+        <v>310</v>
+      </c>
+      <c r="D11" s="181">
+        <v>4255</v>
+      </c>
+      <c r="E11" s="181">
+        <v>106</v>
+      </c>
+      <c r="F11" s="181">
+        <v>71</v>
+      </c>
+      <c r="G11" s="200"/>
+      <c r="H11" s="181"/>
+      <c r="I11" s="181">
+        <v>1426</v>
+      </c>
+      <c r="J11" s="181">
+        <v>71</v>
+      </c>
+      <c r="K11" s="203">
+        <v>187892</v>
+      </c>
+      <c r="M11" s="170"/>
+      <c r="N11" s="170"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="180">
+        <v>1998</v>
+      </c>
+      <c r="C12" s="181">
+        <f>486</f>
+        <v>486</v>
+      </c>
+      <c r="D12" s="181">
+        <v>5318</v>
+      </c>
+      <c r="E12" s="181">
+        <v>91</v>
+      </c>
+      <c r="F12" s="181">
         <v>66</v>
       </c>
-      <c r="C4" s="136">
+      <c r="G12" s="200"/>
+      <c r="H12" s="181"/>
+      <c r="I12" s="181">
+        <v>1268</v>
+      </c>
+      <c r="J12" s="181">
+        <v>40</v>
+      </c>
+      <c r="K12" s="203">
+        <v>182596</v>
+      </c>
+      <c r="M12" s="170"/>
+      <c r="N12" s="170"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" s="180">
+        <v>1999</v>
+      </c>
+      <c r="C13" s="181">
+        <f>490</f>
+        <v>490</v>
+      </c>
+      <c r="D13" s="181">
+        <v>4153</v>
+      </c>
+      <c r="E13" s="181">
+        <v>51</v>
+      </c>
+      <c r="F13" s="181">
+        <v>46</v>
+      </c>
+      <c r="G13" s="200"/>
+      <c r="H13" s="181"/>
+      <c r="I13" s="181">
+        <v>1267</v>
+      </c>
+      <c r="J13" s="181">
+        <v>49</v>
+      </c>
+      <c r="K13" s="203">
+        <v>180567</v>
+      </c>
+      <c r="M13" s="170"/>
+      <c r="N13" s="170"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" s="180">
+        <v>2000</v>
+      </c>
+      <c r="C14" s="181">
+        <f>558</f>
+        <v>558</v>
+      </c>
+      <c r="D14" s="181">
+        <v>3268</v>
+      </c>
+      <c r="E14" s="181">
+        <v>3</v>
+      </c>
+      <c r="F14" s="181">
+        <v>44</v>
+      </c>
+      <c r="G14" s="200"/>
+      <c r="H14" s="181">
         <v>2</v>
       </c>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="B5" s="138" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="139" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="139" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="139" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="162" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="139" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" s="192" t="s">
-        <v>86</v>
-      </c>
-      <c r="K5" s="192" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="140">
-        <v>1992</v>
-      </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="142">
-        <v>3297</v>
-      </c>
-      <c r="E6" s="142">
-        <v>43</v>
-      </c>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
-      <c r="H6" s="142"/>
-      <c r="J6" s="202"/>
-      <c r="K6" s="202"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" s="143">
-        <v>1993</v>
-      </c>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144">
-        <v>3297</v>
-      </c>
-      <c r="E7" s="144">
-        <v>50</v>
-      </c>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="144"/>
-      <c r="J7" s="202"/>
-      <c r="K7" s="202"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" s="140">
-        <v>1994</v>
-      </c>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142">
-        <v>3299</v>
-      </c>
-      <c r="E8" s="142">
-        <v>82</v>
-      </c>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="142"/>
-      <c r="J8" s="202"/>
-      <c r="K8" s="202"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" s="143">
-        <v>1995</v>
-      </c>
-      <c r="C9" s="144">
+      <c r="I14" s="181">
+        <v>1217</v>
+      </c>
+      <c r="J14" s="181">
+        <v>113</v>
+      </c>
+      <c r="K14" s="203">
+        <v>175941</v>
+      </c>
+      <c r="M14" s="170"/>
+      <c r="N14" s="170"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="B15" s="180">
+        <v>2001</v>
+      </c>
+      <c r="C15" s="181">
+        <f>693</f>
+        <v>693</v>
+      </c>
+      <c r="D15" s="181">
+        <v>3403</v>
+      </c>
+      <c r="E15" s="181"/>
+      <c r="F15" s="181">
+        <v>44</v>
+      </c>
+      <c r="G15" s="200"/>
+      <c r="H15" s="181">
+        <v>16</v>
+      </c>
+      <c r="I15" s="181">
+        <v>1232</v>
+      </c>
+      <c r="J15" s="181">
+        <v>154</v>
+      </c>
+      <c r="K15" s="203">
+        <v>172169</v>
+      </c>
+      <c r="M15" s="170"/>
+      <c r="N15" s="170"/>
+    </row>
+    <row r="16" spans="1:14" ht="19">
+      <c r="B16" s="180">
+        <v>2002</v>
+      </c>
+      <c r="C16" s="181">
+        <f>873</f>
+        <v>873</v>
+      </c>
+      <c r="D16" s="181">
+        <v>3431</v>
+      </c>
+      <c r="E16" s="181"/>
+      <c r="F16" s="181">
+        <v>36</v>
+      </c>
+      <c r="G16" s="200">
+        <v>7</v>
+      </c>
+      <c r="H16" s="181">
+        <v>79</v>
+      </c>
+      <c r="I16" s="181">
+        <v>1166</v>
+      </c>
+      <c r="J16" s="181">
+        <v>149</v>
+      </c>
+      <c r="K16" s="203">
+        <v>170018</v>
+      </c>
+      <c r="M16" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="19">
+      <c r="B17" s="180">
+        <v>2003</v>
+      </c>
+      <c r="C17" s="181">
+        <f>830</f>
+        <v>830</v>
+      </c>
+      <c r="D17" s="181">
+        <v>3966</v>
+      </c>
+      <c r="E17" s="181"/>
+      <c r="F17" s="181">
+        <v>62</v>
+      </c>
+      <c r="G17" s="200">
+        <v>7</v>
+      </c>
+      <c r="H17" s="181">
+        <v>142</v>
+      </c>
+      <c r="I17" s="181">
+        <v>1035</v>
+      </c>
+      <c r="J17" s="181">
         <v>188</v>
       </c>
-      <c r="D9" s="144">
-        <v>3299</v>
-      </c>
-      <c r="E9" s="144">
-        <v>88</v>
-      </c>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="J9" s="202"/>
-      <c r="K9" s="202"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" s="140">
-        <v>1996</v>
-      </c>
-      <c r="C10" s="142">
-        <v>194</v>
-      </c>
-      <c r="D10" s="142">
-        <v>4252</v>
-      </c>
-      <c r="E10" s="142">
-        <v>95</v>
-      </c>
-      <c r="F10" s="142">
-        <v>72</v>
-      </c>
-      <c r="G10" s="142"/>
-      <c r="H10" s="142"/>
-      <c r="J10" s="202"/>
-      <c r="K10" s="202"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" s="143">
-        <v>1997</v>
-      </c>
-      <c r="C11" s="144">
-        <v>310</v>
-      </c>
-      <c r="D11" s="144">
-        <v>4255</v>
-      </c>
-      <c r="E11" s="144">
-        <v>106</v>
-      </c>
-      <c r="F11" s="144">
-        <v>71</v>
-      </c>
-      <c r="G11" s="144"/>
-      <c r="H11" s="144"/>
-      <c r="J11" s="202"/>
-      <c r="K11" s="202"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" s="140">
-        <v>1998</v>
-      </c>
-      <c r="C12" s="142">
-        <v>486</v>
-      </c>
-      <c r="D12" s="142">
-        <v>5318</v>
-      </c>
-      <c r="E12" s="142">
-        <v>91</v>
-      </c>
-      <c r="F12" s="142">
-        <v>66</v>
-      </c>
-      <c r="G12" s="142"/>
-      <c r="H12" s="142"/>
-      <c r="J12" s="202"/>
-      <c r="K12" s="202"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" s="143">
-        <v>1999</v>
-      </c>
-      <c r="C13" s="144">
-        <v>490</v>
-      </c>
-      <c r="D13" s="144">
-        <v>4153</v>
-      </c>
-      <c r="E13" s="144">
+      <c r="K17" s="203">
+        <v>167571</v>
+      </c>
+      <c r="M17" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N17" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="19">
+      <c r="B18" s="180">
+        <v>2004</v>
+      </c>
+      <c r="C18" s="181">
+        <f>671</f>
+        <v>671</v>
+      </c>
+      <c r="D18" s="181">
+        <v>3689</v>
+      </c>
+      <c r="E18" s="182"/>
+      <c r="F18" s="181">
+        <v>58</v>
+      </c>
+      <c r="G18" s="200">
+        <v>9</v>
+      </c>
+      <c r="H18" s="181">
+        <v>176</v>
+      </c>
+      <c r="I18" s="181">
+        <v>917</v>
+      </c>
+      <c r="J18" s="181">
+        <v>200</v>
+      </c>
+      <c r="K18" s="203">
+        <v>167346</v>
+      </c>
+      <c r="M18" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N18" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="19">
+      <c r="B19" s="180">
+        <v>2005</v>
+      </c>
+      <c r="C19" s="181">
+        <f>588</f>
+        <v>588</v>
+      </c>
+      <c r="D19" s="181">
+        <v>2995</v>
+      </c>
+      <c r="E19" s="182"/>
+      <c r="F19" s="181">
+        <v>40</v>
+      </c>
+      <c r="G19" s="200">
+        <v>14</v>
+      </c>
+      <c r="H19" s="181">
+        <v>304</v>
+      </c>
+      <c r="I19" s="181">
+        <v>787</v>
+      </c>
+      <c r="J19" s="181">
+        <v>436</v>
+      </c>
+      <c r="K19" s="203">
+        <v>168987</v>
+      </c>
+      <c r="M19" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N19" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="19">
+      <c r="B20" s="180">
+        <v>2006</v>
+      </c>
+      <c r="C20" s="181">
+        <f>465</f>
+        <v>465</v>
+      </c>
+      <c r="D20" s="181">
+        <v>2619</v>
+      </c>
+      <c r="E20" s="181"/>
+      <c r="F20" s="181">
+        <v>37</v>
+      </c>
+      <c r="G20" s="200">
+        <v>17</v>
+      </c>
+      <c r="H20" s="181">
+        <v>459</v>
+      </c>
+      <c r="I20" s="181">
+        <v>732</v>
+      </c>
+      <c r="J20" s="181">
+        <v>762</v>
+      </c>
+      <c r="K20" s="203">
+        <v>167476</v>
+      </c>
+      <c r="M20" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N20" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="19">
+      <c r="B21" s="180">
+        <v>2007</v>
+      </c>
+      <c r="C21" s="183">
+        <f>442</f>
+        <v>442</v>
+      </c>
+      <c r="D21" s="183">
+        <v>2371</v>
+      </c>
+      <c r="E21" s="181"/>
+      <c r="F21" s="181">
+        <v>35</v>
+      </c>
+      <c r="G21" s="200">
+        <v>32</v>
+      </c>
+      <c r="H21" s="183">
+        <v>742</v>
+      </c>
+      <c r="I21" s="183">
+        <v>721</v>
+      </c>
+      <c r="J21" s="183">
+        <v>1208</v>
+      </c>
+      <c r="K21" s="203">
+        <v>164292</v>
+      </c>
+      <c r="M21" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N21" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="19">
+      <c r="B22" s="180">
+        <v>2008</v>
+      </c>
+      <c r="C22" s="183">
+        <f>430</f>
+        <v>430</v>
+      </c>
+      <c r="D22" s="183">
+        <v>2175</v>
+      </c>
+      <c r="E22" s="181"/>
+      <c r="F22" s="184">
+        <v>38</v>
+      </c>
+      <c r="G22" s="200">
+        <v>46</v>
+      </c>
+      <c r="H22" s="183">
+        <v>645</v>
+      </c>
+      <c r="I22" s="183">
+        <v>778</v>
+      </c>
+      <c r="J22" s="183">
+        <v>1644</v>
+      </c>
+      <c r="K22" s="203">
+        <v>161078</v>
+      </c>
+      <c r="M22" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N22" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="19">
+      <c r="B23" s="180">
+        <v>2009</v>
+      </c>
+      <c r="C23" s="183">
+        <f>465</f>
+        <v>465</v>
+      </c>
+      <c r="D23" s="183">
+        <v>2468</v>
+      </c>
+      <c r="E23" s="181"/>
+      <c r="F23" s="184">
+        <v>36</v>
+      </c>
+      <c r="G23" s="200">
+        <v>63</v>
+      </c>
+      <c r="H23" s="183">
+        <v>679</v>
+      </c>
+      <c r="I23" s="183">
+        <v>772</v>
+      </c>
+      <c r="J23" s="183">
+        <v>1928</v>
+      </c>
+      <c r="K23" s="203">
+        <v>162350</v>
+      </c>
+      <c r="M23" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N23" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="19">
+      <c r="B24" s="180">
+        <v>2010</v>
+      </c>
+      <c r="C24" s="183">
+        <f>541</f>
+        <v>541</v>
+      </c>
+      <c r="D24" s="183">
+        <v>2647</v>
+      </c>
+      <c r="E24" s="181"/>
+      <c r="F24" s="184">
+        <v>39</v>
+      </c>
+      <c r="G24" s="200">
+        <v>58</v>
+      </c>
+      <c r="H24" s="183">
+        <v>644</v>
+      </c>
+      <c r="I24" s="183">
+        <v>841</v>
+      </c>
+      <c r="J24" s="183">
+        <v>2142</v>
+      </c>
+      <c r="K24" s="203">
+        <v>159006</v>
+      </c>
+      <c r="M24" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N24" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="19">
+      <c r="B25" s="180">
+        <v>2011</v>
+      </c>
+      <c r="C25" s="185" t="e">
+        <f>3394/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="185">
+        <v>2597</v>
+      </c>
+      <c r="E25" s="186"/>
+      <c r="F25" s="184">
+        <v>45</v>
+      </c>
+      <c r="G25" s="200">
+        <v>56</v>
+      </c>
+      <c r="H25" s="185">
+        <v>627</v>
+      </c>
+      <c r="I25" s="185">
+        <v>910</v>
+      </c>
+      <c r="J25" s="185">
+        <v>2442</v>
+      </c>
+      <c r="K25" s="203">
+        <v>157393</v>
+      </c>
+      <c r="M25" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N25" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" ht="19">
+      <c r="B26" s="180">
+        <v>2012</v>
+      </c>
+      <c r="C26" s="185" t="e">
+        <f>13392/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="185">
+        <v>2654</v>
+      </c>
+      <c r="E26" s="186"/>
+      <c r="F26" s="184">
+        <v>59</v>
+      </c>
+      <c r="G26" s="200">
+        <v>58</v>
+      </c>
+      <c r="H26" s="185">
+        <v>675</v>
+      </c>
+      <c r="I26" s="185">
+        <v>1107</v>
+      </c>
+      <c r="J26" s="185">
+        <v>2553</v>
+      </c>
+      <c r="K26" s="203">
+        <v>156065</v>
+      </c>
+      <c r="M26" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N26" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" ht="19">
+      <c r="B27" s="180">
+        <v>2013</v>
+      </c>
+      <c r="C27" s="185" t="e">
+        <f>19410/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="185">
+        <v>2956</v>
+      </c>
+      <c r="E27" s="186"/>
+      <c r="F27" s="184">
+        <v>81</v>
+      </c>
+      <c r="G27" s="200">
+        <v>53</v>
+      </c>
+      <c r="H27" s="185">
+        <v>757</v>
+      </c>
+      <c r="I27" s="185">
+        <v>1263</v>
+      </c>
+      <c r="J27" s="185">
+        <v>2639</v>
+      </c>
+      <c r="K27" s="203">
+        <f>K26</f>
+        <v>156065</v>
+      </c>
+      <c r="M27" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N27" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" ht="19">
+      <c r="B28" s="180">
+        <v>2014</v>
+      </c>
+      <c r="C28" s="185" t="e">
+        <f>25602/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D28" s="185">
+        <v>2931</v>
+      </c>
+      <c r="E28" s="186"/>
+      <c r="F28" s="184">
+        <v>103</v>
+      </c>
+      <c r="G28" s="200">
         <v>51</v>
       </c>
-      <c r="F13" s="144">
-        <v>46</v>
-      </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="J13" s="202"/>
-      <c r="K13" s="202"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" s="140">
-        <v>2000</v>
-      </c>
-      <c r="C14" s="142">
-        <v>558</v>
-      </c>
-      <c r="D14" s="142">
-        <v>3268</v>
-      </c>
-      <c r="E14" s="142">
-        <v>3</v>
-      </c>
-      <c r="F14" s="142">
-        <v>44</v>
-      </c>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142">
-        <v>2</v>
-      </c>
-      <c r="J14" s="202"/>
-      <c r="K14" s="202"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" s="143">
-        <v>2001</v>
-      </c>
-      <c r="C15" s="144">
-        <v>693</v>
-      </c>
-      <c r="D15" s="144">
-        <v>3403</v>
-      </c>
-      <c r="E15" s="144"/>
-      <c r="F15" s="144">
-        <v>44</v>
-      </c>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144">
-        <v>16</v>
-      </c>
-      <c r="J15" s="202"/>
-      <c r="K15" s="202"/>
-    </row>
-    <row r="16" spans="1:11" ht="19">
-      <c r="B16" s="140">
-        <v>2002</v>
-      </c>
-      <c r="C16" s="142">
-        <v>873</v>
-      </c>
-      <c r="D16" s="142">
-        <v>3431</v>
-      </c>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142">
-        <v>36</v>
-      </c>
-      <c r="G16" s="142">
-        <v>7</v>
-      </c>
-      <c r="H16" s="142">
-        <v>79</v>
-      </c>
-      <c r="J16" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K16" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" ht="19">
-      <c r="B17" s="143">
-        <v>2003</v>
-      </c>
-      <c r="C17" s="144">
-        <v>830</v>
-      </c>
-      <c r="D17" s="144">
-        <v>3966</v>
-      </c>
-      <c r="E17" s="144"/>
-      <c r="F17" s="144">
-        <v>62</v>
-      </c>
-      <c r="G17" s="144">
-        <v>7</v>
-      </c>
-      <c r="H17" s="144">
-        <v>142</v>
-      </c>
-      <c r="J17" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K17" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" ht="19">
-      <c r="B18" s="140">
-        <v>2004</v>
-      </c>
-      <c r="C18" s="142">
-        <v>671</v>
-      </c>
-      <c r="D18" s="142">
-        <v>3689</v>
-      </c>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142">
-        <v>58</v>
-      </c>
-      <c r="G18" s="142">
-        <v>9</v>
-      </c>
-      <c r="H18" s="142">
-        <v>176</v>
-      </c>
-      <c r="J18" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K18" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" ht="19">
-      <c r="B19" s="143">
-        <v>2005</v>
-      </c>
-      <c r="C19" s="144">
-        <v>588</v>
-      </c>
-      <c r="D19" s="144">
-        <v>2995</v>
-      </c>
-      <c r="E19" s="144"/>
-      <c r="F19" s="144">
-        <v>40</v>
-      </c>
-      <c r="G19" s="144">
-        <v>14</v>
-      </c>
-      <c r="H19" s="144">
-        <v>304</v>
-      </c>
-      <c r="J19" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K19" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" ht="19">
-      <c r="B20" s="140">
-        <v>2006</v>
-      </c>
-      <c r="C20" s="142">
-        <v>465</v>
-      </c>
-      <c r="D20" s="142">
-        <v>2619</v>
-      </c>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142">
-        <v>37</v>
-      </c>
-      <c r="G20" s="142">
-        <v>17</v>
-      </c>
-      <c r="H20" s="142">
-        <v>459</v>
-      </c>
-      <c r="J20" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K20" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" ht="19">
-      <c r="B21" s="143">
-        <v>2007</v>
-      </c>
-      <c r="C21" s="145">
-        <v>442</v>
-      </c>
-      <c r="D21" s="145">
-        <v>2371</v>
-      </c>
-      <c r="E21" s="144"/>
-      <c r="F21" s="144">
-        <v>35</v>
-      </c>
-      <c r="G21" s="144">
-        <v>32</v>
-      </c>
-      <c r="H21" s="145">
-        <v>742</v>
-      </c>
-      <c r="J21" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K21" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="19">
-      <c r="B22" s="140">
-        <v>2008</v>
-      </c>
-      <c r="C22" s="146">
-        <v>430</v>
-      </c>
-      <c r="D22" s="146">
-        <v>2175</v>
-      </c>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142">
-        <v>38</v>
-      </c>
-      <c r="G22" s="142">
-        <v>46</v>
-      </c>
-      <c r="H22" s="146">
-        <v>645</v>
-      </c>
-      <c r="J22" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K22" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="19">
-      <c r="B23" s="143">
-        <v>2009</v>
-      </c>
-      <c r="C23" s="145">
-        <v>465</v>
-      </c>
-      <c r="D23" s="145">
-        <v>2468</v>
-      </c>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144">
-        <v>36</v>
-      </c>
-      <c r="G23" s="144">
+      <c r="H28" s="185">
+        <v>783</v>
+      </c>
+      <c r="I28" s="185">
+        <v>1495</v>
+      </c>
+      <c r="J28" s="185">
+        <v>2840</v>
+      </c>
+      <c r="K28" s="203">
+        <f t="shared" ref="K28:K64" si="0">K27</f>
+        <v>156065</v>
+      </c>
+      <c r="M28" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N28" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" ht="19">
+      <c r="B29" s="180">
+        <v>2015</v>
+      </c>
+      <c r="C29" s="187" t="e">
+        <f>30945/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D29" s="187">
+        <v>3594</v>
+      </c>
+      <c r="E29" s="186"/>
+      <c r="F29" s="187">
+        <v>111</v>
+      </c>
+      <c r="G29" s="201">
+        <v>45</v>
+      </c>
+      <c r="H29" s="187">
+        <v>721</v>
+      </c>
+      <c r="I29" s="187">
+        <v>1563</v>
+      </c>
+      <c r="J29" s="187">
+        <v>2990</v>
+      </c>
+      <c r="K29" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M29" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N29" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" ht="19">
+      <c r="B30" s="180">
+        <v>2016</v>
+      </c>
+      <c r="C30" s="187" t="e">
+        <f>42029/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D30" s="187">
+        <v>3665</v>
+      </c>
+      <c r="E30" s="186"/>
+      <c r="F30" s="187">
+        <v>140</v>
+      </c>
+      <c r="G30" s="201">
+        <v>54</v>
+      </c>
+      <c r="H30" s="187">
+        <v>697</v>
+      </c>
+      <c r="I30" s="187">
+        <v>1725</v>
+      </c>
+      <c r="J30" s="187">
+        <v>3090</v>
+      </c>
+      <c r="K30" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M30" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N30" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" ht="19">
+      <c r="B31" s="180">
+        <v>2017</v>
+      </c>
+      <c r="C31" s="188" t="e">
+        <f>50627/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D31" s="178"/>
+      <c r="E31" s="178"/>
+      <c r="F31" s="178"/>
+      <c r="G31" s="202">
         <v>63</v>
       </c>
-      <c r="H23" s="145">
-        <v>679</v>
-      </c>
-      <c r="J23" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K23" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="19">
-      <c r="B24" s="140">
-        <v>2010</v>
-      </c>
-      <c r="C24" s="146">
-        <v>541</v>
-      </c>
-      <c r="D24" s="146">
-        <v>2647</v>
-      </c>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142">
-        <v>39</v>
-      </c>
-      <c r="G24" s="142">
-        <v>58</v>
-      </c>
-      <c r="H24" s="146">
-        <v>644</v>
-      </c>
-      <c r="J24" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K24" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="19">
-      <c r="B25" s="143">
-        <v>2011</v>
-      </c>
-      <c r="C25" s="147">
-        <v>1697</v>
-      </c>
-      <c r="D25" s="147">
-        <v>2597</v>
-      </c>
-      <c r="E25" s="148"/>
-      <c r="F25" s="144">
-        <v>45</v>
-      </c>
-      <c r="G25" s="144">
-        <v>56</v>
-      </c>
-      <c r="H25" s="147">
-        <v>627</v>
-      </c>
-      <c r="J25" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K25" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="19">
-      <c r="B26" s="140">
-        <v>2012</v>
-      </c>
-      <c r="C26" s="149">
-        <v>6696</v>
-      </c>
-      <c r="D26" s="149">
-        <v>2654</v>
-      </c>
-      <c r="E26" s="150"/>
-      <c r="F26" s="142">
-        <v>59</v>
-      </c>
-      <c r="G26" s="142">
-        <v>58</v>
-      </c>
-      <c r="H26" s="149">
-        <v>675</v>
-      </c>
-      <c r="J26" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K26" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="19">
-      <c r="B27" s="143">
-        <v>2013</v>
-      </c>
-      <c r="C27" s="147">
-        <v>9705</v>
-      </c>
-      <c r="D27" s="147">
-        <v>2956</v>
-      </c>
-      <c r="E27" s="148"/>
-      <c r="F27" s="144">
-        <v>81</v>
-      </c>
-      <c r="G27" s="144">
-        <v>53</v>
-      </c>
-      <c r="H27" s="147">
-        <v>757</v>
-      </c>
-      <c r="J27" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K27" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="19">
-      <c r="B28" s="140">
-        <v>2014</v>
-      </c>
-      <c r="C28" s="149">
-        <v>12801</v>
-      </c>
-      <c r="D28" s="149">
-        <v>2931</v>
-      </c>
-      <c r="E28" s="150"/>
-      <c r="F28" s="142">
-        <v>103</v>
-      </c>
-      <c r="G28" s="142">
-        <v>51</v>
-      </c>
-      <c r="H28" s="149">
-        <v>783</v>
-      </c>
-      <c r="J28" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K28" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="19">
-      <c r="B29" s="143">
-        <v>2015</v>
-      </c>
-      <c r="C29" s="151">
-        <v>15473</v>
-      </c>
-      <c r="D29" s="151">
-        <v>3594</v>
-      </c>
-      <c r="E29" s="148"/>
-      <c r="F29" s="151">
+      <c r="H31" s="178"/>
+      <c r="I31" s="178"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M31" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N31" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="19">
+      <c r="B32" s="180">
+        <v>2018</v>
+      </c>
+      <c r="C32" s="188" t="e">
+        <f>61067/plugs</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D32" s="178"/>
+      <c r="E32" s="178"/>
+      <c r="F32" s="178"/>
+      <c r="G32" s="202">
+        <v>41</v>
+      </c>
+      <c r="H32" s="178"/>
+      <c r="I32" s="178"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M32" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N32" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="19">
+      <c r="B33" s="180">
+        <v>2019</v>
+      </c>
+      <c r="C33" s="188">
+        <f>$R$109+B33*$R$110</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="178"/>
+      <c r="E33" s="178"/>
+      <c r="F33" s="178"/>
+      <c r="G33" s="202">
+        <v>57</v>
+      </c>
+      <c r="H33" s="178"/>
+      <c r="I33" s="178"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M33" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N33" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" ht="19">
+      <c r="B34" s="180">
+        <v>2020</v>
+      </c>
+      <c r="C34" s="188">
+        <f t="shared" ref="C34:C64" si="1">$R$109+B34*$R$110</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="202">
+        <v>75</v>
+      </c>
+      <c r="H34" s="189"/>
+      <c r="I34" s="189"/>
+      <c r="J34" s="189"/>
+      <c r="K34" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M34" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N34" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="19">
+      <c r="B35" s="180">
+        <v>2021</v>
+      </c>
+      <c r="C35" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="178"/>
+      <c r="E35" s="178"/>
+      <c r="F35" s="178"/>
+      <c r="G35" s="202">
         <v>111</v>
       </c>
-      <c r="G29" s="151">
-        <v>45</v>
-      </c>
-      <c r="H29" s="151">
-        <v>721</v>
-      </c>
-      <c r="J29" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K29" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="19">
-      <c r="B30" s="140">
-        <v>2016</v>
-      </c>
-      <c r="C30" s="152">
-        <v>21015</v>
-      </c>
-      <c r="D30" s="152">
-        <v>3665</v>
-      </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="152">
-        <v>140</v>
-      </c>
-      <c r="G30" s="152">
-        <v>54</v>
-      </c>
-      <c r="H30" s="152">
-        <v>697</v>
-      </c>
-      <c r="J30" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K30" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="19">
-      <c r="B31" s="143">
-        <v>2017</v>
-      </c>
-      <c r="C31" s="153">
-        <v>25314</v>
-      </c>
-      <c r="D31" s="154"/>
-      <c r="E31" s="154"/>
-      <c r="F31" s="154"/>
-      <c r="G31" s="153">
-        <v>63</v>
-      </c>
-      <c r="H31" s="154"/>
-      <c r="J31" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K31" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="19">
-      <c r="B32" s="140">
-        <v>2018</v>
-      </c>
-      <c r="C32" s="155">
-        <v>30534</v>
-      </c>
-      <c r="D32" s="156"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="156"/>
-      <c r="G32" s="155">
-        <v>41</v>
-      </c>
-      <c r="H32" s="156"/>
-      <c r="J32" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K32" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="19">
-      <c r="B33" s="143">
-        <v>2019</v>
-      </c>
-      <c r="C33" s="153">
-        <v>32521</v>
-      </c>
-      <c r="D33" s="154"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="154"/>
-      <c r="G33" s="153">
-        <v>57</v>
-      </c>
-      <c r="H33" s="154"/>
-      <c r="J33" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K33" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" ht="19">
-      <c r="B34" s="140">
-        <v>2020</v>
-      </c>
-      <c r="C34" s="155">
-        <v>36275</v>
-      </c>
-      <c r="D34" s="157"/>
-      <c r="E34" s="157"/>
-      <c r="F34" s="157"/>
-      <c r="G34" s="155">
-        <v>75</v>
-      </c>
-      <c r="H34" s="157"/>
-      <c r="J34" s="203">
-        <v>100000</v>
-      </c>
-      <c r="K34" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="19">
-      <c r="B35" s="143">
-        <v>2021</v>
-      </c>
-      <c r="C35" s="153">
-        <v>40029</v>
-      </c>
-      <c r="D35" s="154"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="154"/>
-      <c r="G35" s="153">
-        <v>111</v>
-      </c>
-      <c r="H35" s="154"/>
-      <c r="J35" s="203">
-        <v>100000</v>
-      </c>
+      <c r="H35" s="178"/>
+      <c r="I35" s="178"/>
+      <c r="J35" s="178"/>
       <c r="K35" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="19">
-      <c r="B36" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M35" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N35" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" ht="19">
+      <c r="B36" s="180">
         <v>2022</v>
       </c>
-      <c r="C36" s="155">
-        <v>43783</v>
-      </c>
-      <c r="D36" s="156"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="156"/>
-      <c r="G36" s="155">
+      <c r="C36" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="178"/>
+      <c r="E36" s="178"/>
+      <c r="F36" s="178"/>
+      <c r="G36" s="202">
         <v>161</v>
       </c>
-      <c r="H36" s="156"/>
-      <c r="J36" s="203">
-        <v>100000</v>
-      </c>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
       <c r="K36" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="19">
-      <c r="B37" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M36" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N36" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" ht="19">
+      <c r="B37" s="180">
         <v>2023</v>
       </c>
-      <c r="C37" s="153">
-        <v>47536</v>
-      </c>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="153">
+      <c r="C37" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="178"/>
+      <c r="E37" s="178"/>
+      <c r="F37" s="178"/>
+      <c r="G37" s="202">
         <v>246</v>
       </c>
-      <c r="H37" s="154"/>
-      <c r="J37" s="203">
-        <v>100000</v>
-      </c>
+      <c r="H37" s="178"/>
+      <c r="I37" s="178"/>
+      <c r="J37" s="178"/>
       <c r="K37" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="19">
-      <c r="B38" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M37" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N37" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" ht="19">
+      <c r="B38" s="180">
         <v>2024</v>
       </c>
-      <c r="C38" s="155">
-        <v>51290</v>
-      </c>
-      <c r="D38" s="156"/>
-      <c r="E38" s="156"/>
-      <c r="F38" s="156"/>
-      <c r="G38" s="155">
+      <c r="C38" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
+      <c r="F38" s="178"/>
+      <c r="G38" s="202">
         <v>967</v>
       </c>
-      <c r="H38" s="156"/>
-      <c r="J38" s="203">
-        <v>100000</v>
-      </c>
+      <c r="H38" s="178"/>
+      <c r="I38" s="178"/>
+      <c r="J38" s="178"/>
       <c r="K38" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="19">
-      <c r="B39" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M38" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N38" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="19">
+      <c r="B39" s="180">
         <v>2025</v>
       </c>
-      <c r="C39" s="153">
-        <v>55044</v>
-      </c>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="153">
+      <c r="C39" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="178"/>
+      <c r="E39" s="178"/>
+      <c r="F39" s="178"/>
+      <c r="G39" s="202">
         <v>1975</v>
       </c>
-      <c r="H39" s="154"/>
-      <c r="J39" s="203">
-        <v>100000</v>
-      </c>
+      <c r="H39" s="178"/>
+      <c r="I39" s="178"/>
+      <c r="J39" s="178"/>
       <c r="K39" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" ht="19">
-      <c r="B40" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M39" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N39" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="19">
+      <c r="B40" s="180">
         <v>2026</v>
       </c>
-      <c r="C40" s="155">
-        <v>58797</v>
-      </c>
-      <c r="D40" s="156"/>
-      <c r="E40" s="156"/>
-      <c r="F40" s="156"/>
-      <c r="G40" s="155">
-        <v>3242</v>
-      </c>
-      <c r="H40" s="156"/>
-      <c r="J40" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C40" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="178"/>
+      <c r="E40" s="178"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="202">
+        <v>3242.3900000000003</v>
+      </c>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="178"/>
       <c r="K40" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="19">
-      <c r="B41" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M40" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N40" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="19">
+      <c r="B41" s="180">
         <v>2027</v>
       </c>
-      <c r="C41" s="153">
-        <v>62551</v>
-      </c>
-      <c r="D41" s="154"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="154"/>
-      <c r="G41" s="153">
-        <v>4627</v>
-      </c>
-      <c r="H41" s="154"/>
-      <c r="J41" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C41" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="178"/>
+      <c r="E41" s="178"/>
+      <c r="F41" s="178"/>
+      <c r="G41" s="202">
+        <v>4626.9699999999993</v>
+      </c>
+      <c r="H41" s="178"/>
+      <c r="I41" s="178"/>
+      <c r="J41" s="178"/>
       <c r="K41" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="19">
-      <c r="B42" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M41" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N41" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="19">
+      <c r="B42" s="180">
         <v>2028</v>
       </c>
-      <c r="C42" s="155">
-        <v>66305</v>
-      </c>
-      <c r="D42" s="156"/>
-      <c r="E42" s="156"/>
-      <c r="F42" s="156"/>
-      <c r="G42" s="155">
-        <v>6874</v>
-      </c>
-      <c r="H42" s="156"/>
-      <c r="J42" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C42" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="178"/>
+      <c r="E42" s="178"/>
+      <c r="F42" s="178"/>
+      <c r="G42" s="202">
+        <v>6873.7499999999991</v>
+      </c>
+      <c r="H42" s="178"/>
+      <c r="I42" s="178"/>
+      <c r="J42" s="178"/>
       <c r="K42" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="19">
-      <c r="B43" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M42" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N42" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="19">
+      <c r="B43" s="180">
         <v>2029</v>
       </c>
-      <c r="C43" s="153">
-        <v>70059</v>
-      </c>
-      <c r="D43" s="154"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="154"/>
-      <c r="G43" s="153">
-        <v>8875</v>
-      </c>
-      <c r="H43" s="154"/>
-      <c r="J43" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C43" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="178"/>
+      <c r="E43" s="178"/>
+      <c r="F43" s="178"/>
+      <c r="G43" s="202">
+        <v>8874.9</v>
+      </c>
+      <c r="H43" s="178"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="178"/>
       <c r="K43" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="19">
-      <c r="B44" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M43" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N43" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="19">
+      <c r="B44" s="180">
         <v>2030</v>
       </c>
-      <c r="C44" s="155">
-        <v>73812</v>
-      </c>
-      <c r="D44" s="156"/>
-      <c r="E44" s="156"/>
-      <c r="F44" s="156"/>
-      <c r="G44" s="155">
-        <v>11076</v>
-      </c>
-      <c r="H44" s="156"/>
-      <c r="J44" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C44" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D44" s="178"/>
+      <c r="E44" s="178"/>
+      <c r="F44" s="178"/>
+      <c r="G44" s="202">
+        <v>11075.6</v>
+      </c>
+      <c r="H44" s="178"/>
+      <c r="I44" s="178"/>
+      <c r="J44" s="178"/>
       <c r="K44" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="19">
-      <c r="B45" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M44" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N44" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="19">
+      <c r="B45" s="180">
         <v>2031</v>
       </c>
-      <c r="C45" s="153">
-        <v>77566</v>
-      </c>
-      <c r="D45" s="154"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="154"/>
-      <c r="G45" s="153">
-        <v>13479</v>
-      </c>
-      <c r="H45" s="154"/>
-      <c r="J45" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C45" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D45" s="178"/>
+      <c r="E45" s="178"/>
+      <c r="F45" s="178"/>
+      <c r="G45" s="202">
+        <v>13478.789999999997</v>
+      </c>
+      <c r="H45" s="178"/>
+      <c r="I45" s="178"/>
+      <c r="J45" s="178"/>
       <c r="K45" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="19">
-      <c r="B46" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M45" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N45" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="19">
+      <c r="B46" s="180">
         <v>2032</v>
       </c>
-      <c r="C46" s="155">
-        <v>81320</v>
-      </c>
-      <c r="D46" s="156"/>
-      <c r="E46" s="156"/>
-      <c r="F46" s="156"/>
-      <c r="G46" s="155">
-        <v>16002</v>
-      </c>
-      <c r="H46" s="156"/>
-      <c r="J46" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C46" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="178"/>
+      <c r="E46" s="178"/>
+      <c r="F46" s="178"/>
+      <c r="G46" s="202">
+        <v>16001.890000000003</v>
+      </c>
+      <c r="H46" s="178"/>
+      <c r="I46" s="178"/>
+      <c r="J46" s="178"/>
       <c r="K46" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="19">
-      <c r="B47" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M46" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N46" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="19">
+      <c r="B47" s="180">
         <v>2033</v>
       </c>
-      <c r="C47" s="153">
-        <v>85074</v>
-      </c>
-      <c r="D47" s="154"/>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="153">
-        <v>18200</v>
-      </c>
-      <c r="H47" s="154"/>
-      <c r="J47" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C47" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D47" s="178"/>
+      <c r="E47" s="178"/>
+      <c r="F47" s="178"/>
+      <c r="G47" s="202">
+        <v>18199.889999999996</v>
+      </c>
+      <c r="H47" s="178"/>
+      <c r="I47" s="178"/>
+      <c r="J47" s="178"/>
       <c r="K47" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="19">
-      <c r="B48" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M47" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N47" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="19">
+      <c r="B48" s="180">
         <v>2034</v>
       </c>
-      <c r="C48" s="155">
-        <v>88827</v>
-      </c>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="155">
-        <v>20481</v>
-      </c>
-      <c r="H48" s="156"/>
-      <c r="J48" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C48" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D48" s="178"/>
+      <c r="E48" s="178"/>
+      <c r="F48" s="178"/>
+      <c r="G48" s="202">
+        <v>20480.889999999996</v>
+      </c>
+      <c r="H48" s="178"/>
+      <c r="I48" s="178"/>
+      <c r="J48" s="178"/>
       <c r="K48" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="19">
-      <c r="B49" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M48" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N48" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="19">
+      <c r="B49" s="180">
         <v>2035</v>
       </c>
-      <c r="C49" s="153">
-        <v>92581</v>
-      </c>
-      <c r="D49" s="154"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="154"/>
-      <c r="G49" s="153">
-        <v>22922</v>
-      </c>
-      <c r="H49" s="154"/>
-      <c r="J49" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C49" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D49" s="178"/>
+      <c r="E49" s="178"/>
+      <c r="F49" s="178"/>
+      <c r="G49" s="202">
+        <v>22921.889999999996</v>
+      </c>
+      <c r="H49" s="178"/>
+      <c r="I49" s="178"/>
+      <c r="J49" s="178"/>
       <c r="K49" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" ht="19">
-      <c r="B50" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M49" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N49" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="19">
+      <c r="B50" s="180">
         <v>2036</v>
       </c>
-      <c r="C50" s="155">
-        <v>96335</v>
-      </c>
-      <c r="D50" s="156"/>
-      <c r="E50" s="156"/>
-      <c r="F50" s="156"/>
-      <c r="G50" s="155">
-        <v>25535</v>
-      </c>
-      <c r="H50" s="156"/>
-      <c r="J50" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C50" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="178"/>
+      <c r="E50" s="178"/>
+      <c r="F50" s="178"/>
+      <c r="G50" s="202">
+        <v>25534.889999999996</v>
+      </c>
+      <c r="H50" s="178"/>
+      <c r="I50" s="178"/>
+      <c r="J50" s="178"/>
       <c r="K50" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" ht="19">
-      <c r="B51" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M50" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N50" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="19">
+      <c r="B51" s="180">
         <v>2037</v>
       </c>
-      <c r="C51" s="153">
-        <v>100089</v>
-      </c>
-      <c r="D51" s="154"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="154"/>
-      <c r="G51" s="153">
-        <v>28239</v>
-      </c>
-      <c r="H51" s="154"/>
-      <c r="J51" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C51" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D51" s="178"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="202">
+        <v>28238.889999999996</v>
+      </c>
+      <c r="H51" s="178"/>
+      <c r="I51" s="178"/>
+      <c r="J51" s="178"/>
       <c r="K51" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="19">
-      <c r="B52" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M51" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N51" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="19">
+      <c r="B52" s="180">
         <v>2038</v>
       </c>
-      <c r="C52" s="155">
-        <v>103842</v>
-      </c>
-      <c r="D52" s="156"/>
-      <c r="E52" s="156"/>
-      <c r="F52" s="156"/>
-      <c r="G52" s="155">
-        <v>31006</v>
-      </c>
-      <c r="H52" s="156"/>
-      <c r="J52" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C52" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D52" s="178"/>
+      <c r="E52" s="178"/>
+      <c r="F52" s="178"/>
+      <c r="G52" s="202">
+        <v>31005.889999999996</v>
+      </c>
+      <c r="H52" s="178"/>
+      <c r="I52" s="178"/>
+      <c r="J52" s="178"/>
       <c r="K52" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="53" spans="2:11" ht="19">
-      <c r="B53" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M52" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N52" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="19">
+      <c r="B53" s="180">
         <v>2039</v>
       </c>
-      <c r="C53" s="153">
-        <v>107596</v>
-      </c>
-      <c r="D53" s="154"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="154"/>
-      <c r="G53" s="153">
-        <v>33835</v>
-      </c>
-      <c r="H53" s="154"/>
-      <c r="J53" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C53" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="178"/>
+      <c r="E53" s="178"/>
+      <c r="F53" s="178"/>
+      <c r="G53" s="202">
+        <v>33834.89</v>
+      </c>
+      <c r="H53" s="178"/>
+      <c r="I53" s="178"/>
+      <c r="J53" s="178"/>
       <c r="K53" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="19">
-      <c r="B54" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M53" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N53" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="19">
+      <c r="B54" s="180">
         <v>2040</v>
       </c>
-      <c r="C54" s="155">
-        <v>111350</v>
-      </c>
-      <c r="D54" s="156"/>
-      <c r="E54" s="156"/>
-      <c r="F54" s="156"/>
-      <c r="G54" s="155">
-        <v>36524</v>
-      </c>
-      <c r="H54" s="156"/>
-      <c r="J54" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C54" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="178"/>
+      <c r="E54" s="178"/>
+      <c r="F54" s="178"/>
+      <c r="G54" s="202">
+        <v>36523.89</v>
+      </c>
+      <c r="H54" s="178"/>
+      <c r="I54" s="178"/>
+      <c r="J54" s="178"/>
       <c r="K54" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="55" spans="2:11" ht="19">
-      <c r="B55" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M54" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N54" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="19">
+      <c r="B55" s="180">
         <v>2041</v>
       </c>
-      <c r="C55" s="153">
-        <v>115103</v>
-      </c>
-      <c r="D55" s="141"/>
-      <c r="E55" s="141"/>
-      <c r="F55" s="141"/>
-      <c r="G55" s="153">
-        <v>39430</v>
-      </c>
-      <c r="H55" s="141"/>
-      <c r="J55" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C55" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D55" s="190"/>
+      <c r="E55" s="190"/>
+      <c r="F55" s="190"/>
+      <c r="G55" s="202">
+        <v>39429.890000000007</v>
+      </c>
+      <c r="H55" s="190"/>
+      <c r="I55" s="190"/>
+      <c r="J55" s="190"/>
       <c r="K55" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="19">
-      <c r="B56" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M55" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N55" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="19">
+      <c r="B56" s="180">
         <v>2042</v>
       </c>
-      <c r="C56" s="155">
-        <v>118857</v>
-      </c>
-      <c r="D56" s="158"/>
-      <c r="E56" s="158"/>
-      <c r="F56" s="158"/>
-      <c r="G56" s="155">
-        <v>42342</v>
-      </c>
-      <c r="H56" s="158"/>
-      <c r="J56" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C56" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D56" s="190"/>
+      <c r="E56" s="190"/>
+      <c r="F56" s="190"/>
+      <c r="G56" s="202">
+        <v>42341.890000000007</v>
+      </c>
+      <c r="H56" s="190"/>
+      <c r="I56" s="190"/>
+      <c r="J56" s="190"/>
       <c r="K56" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="57" spans="2:11" ht="19">
-      <c r="B57" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M56" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N56" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="19">
+      <c r="B57" s="180">
         <v>2043</v>
       </c>
-      <c r="C57" s="153">
-        <v>122611</v>
-      </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="153">
-        <v>45273</v>
-      </c>
-      <c r="H57" s="141"/>
-      <c r="J57" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C57" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D57" s="190"/>
+      <c r="E57" s="190"/>
+      <c r="F57" s="190"/>
+      <c r="G57" s="202">
+        <v>45272.890000000007</v>
+      </c>
+      <c r="H57" s="190"/>
+      <c r="I57" s="190"/>
+      <c r="J57" s="190"/>
       <c r="K57" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="58" spans="2:11" ht="19">
-      <c r="B58" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M57" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N57" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="19">
+      <c r="B58" s="180">
         <v>2044</v>
       </c>
-      <c r="C58" s="155">
-        <v>126365</v>
-      </c>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="158"/>
-      <c r="G58" s="155">
-        <v>48192</v>
-      </c>
-      <c r="H58" s="158"/>
-      <c r="J58" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C58" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="190"/>
+      <c r="E58" s="190"/>
+      <c r="F58" s="190"/>
+      <c r="G58" s="202">
+        <v>48191.890000000007</v>
+      </c>
+      <c r="H58" s="190"/>
+      <c r="I58" s="190"/>
+      <c r="J58" s="190"/>
       <c r="K58" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="59" spans="2:11" ht="19">
-      <c r="B59" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M58" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N58" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="19">
+      <c r="B59" s="180">
         <v>2045</v>
       </c>
-      <c r="C59" s="153">
-        <v>130118</v>
-      </c>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="153">
-        <v>51069</v>
-      </c>
-      <c r="H59" s="141"/>
-      <c r="J59" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C59" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D59" s="190"/>
+      <c r="E59" s="190"/>
+      <c r="F59" s="190"/>
+      <c r="G59" s="202">
+        <v>51068.890000000007</v>
+      </c>
+      <c r="H59" s="190"/>
+      <c r="I59" s="190"/>
+      <c r="J59" s="190"/>
       <c r="K59" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="60" spans="2:11" ht="19">
-      <c r="B60" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M59" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N59" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="19">
+      <c r="B60" s="180">
         <v>2046</v>
       </c>
-      <c r="C60" s="155">
-        <v>133872</v>
-      </c>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="158"/>
-      <c r="G60" s="155">
-        <v>53825</v>
-      </c>
-      <c r="H60" s="158"/>
-      <c r="J60" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C60" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D60" s="190"/>
+      <c r="E60" s="190"/>
+      <c r="F60" s="190"/>
+      <c r="G60" s="202">
+        <v>53824.890000000007</v>
+      </c>
+      <c r="H60" s="190"/>
+      <c r="I60" s="190"/>
+      <c r="J60" s="190"/>
       <c r="K60" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="61" spans="2:11" ht="19">
-      <c r="B61" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M60" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N60" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="19">
+      <c r="B61" s="180">
         <v>2047</v>
       </c>
-      <c r="C61" s="153">
-        <v>137626</v>
-      </c>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="153">
-        <v>56485</v>
-      </c>
-      <c r="H61" s="141"/>
-      <c r="J61" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C61" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D61" s="190"/>
+      <c r="E61" s="190"/>
+      <c r="F61" s="190"/>
+      <c r="G61" s="202">
+        <v>56484.890000000007</v>
+      </c>
+      <c r="H61" s="190"/>
+      <c r="I61" s="190"/>
+      <c r="J61" s="190"/>
       <c r="K61" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="62" spans="2:11" ht="19">
-      <c r="B62" s="140">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M61" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N61" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="19">
+      <c r="B62" s="180">
         <v>2048</v>
       </c>
-      <c r="C62" s="155">
-        <v>141380</v>
-      </c>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="158"/>
-      <c r="G62" s="155">
-        <v>59040</v>
-      </c>
-      <c r="H62" s="158"/>
-      <c r="J62" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C62" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="202">
+        <v>59039.890000000007</v>
+      </c>
+      <c r="H62" s="190"/>
+      <c r="I62" s="190"/>
+      <c r="J62" s="190"/>
       <c r="K62" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:11" ht="19">
-      <c r="B63" s="143">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M62" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N62" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="19">
+      <c r="B63" s="180">
         <v>2049</v>
       </c>
-      <c r="C63" s="153">
-        <v>145133</v>
-      </c>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="141"/>
-      <c r="G63" s="153">
-        <v>61443</v>
-      </c>
-      <c r="H63" s="141"/>
-      <c r="J63" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C63" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="190"/>
+      <c r="E63" s="190"/>
+      <c r="F63" s="190"/>
+      <c r="G63" s="202">
+        <v>61442.890000000007</v>
+      </c>
+      <c r="H63" s="190"/>
+      <c r="I63" s="190"/>
+      <c r="J63" s="190"/>
       <c r="K63" s="203">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" ht="19">
-      <c r="B64" s="159">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M63" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N63" s="171">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="19">
+      <c r="B64" s="180">
         <v>2050</v>
       </c>
-      <c r="C64" s="160">
-        <v>148887</v>
-      </c>
-      <c r="D64" s="161"/>
-      <c r="E64" s="161"/>
-      <c r="F64" s="161"/>
-      <c r="G64" s="160">
-        <v>63798</v>
-      </c>
-      <c r="H64" s="161"/>
-      <c r="J64" s="203">
-        <v>100000</v>
-      </c>
+      <c r="C64" s="188">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="190"/>
+      <c r="E64" s="190"/>
+      <c r="F64" s="190"/>
+      <c r="G64" s="202">
+        <v>63797.890000000007</v>
+      </c>
+      <c r="H64" s="190"/>
+      <c r="I64" s="190"/>
+      <c r="J64" s="190"/>
       <c r="K64" s="203">
+        <f t="shared" si="0"/>
+        <v>156065</v>
+      </c>
+      <c r="M64" s="171">
+        <v>100000</v>
+      </c>
+      <c r="N64" s="171">
         <v>100000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{380F61BE-D42E-8647-8A4A-4596ADCE0729}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{8260A1A9-E9F1-8D4C-B99E-BDBB67C1090F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7334,19 +8029,19 @@
   <dimension ref="A2:A34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/08272020 MD & HD Scenarios.xlsx
+++ b/scenarios/08272020 MD & HD Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgillera/Documents/GitHub/binder/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD20ECA7-B6C2-CC4A-B4A6-80860A56CD0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDB5015-1A2E-C646-B590-A11F5B96D067}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3400" yWindow="720" windowWidth="26840" windowHeight="18160" activeTab="1" xr2:uid="{5A765FE7-95B9-B249-9108-336E4EE881D7}"/>
+    <workbookView xWindow="1300" yWindow="460" windowWidth="32180" windowHeight="18160" activeTab="1" xr2:uid="{5A765FE7-95B9-B249-9108-336E4EE881D7}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="99">
   <si>
     <t>Current Analysis</t>
   </si>
@@ -624,6 +624,9 @@
   </si>
   <si>
     <t>FIRST CASE: KEEP SAME</t>
+  </si>
+  <si>
+    <t>difference may be way more compared to the old cost</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
     <numFmt numFmtId="166" formatCode="0.00_)"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -1773,33 +1776,6 @@
     <xf numFmtId="164" fontId="12" fillId="12" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,7 +1822,7 @@
     <xf numFmtId="44" fontId="15" fillId="10" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1856,9 +1832,6 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1877,32 +1850,32 @@
     <xf numFmtId="1" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="29" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="27" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="14" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="173" fontId="27" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="27" fillId="15" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1912,14 +1885,44 @@
     <xf numFmtId="44" fontId="15" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="173" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="30" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="31" fillId="16" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -1962,7 +1965,7 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5880100" cy="4645488"/>
+    <xdr:ext cx="4067032" cy="3213100"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Picture 1">
@@ -1984,8 +1987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10833100" y="457200"/>
-          <a:ext cx="5880100" cy="4645488"/>
+          <a:off x="12712700" y="457200"/>
+          <a:ext cx="4067032" cy="3213100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1994,6 +1997,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>736599</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>679362</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CD4D01B-3397-C040-8E71-0A4BAEEC52EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12725399" y="3810000"/>
+          <a:ext cx="6546763" cy="3949700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2361,16 +2408,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="19">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="158" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="169"/>
+      <c r="B1" s="159"/>
     </row>
     <row r="2" spans="1:14" ht="19">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="155" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="164"/>
+      <c r="B2" s="155"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
@@ -2382,10 +2429,10 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:14" ht="19">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="164"/>
+      <c r="B3" s="155"/>
       <c r="C3" s="115"/>
       <c r="D3" s="115"/>
       <c r="E3" s="115"/>
@@ -2397,10 +2444,10 @@
       <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:14" ht="19">
-      <c r="A4" s="164"/>
-      <c r="B4" s="164"/>
+      <c r="A4" s="155"/>
+      <c r="B4" s="155"/>
       <c r="C4" s="115"/>
-      <c r="D4" s="140"/>
+      <c r="D4" s="131"/>
       <c r="E4" s="115"/>
       <c r="F4" s="115"/>
       <c r="G4" s="115"/>
@@ -2410,13 +2457,13 @@
       <c r="K4" s="35"/>
     </row>
     <row r="5" spans="1:14" ht="19">
-      <c r="A5" s="164"/>
-      <c r="B5" s="164"/>
+      <c r="A5" s="155"/>
+      <c r="B5" s="155"/>
       <c r="C5" s="115"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
+      <c r="D5" s="131"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
       <c r="H5" s="115"/>
       <c r="I5" s="115"/>
       <c r="J5" s="35"/>
@@ -2426,13 +2473,13 @@
       <c r="N5" s="114"/>
     </row>
     <row r="6" spans="1:14" ht="19">
-      <c r="A6" s="164"/>
-      <c r="B6" s="164"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="142"/>
-      <c r="E6" s="142"/>
-      <c r="F6" s="142"/>
-      <c r="G6" s="142"/>
+      <c r="A6" s="155"/>
+      <c r="B6" s="155"/>
+      <c r="C6" s="132"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
       <c r="H6" s="115"/>
       <c r="I6" s="115"/>
       <c r="J6" s="35"/>
@@ -2442,64 +2489,64 @@
       <c r="N6" s="114"/>
     </row>
     <row r="7" spans="1:14" ht="19">
-      <c r="A7" s="164"/>
-      <c r="B7" s="164"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
+      <c r="A7" s="155"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="131"/>
+      <c r="D7" s="134"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
       <c r="H7" s="115"/>
       <c r="I7" s="115"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
       <c r="L7" s="114"/>
-      <c r="M7" s="151"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="114"/>
     </row>
     <row r="8" spans="1:14" ht="19">
-      <c r="A8" s="168" t="s">
+      <c r="A8" s="158" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="169"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="143"/>
-      <c r="F8" s="143"/>
-      <c r="G8" s="143"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="131"/>
+      <c r="D8" s="134"/>
+      <c r="E8" s="134"/>
+      <c r="F8" s="134"/>
+      <c r="G8" s="134"/>
       <c r="H8" s="115"/>
       <c r="I8" s="115"/>
       <c r="J8" s="35"/>
       <c r="K8" s="35"/>
       <c r="L8" s="114"/>
-      <c r="M8" s="152"/>
+      <c r="M8" s="143"/>
       <c r="N8" s="114"/>
     </row>
     <row r="9" spans="1:14" ht="19">
-      <c r="A9" s="165" t="s">
+      <c r="A9" s="156" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="194" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="140"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
+      <c r="C9" s="131"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="115"/>
       <c r="I9" s="115"/>
       <c r="J9" s="35"/>
       <c r="K9" s="35"/>
       <c r="L9" s="114"/>
-      <c r="M9" s="153"/>
+      <c r="M9" s="144"/>
       <c r="N9" s="114"/>
     </row>
     <row r="10" spans="1:14" ht="19">
-      <c r="A10" s="165" t="s">
+      <c r="A10" s="156" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="166"/>
+      <c r="B10" s="194"/>
       <c r="C10" s="115"/>
       <c r="D10" s="115"/>
       <c r="E10" s="115"/>
@@ -2510,14 +2557,14 @@
       <c r="J10" s="35"/>
       <c r="K10" s="35"/>
       <c r="L10" s="114"/>
-      <c r="M10" s="153"/>
+      <c r="M10" s="144"/>
       <c r="N10" s="114"/>
     </row>
     <row r="11" spans="1:14" ht="19">
-      <c r="A11" s="165" t="s">
+      <c r="A11" s="156" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="164"/>
+      <c r="B11" s="155"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
       <c r="E11" s="115"/>
@@ -2528,86 +2575,86 @@
       <c r="J11" s="35"/>
       <c r="K11" s="35"/>
       <c r="L11" s="114"/>
-      <c r="M11" s="153"/>
+      <c r="M11" s="144"/>
       <c r="N11" s="114"/>
     </row>
     <row r="12" spans="1:14" ht="19">
-      <c r="A12" s="165" t="s">
+      <c r="A12" s="156" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="165"/>
+      <c r="B12" s="156"/>
       <c r="C12" s="114"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
       <c r="H12" s="115"/>
       <c r="I12" s="115"/>
       <c r="J12" s="35"/>
       <c r="K12" s="35"/>
       <c r="L12" s="114"/>
-      <c r="M12" s="153"/>
+      <c r="M12" s="144"/>
       <c r="N12" s="114"/>
     </row>
     <row r="13" spans="1:14" ht="19">
-      <c r="A13" s="164"/>
-      <c r="B13" s="167"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="143"/>
+      <c r="A13" s="155"/>
+      <c r="B13" s="157"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
       <c r="H13" s="115"/>
       <c r="I13" s="115"/>
       <c r="J13" s="35"/>
       <c r="K13" s="35"/>
       <c r="L13" s="114"/>
-      <c r="M13" s="153"/>
+      <c r="M13" s="144"/>
       <c r="N13" s="114"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="140"/>
-      <c r="C14" s="141"/>
-      <c r="D14" s="145"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
+      <c r="B14" s="131"/>
+      <c r="C14" s="132"/>
+      <c r="D14" s="136"/>
+      <c r="E14" s="136"/>
+      <c r="F14" s="136"/>
+      <c r="G14" s="136"/>
       <c r="H14" s="115"/>
       <c r="I14" s="115"/>
       <c r="J14" s="35"/>
       <c r="K14" s="35"/>
       <c r="L14" s="114"/>
-      <c r="M14" s="153"/>
+      <c r="M14" s="144"/>
       <c r="N14" s="114"/>
     </row>
     <row r="15" spans="1:14">
       <c r="B15" s="115"/>
-      <c r="C15" s="141"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="146"/>
+      <c r="C15" s="132"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
       <c r="H15" s="115"/>
       <c r="I15" s="115"/>
       <c r="J15" s="35"/>
       <c r="K15" s="35"/>
       <c r="L15" s="114"/>
-      <c r="M15" s="153"/>
+      <c r="M15" s="144"/>
       <c r="N15" s="114"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" s="115"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="139"/>
+      <c r="E16" s="139"/>
+      <c r="F16" s="139"/>
+      <c r="G16" s="139"/>
       <c r="H16" s="115"/>
       <c r="I16" s="115"/>
       <c r="J16" s="35"/>
       <c r="K16" s="35"/>
       <c r="L16" s="114"/>
-      <c r="M16" s="153"/>
+      <c r="M16" s="144"/>
       <c r="N16" s="114"/>
     </row>
     <row r="17" spans="1:14">
@@ -2622,82 +2669,82 @@
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
       <c r="L17" s="114"/>
-      <c r="M17" s="153"/>
+      <c r="M17" s="144"/>
       <c r="N17" s="114"/>
     </row>
     <row r="18" spans="1:14">
       <c r="B18" s="35"/>
       <c r="C18" s="115"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
       <c r="H18" s="115"/>
       <c r="I18" s="115"/>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
       <c r="L18" s="114"/>
-      <c r="M18" s="153"/>
+      <c r="M18" s="144"/>
       <c r="N18" s="114"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="B19" s="140"/>
-      <c r="C19" s="141"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
+      <c r="B19" s="131"/>
+      <c r="C19" s="132"/>
+      <c r="D19" s="134"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="134"/>
+      <c r="G19" s="134"/>
       <c r="H19" s="115"/>
       <c r="I19" s="115"/>
       <c r="J19" s="35"/>
       <c r="K19" s="35"/>
       <c r="L19" s="114"/>
-      <c r="M19" s="153"/>
+      <c r="M19" s="144"/>
       <c r="N19" s="114"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="B20" s="140"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="145"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
+      <c r="B20" s="131"/>
+      <c r="C20" s="132"/>
+      <c r="D20" s="136"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="136"/>
+      <c r="G20" s="136"/>
       <c r="H20" s="115"/>
       <c r="I20" s="115"/>
       <c r="J20" s="35"/>
       <c r="K20" s="35"/>
       <c r="L20" s="114"/>
-      <c r="M20" s="153"/>
+      <c r="M20" s="144"/>
       <c r="N20" s="114"/>
     </row>
     <row r="21" spans="1:14">
       <c r="B21" s="115"/>
       <c r="C21" s="115"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="149"/>
-      <c r="F21" s="149"/>
-      <c r="G21" s="149"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="140"/>
+      <c r="F21" s="140"/>
+      <c r="G21" s="140"/>
       <c r="H21" s="115"/>
       <c r="I21" s="115"/>
       <c r="J21" s="35"/>
       <c r="K21" s="35"/>
       <c r="L21" s="114"/>
-      <c r="M21" s="153"/>
+      <c r="M21" s="144"/>
       <c r="N21" s="114"/>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="115"/>
-      <c r="C22" s="147"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="150"/>
-      <c r="F22" s="150"/>
-      <c r="G22" s="150"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="141"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="141"/>
       <c r="H22" s="115"/>
       <c r="I22" s="115"/>
       <c r="J22" s="35"/>
       <c r="K22" s="35"/>
       <c r="L22" s="114"/>
-      <c r="M22" s="153"/>
+      <c r="M22" s="144"/>
       <c r="N22" s="114"/>
     </row>
     <row r="23" spans="1:14">
@@ -2712,7 +2759,7 @@
       <c r="J23" s="35"/>
       <c r="K23" s="35"/>
       <c r="L23" s="114"/>
-      <c r="M23" s="153"/>
+      <c r="M23" s="144"/>
       <c r="N23" s="114"/>
     </row>
     <row r="24" spans="1:14">
@@ -2728,7 +2775,7 @@
       <c r="J24" s="35"/>
       <c r="K24" s="35"/>
       <c r="L24" s="114"/>
-      <c r="M24" s="153"/>
+      <c r="M24" s="144"/>
       <c r="N24" s="114"/>
     </row>
     <row r="25" spans="1:14">
@@ -2744,7 +2791,7 @@
       <c r="J25" s="35"/>
       <c r="K25" s="35"/>
       <c r="L25" s="114"/>
-      <c r="M25" s="153"/>
+      <c r="M25" s="144"/>
       <c r="N25" s="114"/>
     </row>
     <row r="26" spans="1:14">
@@ -2760,7 +2807,7 @@
       <c r="J26" s="35"/>
       <c r="K26" s="35"/>
       <c r="L26" s="114"/>
-      <c r="M26" s="153"/>
+      <c r="M26" s="144"/>
       <c r="N26" s="114"/>
     </row>
   </sheetData>
@@ -2776,12 +2823,12 @@
   <dimension ref="A1:R71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="56.1640625" customWidth="1"/>
     <col min="2" max="2" width="37.1640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
@@ -2792,7 +2839,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="123" t="s">
         <v>74</v>
       </c>
       <c r="B1" s="35"/>
@@ -2807,7 +2854,7 @@
       <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="154" t="s">
+      <c r="A2" s="145" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="35"/>
@@ -2822,7 +2869,7 @@
       <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:13" ht="17" thickBot="1">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="145" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="35"/>
@@ -2901,7 +2948,7 @@
       <c r="I6" s="35"/>
       <c r="J6" s="35"/>
       <c r="K6" s="35"/>
-      <c r="M6" s="138" t="s">
+      <c r="M6" s="129" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2925,7 +2972,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
-      <c r="M7" s="139" t="s">
+      <c r="M7" s="130" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3056,7 +3103,7 @@
       <c r="C14" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="174">
+      <c r="D14" s="164">
         <f>D12-D13</f>
         <v>0</v>
       </c>
@@ -3082,22 +3129,22 @@
     </row>
     <row r="15" spans="1:13" ht="19">
       <c r="B15" s="112"/>
-      <c r="C15" s="155" t="s">
+      <c r="C15" s="146" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="156">
+      <c r="D15" s="147">
         <f>D14*G46</f>
         <v>0</v>
       </c>
-      <c r="E15" s="156">
+      <c r="E15" s="147">
         <f>E14*H46</f>
         <v>9259.08</v>
       </c>
-      <c r="F15" s="156">
+      <c r="F15" s="147">
         <f>F14*I46</f>
         <v>4420.9500000000007</v>
       </c>
-      <c r="G15" s="156">
+      <c r="G15" s="147">
         <f>G14*J46</f>
         <v>0</v>
       </c>
@@ -3110,25 +3157,28 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="19">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="184" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="195">
+      <c r="D16" s="185">
         <f>D15*1.5</f>
         <v>0</v>
       </c>
-      <c r="E16" s="195">
+      <c r="E16" s="185">
         <f t="shared" ref="E16:G16" si="0">E15*1.5</f>
         <v>13888.619999999999</v>
       </c>
-      <c r="F16" s="195">
+      <c r="F16" s="185">
         <f t="shared" si="0"/>
         <v>6631.4250000000011</v>
       </c>
-      <c r="G16" s="195">
+      <c r="G16" s="185">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -3140,11 +3190,11 @@
     </row>
     <row r="17" spans="1:13" ht="19">
       <c r="B17" s="115"/>
-      <c r="C17" s="158"/>
-      <c r="D17" s="159"/>
-      <c r="E17" s="159"/>
-      <c r="F17" s="159"/>
-      <c r="G17" s="159"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="150"/>
+      <c r="F17" s="150"/>
+      <c r="G17" s="150"/>
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
@@ -3246,11 +3296,11 @@
       <c r="C22" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="173">
+      <c r="D22" s="163">
         <f>D20-D21</f>
         <v>11.43</v>
       </c>
-      <c r="E22" s="173">
+      <c r="E22" s="163">
         <f>E20-E21</f>
         <v>6</v>
       </c>
@@ -3258,7 +3308,7 @@
         <f>F20-F21</f>
         <v>2</v>
       </c>
-      <c r="G22" s="173">
+      <c r="G22" s="163">
         <f>G20-G21</f>
         <v>0</v>
       </c>
@@ -3272,22 +3322,22 @@
     </row>
     <row r="23" spans="1:13" ht="20" thickBot="1">
       <c r="B23" s="112"/>
-      <c r="C23" s="155" t="s">
+      <c r="C23" s="146" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="157">
+      <c r="D23" s="148">
         <f>D22*G44</f>
         <v>36621.72</v>
       </c>
-      <c r="E23" s="157">
+      <c r="E23" s="148">
         <f>E22*H44</f>
         <v>16668</v>
       </c>
-      <c r="F23" s="157">
+      <c r="F23" s="148">
         <f>F22*I44</f>
         <v>5434</v>
       </c>
-      <c r="G23" s="157">
+      <c r="G23" s="148">
         <f>G22*J44</f>
         <v>0</v>
       </c>
@@ -3303,22 +3353,22 @@
       <c r="B24" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="C24" s="196" t="s">
+      <c r="C24" s="186" t="s">
         <v>81</v>
       </c>
-      <c r="D24" s="197">
+      <c r="D24" s="187">
         <f>D23*1.5</f>
         <v>54932.58</v>
       </c>
-      <c r="E24" s="197">
+      <c r="E24" s="187">
         <f>E23*1.5</f>
         <v>25002</v>
       </c>
-      <c r="F24" s="197">
-        <f t="shared" ref="E24:G24" si="1">F23*1.5</f>
+      <c r="F24" s="187">
+        <f t="shared" ref="F24:G24" si="1">F23*1.5</f>
         <v>8151</v>
       </c>
-      <c r="G24" s="197">
+      <c r="G24" s="187">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3395,7 +3445,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="195" t="s">
         <v>12</v>
       </c>
       <c r="B29" s="39" t="s">
@@ -3431,7 +3481,7 @@
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="124"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="37" t="s">
         <v>14</v>
       </c>
@@ -3465,7 +3515,7 @@
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="124"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="37" t="s">
         <v>16</v>
       </c>
@@ -3499,7 +3549,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="17" thickBot="1">
-      <c r="A32" s="125"/>
+      <c r="A32" s="197"/>
       <c r="B32" s="47" t="s">
         <v>17</v>
       </c>
@@ -3533,7 +3583,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="17" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A33" s="126" t="s">
+      <c r="A33" s="198" t="s">
         <v>18</v>
       </c>
       <c r="B33" s="51" t="s">
@@ -3569,7 +3619,7 @@
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="124"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="57" t="s">
         <v>20</v>
       </c>
@@ -3603,7 +3653,7 @@
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="124"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="37" t="s">
         <v>21</v>
       </c>
@@ -3637,7 +3687,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="124"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="37" t="s">
         <v>22</v>
       </c>
@@ -3671,7 +3721,7 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="124"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="37" t="s">
         <v>23</v>
       </c>
@@ -3705,7 +3755,7 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="17" thickBot="1">
-      <c r="A38" s="124"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="37" t="s">
         <v>24</v>
       </c>
@@ -3739,7 +3789,7 @@
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="124"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="37" t="s">
         <v>25</v>
       </c>
@@ -3773,7 +3823,7 @@
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="124"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="37" t="s">
         <v>26</v>
       </c>
@@ -3807,7 +3857,7 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="17" thickBot="1">
-      <c r="A41" s="127"/>
+      <c r="A41" s="199"/>
       <c r="B41" s="47" t="s">
         <v>27</v>
       </c>
@@ -3825,7 +3875,7 @@
       </c>
     </row>
     <row r="42" spans="1:13" ht="17" customHeight="1" thickTop="1">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="200" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="51" t="s">
@@ -3861,7 +3911,7 @@
       </c>
     </row>
     <row r="43" spans="1:13" ht="17" thickBot="1">
-      <c r="A43" s="124"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="37" t="s">
         <v>30</v>
       </c>
@@ -3895,7 +3945,7 @@
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="124"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="37" t="s">
         <v>31</v>
       </c>
@@ -3929,7 +3979,7 @@
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="124"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="37" t="s">
         <v>32</v>
       </c>
@@ -3963,7 +4013,7 @@
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="124"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="71" t="s">
         <v>33</v>
       </c>
@@ -3997,7 +4047,7 @@
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="124"/>
+      <c r="A47" s="196"/>
       <c r="B47" s="37" t="s">
         <v>34</v>
       </c>
@@ -4031,7 +4081,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="17" thickBot="1">
-      <c r="A48" s="124"/>
+      <c r="A48" s="196"/>
       <c r="B48" s="57" t="s">
         <v>35</v>
       </c>
@@ -4065,7 +4115,7 @@
       </c>
     </row>
     <row r="49" spans="1:18">
-      <c r="A49" s="124"/>
+      <c r="A49" s="196"/>
       <c r="B49" s="37" t="s">
         <v>36</v>
       </c>
@@ -4099,7 +4149,7 @@
       </c>
     </row>
     <row r="50" spans="1:18">
-      <c r="A50" s="124"/>
+      <c r="A50" s="196"/>
       <c r="B50" s="37" t="s">
         <v>37</v>
       </c>
@@ -4133,7 +4183,7 @@
       </c>
     </row>
     <row r="51" spans="1:18" ht="17" thickBot="1">
-      <c r="A51" s="127"/>
+      <c r="A51" s="199"/>
       <c r="B51" s="47" t="s">
         <v>38</v>
       </c>
@@ -4172,7 +4222,7 @@
       <c r="R51" s="15"/>
     </row>
     <row r="52" spans="1:18" ht="17" customHeight="1" thickTop="1">
-      <c r="A52" s="129" t="s">
+      <c r="A52" s="201" t="s">
         <v>39</v>
       </c>
       <c r="B52" s="80" t="s">
@@ -4211,7 +4261,7 @@
       <c r="O52" s="35"/>
     </row>
     <row r="53" spans="1:18" ht="17" thickBot="1">
-      <c r="A53" s="130"/>
+      <c r="A53" s="202"/>
       <c r="B53" s="83" t="s">
         <v>41</v>
       </c>
@@ -4248,7 +4298,7 @@
       <c r="O53" s="35"/>
     </row>
     <row r="54" spans="1:18">
-      <c r="A54" s="130"/>
+      <c r="A54" s="202"/>
       <c r="B54" s="21" t="s">
         <v>42</v>
       </c>
@@ -4283,7 +4333,7 @@
       <c r="O54" s="35"/>
     </row>
     <row r="55" spans="1:18">
-      <c r="A55" s="130"/>
+      <c r="A55" s="202"/>
       <c r="B55" s="21" t="s">
         <v>43</v>
       </c>
@@ -4318,7 +4368,7 @@
       <c r="O55" s="35"/>
     </row>
     <row r="56" spans="1:18" ht="17" thickBot="1">
-      <c r="A56" s="131"/>
+      <c r="A56" s="203"/>
       <c r="B56" s="22" t="s">
         <v>44</v>
       </c>
@@ -4353,7 +4403,7 @@
       <c r="O56" s="35"/>
     </row>
     <row r="57" spans="1:18" ht="17" customHeight="1" thickTop="1">
-      <c r="A57" s="129" t="s">
+      <c r="A57" s="201" t="s">
         <v>45</v>
       </c>
       <c r="B57" s="23" t="s">
@@ -4390,7 +4440,7 @@
       <c r="O57" s="35"/>
     </row>
     <row r="58" spans="1:18">
-      <c r="A58" s="130"/>
+      <c r="A58" s="202"/>
       <c r="B58" s="21" t="s">
         <v>47</v>
       </c>
@@ -4425,7 +4475,7 @@
       <c r="O58" s="35"/>
     </row>
     <row r="59" spans="1:18">
-      <c r="A59" s="130"/>
+      <c r="A59" s="202"/>
       <c r="B59" s="21" t="s">
         <v>48</v>
       </c>
@@ -4460,7 +4510,7 @@
       <c r="O59" s="35"/>
     </row>
     <row r="60" spans="1:18">
-      <c r="A60" s="130"/>
+      <c r="A60" s="202"/>
       <c r="B60" s="21" t="s">
         <v>49</v>
       </c>
@@ -4495,7 +4545,7 @@
       <c r="O60" s="35"/>
     </row>
     <row r="61" spans="1:18">
-      <c r="A61" s="130"/>
+      <c r="A61" s="202"/>
       <c r="B61" s="21" t="s">
         <v>50</v>
       </c>
@@ -4530,7 +4580,7 @@
       <c r="O61" s="35"/>
     </row>
     <row r="62" spans="1:18">
-      <c r="A62" s="130"/>
+      <c r="A62" s="202"/>
       <c r="B62" s="83" t="s">
         <v>51</v>
       </c>
@@ -4565,7 +4615,7 @@
       <c r="O62" s="35"/>
     </row>
     <row r="63" spans="1:18" ht="17" thickBot="1">
-      <c r="A63" s="131"/>
+      <c r="A63" s="203"/>
       <c r="B63" s="100" t="s">
         <v>52</v>
       </c>
@@ -4780,7 +4830,7 @@
   <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4792,7 +4842,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="123" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4803,7 +4853,7 @@
       <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="123" t="s">
         <v>84</v>
       </c>
       <c r="E5" s="35"/>
@@ -4830,25 +4880,25 @@
       <c r="M6" s="114"/>
     </row>
     <row r="7" spans="1:13" ht="19">
-      <c r="A7" s="162"/>
-      <c r="B7" s="172" t="s">
+      <c r="A7" s="153"/>
+      <c r="B7" s="162" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="172" t="s">
+      <c r="C7" s="162" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162" t="s">
+      <c r="E7" s="153"/>
+      <c r="F7" s="153" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="154" t="s">
         <v>76</v>
       </c>
-      <c r="H7" s="163" t="s">
+      <c r="H7" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="125"/>
       <c r="K7" s="114"/>
       <c r="L7" s="114"/>
       <c r="M7" s="114"/>
@@ -4857,10 +4907,10 @@
       <c r="A8" s="33">
         <v>2007</v>
       </c>
-      <c r="B8" s="198">
+      <c r="B8" s="188">
         <v>10</v>
       </c>
-      <c r="C8" s="198">
+      <c r="C8" s="188">
         <v>10</v>
       </c>
       <c r="E8" s="33">
@@ -4869,14 +4919,14 @@
       <c r="F8" s="34">
         <v>10</v>
       </c>
-      <c r="G8" s="161">
+      <c r="G8" s="152">
         <v>10</v>
       </c>
-      <c r="H8" s="161">
+      <c r="H8" s="152">
         <v>10</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="126"/>
       <c r="K8" s="114"/>
       <c r="L8" s="114"/>
       <c r="M8" s="114"/>
@@ -4885,10 +4935,10 @@
       <c r="A9" s="16">
         <v>2008</v>
       </c>
-      <c r="B9" s="199">
+      <c r="B9" s="189">
         <v>10</v>
       </c>
-      <c r="C9" s="199">
+      <c r="C9" s="189">
         <v>10</v>
       </c>
       <c r="E9" s="16">
@@ -4897,14 +4947,14 @@
       <c r="F9" s="30">
         <v>10</v>
       </c>
-      <c r="G9" s="161">
+      <c r="G9" s="152">
         <v>10</v>
       </c>
-      <c r="H9" s="161">
+      <c r="H9" s="152">
         <v>10</v>
       </c>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
+      <c r="I9" s="125"/>
+      <c r="J9" s="126"/>
       <c r="K9" s="114"/>
       <c r="L9" s="114"/>
       <c r="M9" s="114"/>
@@ -4913,10 +4963,10 @@
       <c r="A10" s="16">
         <v>2009</v>
       </c>
-      <c r="B10" s="199">
+      <c r="B10" s="189">
         <v>10</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="189">
         <v>10</v>
       </c>
       <c r="E10" s="16">
@@ -4925,14 +4975,14 @@
       <c r="F10" s="30">
         <v>10</v>
       </c>
-      <c r="G10" s="161">
+      <c r="G10" s="152">
         <v>10</v>
       </c>
-      <c r="H10" s="161">
+      <c r="H10" s="152">
         <v>10</v>
       </c>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
       <c r="K10" s="114"/>
       <c r="L10" s="114"/>
       <c r="M10" s="114"/>
@@ -4941,10 +4991,10 @@
       <c r="A11" s="17">
         <v>2010</v>
       </c>
-      <c r="B11" s="199">
+      <c r="B11" s="189">
         <v>10</v>
       </c>
-      <c r="C11" s="199">
+      <c r="C11" s="189">
         <v>10</v>
       </c>
       <c r="E11" s="17">
@@ -4953,14 +5003,14 @@
       <c r="F11" s="30">
         <v>10</v>
       </c>
-      <c r="G11" s="161">
+      <c r="G11" s="152">
         <v>10</v>
       </c>
-      <c r="H11" s="161">
+      <c r="H11" s="152">
         <v>10</v>
       </c>
-      <c r="I11" s="134"/>
-      <c r="J11" s="135"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
       <c r="K11" s="114"/>
       <c r="L11" s="114"/>
       <c r="M11" s="114"/>
@@ -4969,10 +5019,10 @@
       <c r="A12" s="16">
         <v>2011</v>
       </c>
-      <c r="B12" s="199">
+      <c r="B12" s="189">
         <v>10</v>
       </c>
-      <c r="C12" s="199">
+      <c r="C12" s="189">
         <v>10</v>
       </c>
       <c r="E12" s="16">
@@ -4981,14 +5031,14 @@
       <c r="F12" s="30">
         <v>10</v>
       </c>
-      <c r="G12" s="161">
+      <c r="G12" s="152">
         <v>10</v>
       </c>
-      <c r="H12" s="161">
+      <c r="H12" s="152">
         <v>10</v>
       </c>
-      <c r="I12" s="134"/>
-      <c r="J12" s="135"/>
+      <c r="I12" s="125"/>
+      <c r="J12" s="126"/>
       <c r="K12" s="114"/>
       <c r="L12" s="114"/>
       <c r="M12" s="114"/>
@@ -4997,10 +5047,10 @@
       <c r="A13" s="18">
         <v>2012</v>
       </c>
-      <c r="B13" s="199">
+      <c r="B13" s="189">
         <v>10</v>
       </c>
-      <c r="C13" s="199">
+      <c r="C13" s="189">
         <v>10</v>
       </c>
       <c r="E13" s="18">
@@ -5009,14 +5059,14 @@
       <c r="F13" s="30">
         <v>10</v>
       </c>
-      <c r="G13" s="161">
+      <c r="G13" s="152">
         <v>10</v>
       </c>
-      <c r="H13" s="161">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="136"/>
-      <c r="J13" s="135"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="126"/>
       <c r="K13" s="114"/>
       <c r="L13" s="114"/>
       <c r="M13" s="114"/>
@@ -5025,10 +5075,10 @@
       <c r="A14" s="18">
         <v>2013</v>
       </c>
-      <c r="B14" s="199">
+      <c r="B14" s="189">
         <v>10</v>
       </c>
-      <c r="C14" s="199">
+      <c r="C14" s="189">
         <v>10</v>
       </c>
       <c r="E14" s="18">
@@ -5037,14 +5087,14 @@
       <c r="F14" s="30">
         <v>10</v>
       </c>
-      <c r="G14" s="161">
+      <c r="G14" s="152">
         <v>10</v>
       </c>
-      <c r="H14" s="161">
+      <c r="H14" s="152">
         <v>10</v>
       </c>
-      <c r="I14" s="136"/>
-      <c r="J14" s="135"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="126"/>
       <c r="K14" s="114"/>
       <c r="L14" s="114"/>
       <c r="M14" s="114"/>
@@ -5053,10 +5103,10 @@
       <c r="A15" s="18">
         <v>2014</v>
       </c>
-      <c r="B15" s="199">
+      <c r="B15" s="189">
         <v>10</v>
       </c>
-      <c r="C15" s="199">
+      <c r="C15" s="189">
         <v>10</v>
       </c>
       <c r="E15" s="18">
@@ -5065,14 +5115,14 @@
       <c r="F15" s="30">
         <v>10</v>
       </c>
-      <c r="G15" s="161">
+      <c r="G15" s="152">
         <v>10</v>
       </c>
-      <c r="H15" s="161">
+      <c r="H15" s="152">
         <v>10</v>
       </c>
-      <c r="I15" s="136"/>
-      <c r="J15" s="135"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="126"/>
       <c r="K15" s="114"/>
       <c r="L15" s="114"/>
       <c r="M15" s="114"/>
@@ -5081,10 +5131,10 @@
       <c r="A16" s="19">
         <v>2015</v>
       </c>
-      <c r="B16" s="199">
+      <c r="B16" s="189">
         <v>10</v>
       </c>
-      <c r="C16" s="199">
+      <c r="C16" s="189">
         <v>10</v>
       </c>
       <c r="E16" s="19">
@@ -5093,14 +5143,14 @@
       <c r="F16" s="30">
         <v>14</v>
       </c>
-      <c r="G16" s="161">
+      <c r="G16" s="152">
         <v>10</v>
       </c>
-      <c r="H16" s="161">
+      <c r="H16" s="152">
         <v>10</v>
       </c>
-      <c r="I16" s="136"/>
-      <c r="J16" s="135"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="126"/>
       <c r="K16" s="114"/>
       <c r="L16" s="114"/>
       <c r="M16" s="114"/>
@@ -5109,10 +5159,10 @@
       <c r="A17" s="18">
         <v>2016</v>
       </c>
-      <c r="B17" s="199">
+      <c r="B17" s="189">
         <v>10</v>
       </c>
-      <c r="C17" s="199">
+      <c r="C17" s="189">
         <v>10</v>
       </c>
       <c r="E17" s="18">
@@ -5121,14 +5171,14 @@
       <c r="F17" s="31">
         <v>14</v>
       </c>
-      <c r="G17" s="161">
+      <c r="G17" s="152">
         <v>10</v>
       </c>
-      <c r="H17" s="161">
+      <c r="H17" s="152">
         <v>10</v>
       </c>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
       <c r="K17" s="114"/>
       <c r="L17" s="114"/>
       <c r="M17" s="114"/>
@@ -5137,10 +5187,10 @@
       <c r="A18" s="18">
         <v>2017</v>
       </c>
-      <c r="B18" s="199">
+      <c r="B18" s="189">
         <v>10</v>
       </c>
-      <c r="C18" s="199">
+      <c r="C18" s="189">
         <v>10</v>
       </c>
       <c r="E18" s="18">
@@ -5149,14 +5199,14 @@
       <c r="F18" s="30">
         <v>14</v>
       </c>
-      <c r="G18" s="161">
+      <c r="G18" s="152">
         <v>10</v>
       </c>
-      <c r="H18" s="161">
+      <c r="H18" s="152">
         <v>10</v>
       </c>
-      <c r="I18" s="136"/>
-      <c r="J18" s="135"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="126"/>
       <c r="K18" s="114"/>
       <c r="L18" s="114"/>
       <c r="M18" s="114"/>
@@ -5165,10 +5215,10 @@
       <c r="A19" s="18">
         <v>2018</v>
       </c>
-      <c r="B19" s="199">
+      <c r="B19" s="189">
         <v>10</v>
       </c>
-      <c r="C19" s="199">
+      <c r="C19" s="189">
         <v>10</v>
       </c>
       <c r="E19" s="18">
@@ -5177,14 +5227,14 @@
       <c r="F19" s="30">
         <v>14</v>
       </c>
-      <c r="G19" s="161">
+      <c r="G19" s="152">
         <v>10</v>
       </c>
-      <c r="H19" s="161">
+      <c r="H19" s="152">
         <v>10</v>
       </c>
-      <c r="I19" s="136"/>
-      <c r="J19" s="135"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="126"/>
       <c r="K19" s="114"/>
       <c r="L19" s="114"/>
       <c r="M19" s="114"/>
@@ -5193,10 +5243,10 @@
       <c r="A20" s="18">
         <v>2019</v>
       </c>
-      <c r="B20" s="199">
+      <c r="B20" s="189">
         <v>10</v>
       </c>
-      <c r="C20" s="199">
+      <c r="C20" s="189">
         <v>10</v>
       </c>
       <c r="E20" s="18">
@@ -5205,14 +5255,14 @@
       <c r="F20" s="30">
         <v>14</v>
       </c>
-      <c r="G20" s="161">
+      <c r="G20" s="152">
         <v>10</v>
       </c>
-      <c r="H20" s="161">
+      <c r="H20" s="152">
         <v>10</v>
       </c>
-      <c r="I20" s="136"/>
-      <c r="J20" s="135"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="126"/>
       <c r="K20" s="114"/>
       <c r="L20" s="114"/>
       <c r="M20" s="114"/>
@@ -5221,10 +5271,10 @@
       <c r="A21" s="19">
         <v>2020</v>
       </c>
-      <c r="B21" s="199">
+      <c r="B21" s="189">
         <v>10</v>
       </c>
-      <c r="C21" s="199">
+      <c r="C21" s="189">
         <v>10</v>
       </c>
       <c r="E21" s="19">
@@ -5233,14 +5283,14 @@
       <c r="F21" s="30">
         <v>14</v>
       </c>
-      <c r="G21" s="161">
+      <c r="G21" s="152">
         <v>10</v>
       </c>
-      <c r="H21" s="161">
+      <c r="H21" s="152">
         <v>10</v>
       </c>
-      <c r="I21" s="136"/>
-      <c r="J21" s="135"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="126"/>
       <c r="K21" s="114"/>
       <c r="L21" s="114"/>
       <c r="M21" s="114"/>
@@ -5249,10 +5299,10 @@
       <c r="A22" s="18">
         <v>2021</v>
       </c>
-      <c r="B22" s="199">
+      <c r="B22" s="189">
         <v>10</v>
       </c>
-      <c r="C22" s="199">
+      <c r="C22" s="189">
         <v>9</v>
       </c>
       <c r="E22" s="18">
@@ -5261,14 +5311,14 @@
       <c r="F22" s="30">
         <v>14</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="152">
         <v>10</v>
       </c>
-      <c r="H22" s="161">
+      <c r="H22" s="152">
         <v>10</v>
       </c>
-      <c r="I22" s="136"/>
-      <c r="J22" s="135"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="126"/>
       <c r="K22" s="114"/>
       <c r="L22" s="114"/>
       <c r="M22" s="114"/>
@@ -5277,10 +5327,10 @@
       <c r="A23" s="18">
         <v>2022</v>
       </c>
-      <c r="B23" s="199">
+      <c r="B23" s="189">
         <v>9</v>
       </c>
-      <c r="C23" s="199">
+      <c r="C23" s="189">
         <v>8</v>
       </c>
       <c r="E23" s="18">
@@ -5289,14 +5339,14 @@
       <c r="F23" s="30">
         <v>14</v>
       </c>
-      <c r="G23" s="161">
+      <c r="G23" s="152">
         <v>9</v>
       </c>
-      <c r="H23" s="161">
+      <c r="H23" s="152">
         <v>9</v>
       </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="135"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="126"/>
       <c r="K23" s="114"/>
       <c r="L23" s="114"/>
       <c r="M23" s="114"/>
@@ -5305,10 +5355,10 @@
       <c r="A24" s="18">
         <v>2023</v>
       </c>
-      <c r="B24" s="199">
+      <c r="B24" s="189">
         <v>9</v>
       </c>
-      <c r="C24" s="199">
+      <c r="C24" s="189">
         <v>7</v>
       </c>
       <c r="E24" s="18">
@@ -5317,14 +5367,14 @@
       <c r="F24" s="30">
         <v>12.5</v>
       </c>
-      <c r="G24" s="161">
+      <c r="G24" s="152">
         <v>9</v>
       </c>
-      <c r="H24" s="161">
+      <c r="H24" s="152">
         <v>9</v>
       </c>
-      <c r="I24" s="136"/>
-      <c r="J24" s="135"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="126"/>
       <c r="K24" s="114"/>
       <c r="L24" s="114"/>
       <c r="M24" s="114"/>
@@ -5333,10 +5383,10 @@
       <c r="A25" s="18">
         <v>2024</v>
       </c>
-      <c r="B25" s="199">
+      <c r="B25" s="189">
         <v>8</v>
       </c>
-      <c r="C25" s="199">
+      <c r="C25" s="189">
         <v>6</v>
       </c>
       <c r="E25" s="18">
@@ -5345,14 +5395,14 @@
       <c r="F25" s="30">
         <v>9</v>
       </c>
-      <c r="G25" s="161">
+      <c r="G25" s="152">
         <v>8</v>
       </c>
-      <c r="H25" s="161">
+      <c r="H25" s="152">
         <v>8</v>
       </c>
-      <c r="I25" s="136"/>
-      <c r="J25" s="135"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="126"/>
       <c r="K25" s="114"/>
       <c r="L25" s="114"/>
       <c r="M25" s="114"/>
@@ -5361,10 +5411,10 @@
       <c r="A26" s="19">
         <v>2025</v>
       </c>
-      <c r="B26" s="199">
+      <c r="B26" s="189">
         <v>6</v>
       </c>
-      <c r="C26" s="199">
+      <c r="C26" s="189">
         <v>5</v>
       </c>
       <c r="E26" s="19">
@@ -5373,14 +5423,14 @@
       <c r="F26" s="30">
         <v>7</v>
       </c>
-      <c r="G26" s="161">
+      <c r="G26" s="152">
         <v>6</v>
       </c>
-      <c r="H26" s="161">
+      <c r="H26" s="152">
         <v>6</v>
       </c>
-      <c r="I26" s="136"/>
-      <c r="J26" s="135"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="126"/>
       <c r="K26" s="114"/>
       <c r="L26" s="114"/>
       <c r="M26" s="114"/>
@@ -5389,10 +5439,10 @@
       <c r="A27" s="18">
         <v>2026</v>
       </c>
-      <c r="B27" s="199">
+      <c r="B27" s="189">
         <v>5</v>
       </c>
-      <c r="C27" s="199">
+      <c r="C27" s="189">
         <v>5</v>
       </c>
       <c r="E27" s="18">
@@ -5401,14 +5451,14 @@
       <c r="F27" s="30">
         <v>6.7</v>
       </c>
-      <c r="G27" s="161">
+      <c r="G27" s="152">
         <v>5</v>
       </c>
-      <c r="H27" s="161">
+      <c r="H27" s="152">
         <v>5</v>
       </c>
-      <c r="I27" s="136"/>
-      <c r="J27" s="135"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="126"/>
       <c r="K27" s="114"/>
       <c r="L27" s="114"/>
       <c r="M27" s="114"/>
@@ -5417,10 +5467,10 @@
       <c r="A28" s="18">
         <v>2027</v>
       </c>
-      <c r="B28" s="199">
+      <c r="B28" s="189">
         <v>5</v>
       </c>
-      <c r="C28" s="199">
+      <c r="C28" s="189">
         <v>5</v>
       </c>
       <c r="E28" s="18">
@@ -5429,14 +5479,14 @@
       <c r="F28" s="30">
         <v>6.5</v>
       </c>
-      <c r="G28" s="161">
+      <c r="G28" s="152">
         <v>5</v>
       </c>
-      <c r="H28" s="161">
+      <c r="H28" s="152">
         <v>5</v>
       </c>
-      <c r="I28" s="136"/>
-      <c r="J28" s="135"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="126"/>
       <c r="K28" s="114"/>
       <c r="L28" s="114"/>
       <c r="M28" s="114"/>
@@ -5445,10 +5495,10 @@
       <c r="A29" s="18">
         <v>2028</v>
       </c>
-      <c r="B29" s="199">
+      <c r="B29" s="189">
         <v>5</v>
       </c>
-      <c r="C29" s="199">
+      <c r="C29" s="189">
         <v>5</v>
       </c>
       <c r="E29" s="18">
@@ -5457,14 +5507,14 @@
       <c r="F29" s="30">
         <v>6.25</v>
       </c>
-      <c r="G29" s="161">
+      <c r="G29" s="152">
         <v>5</v>
       </c>
-      <c r="H29" s="161">
+      <c r="H29" s="152">
         <v>5</v>
       </c>
-      <c r="I29" s="136"/>
-      <c r="J29" s="135"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="126"/>
       <c r="K29" s="114"/>
       <c r="L29" s="114"/>
       <c r="M29" s="114"/>
@@ -5473,10 +5523,10 @@
       <c r="A30" s="18">
         <v>2029</v>
       </c>
-      <c r="B30" s="199">
+      <c r="B30" s="189">
         <v>5</v>
       </c>
-      <c r="C30" s="199">
+      <c r="C30" s="189">
         <v>5</v>
       </c>
       <c r="E30" s="18">
@@ -5485,14 +5535,14 @@
       <c r="F30" s="30">
         <v>6.05</v>
       </c>
-      <c r="G30" s="161">
+      <c r="G30" s="152">
         <v>4</v>
       </c>
-      <c r="H30" s="161">
+      <c r="H30" s="152">
         <v>4</v>
       </c>
-      <c r="I30" s="136"/>
-      <c r="J30" s="135"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="126"/>
       <c r="K30" s="114"/>
       <c r="L30" s="114"/>
       <c r="M30" s="114"/>
@@ -5501,10 +5551,10 @@
       <c r="A31" s="19">
         <v>2030</v>
       </c>
-      <c r="B31" s="199">
+      <c r="B31" s="189">
         <v>5</v>
       </c>
-      <c r="C31" s="199">
+      <c r="C31" s="189">
         <v>4</v>
       </c>
       <c r="E31" s="19">
@@ -5513,14 +5563,14 @@
       <c r="F31" s="30">
         <v>5.92</v>
       </c>
-      <c r="G31" s="161">
+      <c r="G31" s="152">
         <v>4</v>
       </c>
-      <c r="H31" s="161">
+      <c r="H31" s="152">
         <v>4</v>
       </c>
-      <c r="I31" s="136"/>
-      <c r="J31" s="135"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="126"/>
       <c r="K31" s="114"/>
       <c r="L31" s="114"/>
       <c r="M31" s="114"/>
@@ -5529,10 +5579,10 @@
       <c r="A32" s="18">
         <v>2031</v>
       </c>
-      <c r="B32" s="199">
+      <c r="B32" s="189">
         <v>5</v>
       </c>
-      <c r="C32" s="199">
+      <c r="C32" s="189">
         <v>4</v>
       </c>
       <c r="E32" s="18">
@@ -5541,14 +5591,14 @@
       <c r="F32" s="30">
         <v>5.75</v>
       </c>
-      <c r="G32" s="161">
+      <c r="G32" s="152">
         <v>4</v>
       </c>
-      <c r="H32" s="161">
+      <c r="H32" s="152">
         <v>4</v>
       </c>
-      <c r="I32" s="136"/>
-      <c r="J32" s="135"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="126"/>
       <c r="K32" s="114"/>
       <c r="L32" s="114"/>
       <c r="M32" s="114"/>
@@ -5557,10 +5607,10 @@
       <c r="A33" s="18">
         <v>2032</v>
       </c>
-      <c r="B33" s="199">
+      <c r="B33" s="189">
         <v>5</v>
       </c>
-      <c r="C33" s="199">
+      <c r="C33" s="189">
         <v>4</v>
       </c>
       <c r="E33" s="18">
@@ -5569,14 +5619,14 @@
       <c r="F33" s="30">
         <v>5.55</v>
       </c>
-      <c r="G33" s="161">
+      <c r="G33" s="152">
         <v>4</v>
       </c>
-      <c r="H33" s="161">
+      <c r="H33" s="152">
         <v>4</v>
       </c>
-      <c r="I33" s="136"/>
-      <c r="J33" s="135"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="126"/>
       <c r="K33" s="114"/>
       <c r="L33" s="114"/>
       <c r="M33" s="114"/>
@@ -5585,10 +5635,10 @@
       <c r="A34" s="18">
         <v>2033</v>
       </c>
-      <c r="B34" s="199">
+      <c r="B34" s="189">
         <v>5</v>
       </c>
-      <c r="C34" s="199">
+      <c r="C34" s="189">
         <v>4</v>
       </c>
       <c r="E34" s="18">
@@ -5597,14 +5647,14 @@
       <c r="F34" s="30">
         <v>5.36</v>
       </c>
-      <c r="G34" s="161">
+      <c r="G34" s="152">
         <v>4</v>
       </c>
-      <c r="H34" s="161">
+      <c r="H34" s="152">
         <v>4</v>
       </c>
-      <c r="I34" s="136"/>
-      <c r="J34" s="135"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="126"/>
       <c r="K34" s="114"/>
       <c r="L34" s="114"/>
       <c r="M34" s="114"/>
@@ -5613,10 +5663,10 @@
       <c r="A35" s="18">
         <v>2034</v>
       </c>
-      <c r="B35" s="199">
+      <c r="B35" s="189">
         <v>5</v>
       </c>
-      <c r="C35" s="199">
+      <c r="C35" s="189">
         <v>4</v>
       </c>
       <c r="E35" s="18">
@@ -5625,14 +5675,14 @@
       <c r="F35" s="30">
         <v>5.17</v>
       </c>
-      <c r="G35" s="161">
+      <c r="G35" s="152">
         <v>4</v>
       </c>
-      <c r="H35" s="161">
+      <c r="H35" s="152">
         <v>4</v>
       </c>
-      <c r="I35" s="136"/>
-      <c r="J35" s="135"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="126"/>
       <c r="K35" s="114"/>
       <c r="L35" s="114"/>
       <c r="M35" s="114"/>
@@ -5641,10 +5691,10 @@
       <c r="A36" s="19">
         <v>2035</v>
       </c>
-      <c r="B36" s="199">
+      <c r="B36" s="189">
         <v>5</v>
       </c>
-      <c r="C36" s="199">
+      <c r="C36" s="189">
         <v>4</v>
       </c>
       <c r="E36" s="19">
@@ -5653,14 +5703,14 @@
       <c r="F36" s="30">
         <v>5</v>
       </c>
-      <c r="G36" s="161">
+      <c r="G36" s="152">
         <v>3</v>
       </c>
-      <c r="H36" s="161">
+      <c r="H36" s="152">
         <v>3</v>
       </c>
-      <c r="I36" s="136"/>
-      <c r="J36" s="135"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="126"/>
       <c r="K36" s="114"/>
       <c r="L36" s="114"/>
       <c r="M36" s="114"/>
@@ -5669,10 +5719,10 @@
       <c r="A37" s="18">
         <v>2036</v>
       </c>
-      <c r="B37" s="199">
+      <c r="B37" s="189">
         <v>5</v>
       </c>
-      <c r="C37" s="199">
+      <c r="C37" s="189">
         <v>4</v>
       </c>
       <c r="E37" s="18">
@@ -5681,14 +5731,14 @@
       <c r="F37" s="30">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G37" s="161">
+      <c r="G37" s="152">
         <v>3</v>
       </c>
-      <c r="H37" s="161">
+      <c r="H37" s="152">
         <v>3</v>
       </c>
-      <c r="I37" s="136"/>
-      <c r="J37" s="135"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="126"/>
       <c r="K37" s="114"/>
       <c r="L37" s="114"/>
       <c r="M37" s="114"/>
@@ -5697,10 +5747,10 @@
       <c r="A38" s="18">
         <v>2037</v>
       </c>
-      <c r="B38" s="199">
+      <c r="B38" s="189">
         <v>5</v>
       </c>
-      <c r="C38" s="199">
+      <c r="C38" s="189">
         <v>4</v>
       </c>
       <c r="E38" s="18">
@@ -5709,14 +5759,14 @@
       <c r="F38" s="30">
         <v>4.7300000000000004</v>
       </c>
-      <c r="G38" s="161">
+      <c r="G38" s="152">
         <v>3</v>
       </c>
-      <c r="H38" s="161">
+      <c r="H38" s="152">
         <v>3</v>
       </c>
-      <c r="I38" s="136"/>
-      <c r="J38" s="135"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="126"/>
       <c r="K38" s="114"/>
       <c r="L38" s="114"/>
       <c r="M38" s="114"/>
@@ -5725,10 +5775,10 @@
       <c r="A39" s="18">
         <v>2038</v>
       </c>
-      <c r="B39" s="199">
+      <c r="B39" s="189">
         <v>5</v>
       </c>
-      <c r="C39" s="199">
+      <c r="C39" s="189">
         <v>4</v>
       </c>
       <c r="E39" s="18">
@@ -5737,14 +5787,14 @@
       <c r="F39" s="30">
         <v>4.62</v>
       </c>
-      <c r="G39" s="161">
+      <c r="G39" s="152">
         <v>3</v>
       </c>
-      <c r="H39" s="161">
+      <c r="H39" s="152">
         <v>3</v>
       </c>
-      <c r="I39" s="136"/>
-      <c r="J39" s="135"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="126"/>
       <c r="K39" s="114"/>
       <c r="L39" s="114"/>
       <c r="M39" s="114"/>
@@ -5753,10 +5803,10 @@
       <c r="A40" s="18">
         <v>2039</v>
       </c>
-      <c r="B40" s="199">
+      <c r="B40" s="189">
         <v>5</v>
       </c>
-      <c r="C40" s="199">
+      <c r="C40" s="189">
         <v>4</v>
       </c>
       <c r="E40" s="18">
@@ -5765,14 +5815,14 @@
       <c r="F40" s="30">
         <v>4.5</v>
       </c>
-      <c r="G40" s="161">
+      <c r="G40" s="152">
         <v>3</v>
       </c>
-      <c r="H40" s="161">
+      <c r="H40" s="152">
         <v>3</v>
       </c>
-      <c r="I40" s="136"/>
-      <c r="J40" s="135"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="126"/>
       <c r="K40" s="114"/>
       <c r="L40" s="114"/>
       <c r="M40" s="114"/>
@@ -5781,10 +5831,10 @@
       <c r="A41" s="19">
         <v>2040</v>
       </c>
-      <c r="B41" s="199">
+      <c r="B41" s="189">
         <v>5</v>
       </c>
-      <c r="C41" s="199">
+      <c r="C41" s="189">
         <v>4</v>
       </c>
       <c r="E41" s="19">
@@ -5793,14 +5843,14 @@
       <c r="F41" s="30">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G41" s="161">
+      <c r="G41" s="152">
         <v>3</v>
       </c>
-      <c r="H41" s="161">
+      <c r="H41" s="152">
         <v>3</v>
       </c>
-      <c r="I41" s="136"/>
-      <c r="J41" s="135"/>
+      <c r="I41" s="127"/>
+      <c r="J41" s="126"/>
       <c r="K41" s="114"/>
       <c r="L41" s="114"/>
       <c r="M41" s="114"/>
@@ -5809,10 +5859,10 @@
       <c r="A42" s="18">
         <v>2041</v>
       </c>
-      <c r="B42" s="199">
+      <c r="B42" s="189">
         <v>5</v>
       </c>
-      <c r="C42" s="199">
+      <c r="C42" s="189">
         <v>4</v>
       </c>
       <c r="E42" s="18">
@@ -5821,14 +5871,14 @@
       <c r="F42" s="30">
         <v>4.3</v>
       </c>
-      <c r="G42" s="161">
+      <c r="G42" s="152">
         <v>3</v>
       </c>
-      <c r="H42" s="161">
+      <c r="H42" s="152">
         <v>3</v>
       </c>
-      <c r="I42" s="136"/>
-      <c r="J42" s="135"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="126"/>
       <c r="K42" s="114"/>
       <c r="L42" s="114"/>
       <c r="M42" s="114"/>
@@ -5837,10 +5887,10 @@
       <c r="A43" s="18">
         <v>2042</v>
       </c>
-      <c r="B43" s="199">
+      <c r="B43" s="189">
         <v>5</v>
       </c>
-      <c r="C43" s="199">
+      <c r="C43" s="189">
         <v>4</v>
       </c>
       <c r="E43" s="18">
@@ -5849,14 +5899,14 @@
       <c r="F43" s="30">
         <v>4.22</v>
       </c>
-      <c r="G43" s="161">
+      <c r="G43" s="152">
         <v>3</v>
       </c>
-      <c r="H43" s="161">
+      <c r="H43" s="152">
         <v>3</v>
       </c>
-      <c r="I43" s="136"/>
-      <c r="J43" s="135"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="126"/>
       <c r="K43" s="114"/>
       <c r="L43" s="114"/>
       <c r="M43" s="114"/>
@@ -5865,10 +5915,10 @@
       <c r="A44" s="18">
         <v>2043</v>
       </c>
-      <c r="B44" s="199">
+      <c r="B44" s="189">
         <v>5</v>
       </c>
-      <c r="C44" s="199">
+      <c r="C44" s="189">
         <v>4</v>
       </c>
       <c r="E44" s="18">
@@ -5877,14 +5927,14 @@
       <c r="F44" s="30">
         <v>4.1500000000000004</v>
       </c>
-      <c r="G44" s="161">
+      <c r="G44" s="152">
         <v>3</v>
       </c>
-      <c r="H44" s="161">
+      <c r="H44" s="152">
         <v>3</v>
       </c>
-      <c r="I44" s="136"/>
-      <c r="J44" s="135"/>
+      <c r="I44" s="127"/>
+      <c r="J44" s="126"/>
       <c r="K44" s="114"/>
       <c r="L44" s="114"/>
       <c r="M44" s="114"/>
@@ -5893,10 +5943,10 @@
       <c r="A45" s="18">
         <v>2044</v>
       </c>
-      <c r="B45" s="199">
+      <c r="B45" s="189">
         <v>5</v>
       </c>
-      <c r="C45" s="199">
+      <c r="C45" s="189">
         <v>4</v>
       </c>
       <c r="E45" s="18">
@@ -5905,14 +5955,14 @@
       <c r="F45" s="30">
         <v>4.07</v>
       </c>
-      <c r="G45" s="161">
+      <c r="G45" s="152">
         <v>3</v>
       </c>
-      <c r="H45" s="161">
+      <c r="H45" s="152">
         <v>3</v>
       </c>
-      <c r="I45" s="136"/>
-      <c r="J45" s="135"/>
+      <c r="I45" s="127"/>
+      <c r="J45" s="126"/>
       <c r="K45" s="114"/>
       <c r="L45" s="114"/>
       <c r="M45" s="114"/>
@@ -5921,10 +5971,10 @@
       <c r="A46" s="19">
         <v>2045</v>
       </c>
-      <c r="B46" s="199">
+      <c r="B46" s="189">
         <v>5</v>
       </c>
-      <c r="C46" s="199">
+      <c r="C46" s="189">
         <v>4</v>
       </c>
       <c r="E46" s="19">
@@ -5933,14 +5983,14 @@
       <c r="F46" s="30">
         <v>4</v>
       </c>
-      <c r="G46" s="161">
+      <c r="G46" s="152">
         <v>3</v>
       </c>
-      <c r="H46" s="161">
+      <c r="H46" s="152">
         <v>3</v>
       </c>
-      <c r="I46" s="136"/>
-      <c r="J46" s="135"/>
+      <c r="I46" s="127"/>
+      <c r="J46" s="126"/>
       <c r="K46" s="114"/>
       <c r="L46" s="114"/>
       <c r="M46" s="114"/>
@@ -5949,10 +5999,10 @@
       <c r="A47" s="18">
         <v>2046</v>
       </c>
-      <c r="B47" s="199">
+      <c r="B47" s="189">
         <v>5</v>
       </c>
-      <c r="C47" s="199">
+      <c r="C47" s="189">
         <v>4</v>
       </c>
       <c r="E47" s="18">
@@ -5961,14 +6011,14 @@
       <c r="F47" s="30">
         <v>4</v>
       </c>
-      <c r="G47" s="161">
+      <c r="G47" s="152">
         <v>3</v>
       </c>
-      <c r="H47" s="161">
+      <c r="H47" s="152">
         <v>3</v>
       </c>
-      <c r="I47" s="136"/>
-      <c r="J47" s="135"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="126"/>
       <c r="K47" s="114"/>
       <c r="L47" s="114"/>
       <c r="M47" s="114"/>
@@ -5977,10 +6027,10 @@
       <c r="A48" s="18">
         <v>2047</v>
       </c>
-      <c r="B48" s="199">
+      <c r="B48" s="189">
         <v>5</v>
       </c>
-      <c r="C48" s="199">
+      <c r="C48" s="189">
         <v>4</v>
       </c>
       <c r="E48" s="18">
@@ -5989,14 +6039,14 @@
       <c r="F48" s="30">
         <v>4</v>
       </c>
-      <c r="G48" s="161">
+      <c r="G48" s="152">
         <v>3</v>
       </c>
-      <c r="H48" s="161">
+      <c r="H48" s="152">
         <v>3</v>
       </c>
-      <c r="I48" s="136"/>
-      <c r="J48" s="135"/>
+      <c r="I48" s="127"/>
+      <c r="J48" s="126"/>
       <c r="K48" s="114"/>
       <c r="L48" s="114"/>
       <c r="M48" s="114"/>
@@ -6005,10 +6055,10 @@
       <c r="A49" s="18">
         <v>2048</v>
       </c>
-      <c r="B49" s="199">
+      <c r="B49" s="189">
         <v>5</v>
       </c>
-      <c r="C49" s="199">
+      <c r="C49" s="189">
         <v>4</v>
       </c>
       <c r="E49" s="18">
@@ -6017,14 +6067,14 @@
       <c r="F49" s="30">
         <v>4</v>
       </c>
-      <c r="G49" s="161">
+      <c r="G49" s="152">
         <v>3</v>
       </c>
-      <c r="H49" s="161">
+      <c r="H49" s="152">
         <v>3</v>
       </c>
-      <c r="I49" s="136"/>
-      <c r="J49" s="135"/>
+      <c r="I49" s="127"/>
+      <c r="J49" s="126"/>
       <c r="K49" s="114"/>
       <c r="L49" s="114"/>
       <c r="M49" s="114"/>
@@ -6033,10 +6083,10 @@
       <c r="A50" s="18">
         <v>2049</v>
       </c>
-      <c r="B50" s="199">
+      <c r="B50" s="189">
         <v>5</v>
       </c>
-      <c r="C50" s="199">
+      <c r="C50" s="189">
         <v>4</v>
       </c>
       <c r="E50" s="18">
@@ -6045,14 +6095,14 @@
       <c r="F50" s="30">
         <v>4</v>
       </c>
-      <c r="G50" s="161">
+      <c r="G50" s="152">
         <v>3</v>
       </c>
-      <c r="H50" s="161">
+      <c r="H50" s="152">
         <v>3</v>
       </c>
-      <c r="I50" s="136"/>
-      <c r="J50" s="135"/>
+      <c r="I50" s="127"/>
+      <c r="J50" s="126"/>
       <c r="K50" s="114"/>
       <c r="L50" s="114"/>
       <c r="M50" s="114"/>
@@ -6061,10 +6111,10 @@
       <c r="A51" s="20">
         <v>2050</v>
       </c>
-      <c r="B51" s="199">
+      <c r="B51" s="189">
         <v>5</v>
       </c>
-      <c r="C51" s="199">
+      <c r="C51" s="189">
         <v>4</v>
       </c>
       <c r="E51" s="20">
@@ -6073,14 +6123,14 @@
       <c r="F51" s="32">
         <v>4</v>
       </c>
-      <c r="G51" s="161">
+      <c r="G51" s="152">
         <v>3</v>
       </c>
-      <c r="H51" s="161">
+      <c r="H51" s="152">
         <v>3</v>
       </c>
-      <c r="I51" s="136"/>
-      <c r="J51" s="135"/>
+      <c r="I51" s="127"/>
+      <c r="J51" s="126"/>
       <c r="K51" s="114"/>
       <c r="L51" s="114"/>
       <c r="M51" s="114"/>
@@ -6137,1881 +6187,1881 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="123" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="19">
-      <c r="A3" s="133"/>
-      <c r="B3" s="176" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="177" t="s">
+      <c r="C3" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="179" t="s">
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="169" t="s">
         <v>97</v>
       </c>
-      <c r="H3" s="178"/>
-      <c r="I3" s="176"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="179" t="s">
+      <c r="H3" s="168"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="169" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="175"/>
+      <c r="L3" s="165"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="B4" s="178" t="s">
+      <c r="B4" s="168" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="178">
+      <c r="C4" s="168">
         <v>2</v>
       </c>
-      <c r="D4" s="178"/>
-      <c r="E4" s="178"/>
-      <c r="F4" s="178"/>
-      <c r="G4" s="178"/>
-      <c r="H4" s="178"/>
-      <c r="I4" s="178"/>
-      <c r="J4" s="178"/>
-      <c r="K4" s="178"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
     </row>
     <row r="5" spans="1:14">
-      <c r="B5" s="191" t="s">
+      <c r="B5" s="181" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="191" t="s">
+      <c r="C5" s="181" t="s">
         <v>88</v>
       </c>
-      <c r="D5" s="191" t="s">
+      <c r="D5" s="181" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="191" t="s">
+      <c r="E5" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="191" t="s">
+      <c r="F5" s="181" t="s">
         <v>91</v>
       </c>
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="182" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="191" t="s">
+      <c r="H5" s="181" t="s">
         <v>93</v>
       </c>
-      <c r="I5" s="191" t="s">
+      <c r="I5" s="181" t="s">
         <v>94</v>
       </c>
-      <c r="J5" s="191" t="s">
+      <c r="J5" s="181" t="s">
         <v>95</v>
       </c>
-      <c r="K5" s="193" t="s">
+      <c r="K5" s="183" t="s">
         <v>96</v>
       </c>
-      <c r="M5" s="160" t="s">
+      <c r="M5" s="151" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="160" t="s">
+      <c r="N5" s="151" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="B6" s="180">
+      <c r="B6" s="170">
         <v>1992</v>
       </c>
-      <c r="C6" s="181"/>
-      <c r="D6" s="181">
+      <c r="C6" s="171"/>
+      <c r="D6" s="171">
         <v>3297</v>
       </c>
-      <c r="E6" s="181">
+      <c r="E6" s="171">
         <v>43</v>
       </c>
-      <c r="F6" s="181"/>
-      <c r="G6" s="200"/>
-      <c r="H6" s="181"/>
-      <c r="I6" s="181">
+      <c r="F6" s="171"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="171"/>
+      <c r="I6" s="171">
         <v>349</v>
       </c>
-      <c r="J6" s="181">
+      <c r="J6" s="171">
         <v>2</v>
       </c>
-      <c r="K6" s="203"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
+      <c r="K6" s="193"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="160"/>
     </row>
     <row r="7" spans="1:14">
-      <c r="B7" s="180">
+      <c r="B7" s="170">
         <v>1993</v>
       </c>
-      <c r="C7" s="181"/>
-      <c r="D7" s="181">
+      <c r="C7" s="171"/>
+      <c r="D7" s="171">
         <v>3297</v>
       </c>
-      <c r="E7" s="181">
+      <c r="E7" s="171">
         <v>50</v>
       </c>
-      <c r="F7" s="181"/>
-      <c r="G7" s="200"/>
-      <c r="H7" s="181"/>
-      <c r="I7" s="181">
+      <c r="F7" s="171"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="171"/>
+      <c r="I7" s="171">
         <v>497</v>
       </c>
-      <c r="J7" s="181">
+      <c r="J7" s="171">
         <v>7</v>
       </c>
-      <c r="K7" s="203"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
+      <c r="K7" s="193"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="160"/>
     </row>
     <row r="8" spans="1:14">
-      <c r="B8" s="180">
+      <c r="B8" s="170">
         <v>1994</v>
       </c>
-      <c r="C8" s="181"/>
-      <c r="D8" s="181">
+      <c r="C8" s="171"/>
+      <c r="D8" s="171">
         <v>3299</v>
       </c>
-      <c r="E8" s="181">
+      <c r="E8" s="171">
         <v>82</v>
       </c>
-      <c r="F8" s="181"/>
-      <c r="G8" s="200"/>
-      <c r="H8" s="181"/>
-      <c r="I8" s="181">
+      <c r="F8" s="171"/>
+      <c r="G8" s="190"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="171">
         <v>1042</v>
       </c>
-      <c r="J8" s="181">
+      <c r="J8" s="171">
         <v>32</v>
       </c>
-      <c r="K8" s="203"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
+      <c r="K8" s="193"/>
+      <c r="M8" s="160"/>
+      <c r="N8" s="160"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="B9" s="180">
+      <c r="B9" s="170">
         <v>1995</v>
       </c>
-      <c r="C9" s="181">
+      <c r="C9" s="171">
         <f>188</f>
         <v>188</v>
       </c>
-      <c r="D9" s="181">
+      <c r="D9" s="171">
         <v>3299</v>
       </c>
-      <c r="E9" s="181">
+      <c r="E9" s="171">
         <v>88</v>
       </c>
-      <c r="F9" s="181"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="181"/>
-      <c r="I9" s="181">
+      <c r="F9" s="171"/>
+      <c r="G9" s="190"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="171">
         <v>1065</v>
       </c>
-      <c r="J9" s="181">
+      <c r="J9" s="171">
         <v>37</v>
       </c>
-      <c r="K9" s="203"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
+      <c r="K9" s="193"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="B10" s="180">
+      <c r="B10" s="170">
         <v>1996</v>
       </c>
-      <c r="C10" s="181">
+      <c r="C10" s="171">
         <f>194</f>
         <v>194</v>
       </c>
-      <c r="D10" s="181">
+      <c r="D10" s="171">
         <v>4252</v>
       </c>
-      <c r="E10" s="181">
+      <c r="E10" s="171">
         <v>95</v>
       </c>
-      <c r="F10" s="181">
+      <c r="F10" s="171">
         <v>72</v>
       </c>
-      <c r="G10" s="200"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181">
+      <c r="G10" s="190"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171">
         <v>1419</v>
       </c>
-      <c r="J10" s="181">
+      <c r="J10" s="171">
         <v>68</v>
       </c>
-      <c r="K10" s="203">
+      <c r="K10" s="193">
         <v>190246</v>
       </c>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
     </row>
     <row r="11" spans="1:14">
-      <c r="B11" s="180">
+      <c r="B11" s="170">
         <v>1997</v>
       </c>
-      <c r="C11" s="181">
+      <c r="C11" s="171">
         <f>310</f>
         <v>310</v>
       </c>
-      <c r="D11" s="181">
+      <c r="D11" s="171">
         <v>4255</v>
       </c>
-      <c r="E11" s="181">
+      <c r="E11" s="171">
         <v>106</v>
       </c>
-      <c r="F11" s="181">
+      <c r="F11" s="171">
         <v>71</v>
       </c>
-      <c r="G11" s="200"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181">
+      <c r="G11" s="190"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="171">
         <v>1426</v>
       </c>
-      <c r="J11" s="181">
+      <c r="J11" s="171">
         <v>71</v>
       </c>
-      <c r="K11" s="203">
+      <c r="K11" s="193">
         <v>187892</v>
       </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
     </row>
     <row r="12" spans="1:14">
-      <c r="B12" s="180">
+      <c r="B12" s="170">
         <v>1998</v>
       </c>
-      <c r="C12" s="181">
+      <c r="C12" s="171">
         <f>486</f>
         <v>486</v>
       </c>
-      <c r="D12" s="181">
+      <c r="D12" s="171">
         <v>5318</v>
       </c>
-      <c r="E12" s="181">
+      <c r="E12" s="171">
         <v>91</v>
       </c>
-      <c r="F12" s="181">
+      <c r="F12" s="171">
         <v>66</v>
       </c>
-      <c r="G12" s="200"/>
-      <c r="H12" s="181"/>
-      <c r="I12" s="181">
+      <c r="G12" s="190"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171">
         <v>1268</v>
       </c>
-      <c r="J12" s="181">
+      <c r="J12" s="171">
         <v>40</v>
       </c>
-      <c r="K12" s="203">
+      <c r="K12" s="193">
         <v>182596</v>
       </c>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
     </row>
     <row r="13" spans="1:14">
-      <c r="B13" s="180">
+      <c r="B13" s="170">
         <v>1999</v>
       </c>
-      <c r="C13" s="181">
+      <c r="C13" s="171">
         <f>490</f>
         <v>490</v>
       </c>
-      <c r="D13" s="181">
+      <c r="D13" s="171">
         <v>4153</v>
       </c>
-      <c r="E13" s="181">
+      <c r="E13" s="171">
         <v>51</v>
       </c>
-      <c r="F13" s="181">
+      <c r="F13" s="171">
         <v>46</v>
       </c>
-      <c r="G13" s="200"/>
-      <c r="H13" s="181"/>
-      <c r="I13" s="181">
+      <c r="G13" s="190"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171">
         <v>1267</v>
       </c>
-      <c r="J13" s="181">
+      <c r="J13" s="171">
         <v>49</v>
       </c>
-      <c r="K13" s="203">
+      <c r="K13" s="193">
         <v>180567</v>
       </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
     </row>
     <row r="14" spans="1:14">
-      <c r="B14" s="180">
+      <c r="B14" s="170">
         <v>2000</v>
       </c>
-      <c r="C14" s="181">
+      <c r="C14" s="171">
         <f>558</f>
         <v>558</v>
       </c>
-      <c r="D14" s="181">
+      <c r="D14" s="171">
         <v>3268</v>
       </c>
-      <c r="E14" s="181">
+      <c r="E14" s="171">
         <v>3</v>
       </c>
-      <c r="F14" s="181">
+      <c r="F14" s="171">
         <v>44</v>
       </c>
-      <c r="G14" s="200"/>
-      <c r="H14" s="181">
+      <c r="G14" s="190"/>
+      <c r="H14" s="171">
         <v>2</v>
       </c>
-      <c r="I14" s="181">
+      <c r="I14" s="171">
         <v>1217</v>
       </c>
-      <c r="J14" s="181">
+      <c r="J14" s="171">
         <v>113</v>
       </c>
-      <c r="K14" s="203">
+      <c r="K14" s="193">
         <v>175941</v>
       </c>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
     </row>
     <row r="15" spans="1:14">
-      <c r="B15" s="180">
+      <c r="B15" s="170">
         <v>2001</v>
       </c>
-      <c r="C15" s="181">
+      <c r="C15" s="171">
         <f>693</f>
         <v>693</v>
       </c>
-      <c r="D15" s="181">
+      <c r="D15" s="171">
         <v>3403</v>
       </c>
-      <c r="E15" s="181"/>
-      <c r="F15" s="181">
+      <c r="E15" s="171"/>
+      <c r="F15" s="171">
         <v>44</v>
       </c>
-      <c r="G15" s="200"/>
-      <c r="H15" s="181">
+      <c r="G15" s="190"/>
+      <c r="H15" s="171">
         <v>16</v>
       </c>
-      <c r="I15" s="181">
+      <c r="I15" s="171">
         <v>1232</v>
       </c>
-      <c r="J15" s="181">
+      <c r="J15" s="171">
         <v>154</v>
       </c>
-      <c r="K15" s="203">
+      <c r="K15" s="193">
         <v>172169</v>
       </c>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
     </row>
     <row r="16" spans="1:14" ht="19">
-      <c r="B16" s="180">
+      <c r="B16" s="170">
         <v>2002</v>
       </c>
-      <c r="C16" s="181">
+      <c r="C16" s="171">
         <f>873</f>
         <v>873</v>
       </c>
-      <c r="D16" s="181">
+      <c r="D16" s="171">
         <v>3431</v>
       </c>
-      <c r="E16" s="181"/>
-      <c r="F16" s="181">
+      <c r="E16" s="171"/>
+      <c r="F16" s="171">
         <v>36</v>
       </c>
-      <c r="G16" s="200">
+      <c r="G16" s="190">
         <v>7</v>
       </c>
-      <c r="H16" s="181">
+      <c r="H16" s="171">
         <v>79</v>
       </c>
-      <c r="I16" s="181">
+      <c r="I16" s="171">
         <v>1166</v>
       </c>
-      <c r="J16" s="181">
+      <c r="J16" s="171">
         <v>149</v>
       </c>
-      <c r="K16" s="203">
+      <c r="K16" s="193">
         <v>170018</v>
       </c>
-      <c r="M16" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N16" s="171">
+      <c r="M16" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N16" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="19">
-      <c r="B17" s="180">
+      <c r="B17" s="170">
         <v>2003</v>
       </c>
-      <c r="C17" s="181">
+      <c r="C17" s="171">
         <f>830</f>
         <v>830</v>
       </c>
-      <c r="D17" s="181">
+      <c r="D17" s="171">
         <v>3966</v>
       </c>
-      <c r="E17" s="181"/>
-      <c r="F17" s="181">
+      <c r="E17" s="171"/>
+      <c r="F17" s="171">
         <v>62</v>
       </c>
-      <c r="G17" s="200">
+      <c r="G17" s="190">
         <v>7</v>
       </c>
-      <c r="H17" s="181">
+      <c r="H17" s="171">
         <v>142</v>
       </c>
-      <c r="I17" s="181">
+      <c r="I17" s="171">
         <v>1035</v>
       </c>
-      <c r="J17" s="181">
+      <c r="J17" s="171">
         <v>188</v>
       </c>
-      <c r="K17" s="203">
+      <c r="K17" s="193">
         <v>167571</v>
       </c>
-      <c r="M17" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N17" s="171">
+      <c r="M17" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N17" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="19">
-      <c r="B18" s="180">
+      <c r="B18" s="170">
         <v>2004</v>
       </c>
-      <c r="C18" s="181">
+      <c r="C18" s="171">
         <f>671</f>
         <v>671</v>
       </c>
-      <c r="D18" s="181">
+      <c r="D18" s="171">
         <v>3689</v>
       </c>
-      <c r="E18" s="182"/>
-      <c r="F18" s="181">
+      <c r="E18" s="172"/>
+      <c r="F18" s="171">
         <v>58</v>
       </c>
-      <c r="G18" s="200">
+      <c r="G18" s="190">
         <v>9</v>
       </c>
-      <c r="H18" s="181">
+      <c r="H18" s="171">
         <v>176</v>
       </c>
-      <c r="I18" s="181">
+      <c r="I18" s="171">
         <v>917</v>
       </c>
-      <c r="J18" s="181">
+      <c r="J18" s="171">
         <v>200</v>
       </c>
-      <c r="K18" s="203">
+      <c r="K18" s="193">
         <v>167346</v>
       </c>
-      <c r="M18" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N18" s="171">
+      <c r="M18" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N18" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="19">
-      <c r="B19" s="180">
+      <c r="B19" s="170">
         <v>2005</v>
       </c>
-      <c r="C19" s="181">
+      <c r="C19" s="171">
         <f>588</f>
         <v>588</v>
       </c>
-      <c r="D19" s="181">
+      <c r="D19" s="171">
         <v>2995</v>
       </c>
-      <c r="E19" s="182"/>
-      <c r="F19" s="181">
+      <c r="E19" s="172"/>
+      <c r="F19" s="171">
         <v>40</v>
       </c>
-      <c r="G19" s="200">
+      <c r="G19" s="190">
         <v>14</v>
       </c>
-      <c r="H19" s="181">
+      <c r="H19" s="171">
         <v>304</v>
       </c>
-      <c r="I19" s="181">
+      <c r="I19" s="171">
         <v>787</v>
       </c>
-      <c r="J19" s="181">
+      <c r="J19" s="171">
         <v>436</v>
       </c>
-      <c r="K19" s="203">
+      <c r="K19" s="193">
         <v>168987</v>
       </c>
-      <c r="M19" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N19" s="171">
+      <c r="M19" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N19" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="19">
-      <c r="B20" s="180">
+      <c r="B20" s="170">
         <v>2006</v>
       </c>
-      <c r="C20" s="181">
+      <c r="C20" s="171">
         <f>465</f>
         <v>465</v>
       </c>
-      <c r="D20" s="181">
+      <c r="D20" s="171">
         <v>2619</v>
       </c>
-      <c r="E20" s="181"/>
-      <c r="F20" s="181">
+      <c r="E20" s="171"/>
+      <c r="F20" s="171">
         <v>37</v>
       </c>
-      <c r="G20" s="200">
+      <c r="G20" s="190">
         <v>17</v>
       </c>
-      <c r="H20" s="181">
+      <c r="H20" s="171">
         <v>459</v>
       </c>
-      <c r="I20" s="181">
+      <c r="I20" s="171">
         <v>732</v>
       </c>
-      <c r="J20" s="181">
+      <c r="J20" s="171">
         <v>762</v>
       </c>
-      <c r="K20" s="203">
+      <c r="K20" s="193">
         <v>167476</v>
       </c>
-      <c r="M20" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N20" s="171">
+      <c r="M20" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N20" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="19">
-      <c r="B21" s="180">
+      <c r="B21" s="170">
         <v>2007</v>
       </c>
-      <c r="C21" s="183">
+      <c r="C21" s="173">
         <f>442</f>
         <v>442</v>
       </c>
-      <c r="D21" s="183">
+      <c r="D21" s="173">
         <v>2371</v>
       </c>
-      <c r="E21" s="181"/>
-      <c r="F21" s="181">
+      <c r="E21" s="171"/>
+      <c r="F21" s="171">
         <v>35</v>
       </c>
-      <c r="G21" s="200">
+      <c r="G21" s="190">
         <v>32</v>
       </c>
-      <c r="H21" s="183">
+      <c r="H21" s="173">
         <v>742</v>
       </c>
-      <c r="I21" s="183">
+      <c r="I21" s="173">
         <v>721</v>
       </c>
-      <c r="J21" s="183">
+      <c r="J21" s="173">
         <v>1208</v>
       </c>
-      <c r="K21" s="203">
+      <c r="K21" s="193">
         <v>164292</v>
       </c>
-      <c r="M21" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N21" s="171">
+      <c r="M21" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N21" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="19">
-      <c r="B22" s="180">
+      <c r="B22" s="170">
         <v>2008</v>
       </c>
-      <c r="C22" s="183">
+      <c r="C22" s="173">
         <f>430</f>
         <v>430</v>
       </c>
-      <c r="D22" s="183">
+      <c r="D22" s="173">
         <v>2175</v>
       </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="184">
+      <c r="E22" s="171"/>
+      <c r="F22" s="174">
         <v>38</v>
       </c>
-      <c r="G22" s="200">
+      <c r="G22" s="190">
         <v>46</v>
       </c>
-      <c r="H22" s="183">
+      <c r="H22" s="173">
         <v>645</v>
       </c>
-      <c r="I22" s="183">
+      <c r="I22" s="173">
         <v>778</v>
       </c>
-      <c r="J22" s="183">
+      <c r="J22" s="173">
         <v>1644</v>
       </c>
-      <c r="K22" s="203">
+      <c r="K22" s="193">
         <v>161078</v>
       </c>
-      <c r="M22" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N22" s="171">
+      <c r="M22" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N22" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="19">
-      <c r="B23" s="180">
+      <c r="B23" s="170">
         <v>2009</v>
       </c>
-      <c r="C23" s="183">
+      <c r="C23" s="173">
         <f>465</f>
         <v>465</v>
       </c>
-      <c r="D23" s="183">
+      <c r="D23" s="173">
         <v>2468</v>
       </c>
-      <c r="E23" s="181"/>
-      <c r="F23" s="184">
+      <c r="E23" s="171"/>
+      <c r="F23" s="174">
         <v>36</v>
       </c>
-      <c r="G23" s="200">
+      <c r="G23" s="190">
         <v>63</v>
       </c>
-      <c r="H23" s="183">
+      <c r="H23" s="173">
         <v>679</v>
       </c>
-      <c r="I23" s="183">
+      <c r="I23" s="173">
         <v>772</v>
       </c>
-      <c r="J23" s="183">
+      <c r="J23" s="173">
         <v>1928</v>
       </c>
-      <c r="K23" s="203">
+      <c r="K23" s="193">
         <v>162350</v>
       </c>
-      <c r="M23" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N23" s="171">
+      <c r="M23" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N23" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="19">
-      <c r="B24" s="180">
+      <c r="B24" s="170">
         <v>2010</v>
       </c>
-      <c r="C24" s="183">
+      <c r="C24" s="173">
         <f>541</f>
         <v>541</v>
       </c>
-      <c r="D24" s="183">
+      <c r="D24" s="173">
         <v>2647</v>
       </c>
-      <c r="E24" s="181"/>
-      <c r="F24" s="184">
+      <c r="E24" s="171"/>
+      <c r="F24" s="174">
         <v>39</v>
       </c>
-      <c r="G24" s="200">
+      <c r="G24" s="190">
         <v>58</v>
       </c>
-      <c r="H24" s="183">
+      <c r="H24" s="173">
         <v>644</v>
       </c>
-      <c r="I24" s="183">
+      <c r="I24" s="173">
         <v>841</v>
       </c>
-      <c r="J24" s="183">
+      <c r="J24" s="173">
         <v>2142</v>
       </c>
-      <c r="K24" s="203">
+      <c r="K24" s="193">
         <v>159006</v>
       </c>
-      <c r="M24" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N24" s="171">
+      <c r="M24" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N24" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="19">
-      <c r="B25" s="180">
+      <c r="B25" s="170">
         <v>2011</v>
       </c>
-      <c r="C25" s="185" t="e">
+      <c r="C25" s="175" t="e">
         <f>3394/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D25" s="185">
+      <c r="D25" s="175">
         <v>2597</v>
       </c>
-      <c r="E25" s="186"/>
-      <c r="F25" s="184">
+      <c r="E25" s="176"/>
+      <c r="F25" s="174">
         <v>45</v>
       </c>
-      <c r="G25" s="200">
+      <c r="G25" s="190">
         <v>56</v>
       </c>
-      <c r="H25" s="185">
+      <c r="H25" s="175">
         <v>627</v>
       </c>
-      <c r="I25" s="185">
+      <c r="I25" s="175">
         <v>910</v>
       </c>
-      <c r="J25" s="185">
+      <c r="J25" s="175">
         <v>2442</v>
       </c>
-      <c r="K25" s="203">
+      <c r="K25" s="193">
         <v>157393</v>
       </c>
-      <c r="M25" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N25" s="171">
+      <c r="M25" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N25" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="19">
-      <c r="B26" s="180">
+      <c r="B26" s="170">
         <v>2012</v>
       </c>
-      <c r="C26" s="185" t="e">
+      <c r="C26" s="175" t="e">
         <f>13392/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D26" s="185">
+      <c r="D26" s="175">
         <v>2654</v>
       </c>
-      <c r="E26" s="186"/>
-      <c r="F26" s="184">
+      <c r="E26" s="176"/>
+      <c r="F26" s="174">
         <v>59</v>
       </c>
-      <c r="G26" s="200">
+      <c r="G26" s="190">
         <v>58</v>
       </c>
-      <c r="H26" s="185">
+      <c r="H26" s="175">
         <v>675</v>
       </c>
-      <c r="I26" s="185">
+      <c r="I26" s="175">
         <v>1107</v>
       </c>
-      <c r="J26" s="185">
+      <c r="J26" s="175">
         <v>2553</v>
       </c>
-      <c r="K26" s="203">
+      <c r="K26" s="193">
         <v>156065</v>
       </c>
-      <c r="M26" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N26" s="171">
+      <c r="M26" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N26" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="19">
-      <c r="B27" s="180">
+      <c r="B27" s="170">
         <v>2013</v>
       </c>
-      <c r="C27" s="185" t="e">
+      <c r="C27" s="175" t="e">
         <f>19410/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D27" s="185">
+      <c r="D27" s="175">
         <v>2956</v>
       </c>
-      <c r="E27" s="186"/>
-      <c r="F27" s="184">
+      <c r="E27" s="176"/>
+      <c r="F27" s="174">
         <v>81</v>
       </c>
-      <c r="G27" s="200">
+      <c r="G27" s="190">
         <v>53</v>
       </c>
-      <c r="H27" s="185">
+      <c r="H27" s="175">
         <v>757</v>
       </c>
-      <c r="I27" s="185">
+      <c r="I27" s="175">
         <v>1263</v>
       </c>
-      <c r="J27" s="185">
+      <c r="J27" s="175">
         <v>2639</v>
       </c>
-      <c r="K27" s="203">
+      <c r="K27" s="193">
         <f>K26</f>
         <v>156065</v>
       </c>
-      <c r="M27" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N27" s="171">
+      <c r="M27" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N27" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="19">
-      <c r="B28" s="180">
+      <c r="B28" s="170">
         <v>2014</v>
       </c>
-      <c r="C28" s="185" t="e">
+      <c r="C28" s="175" t="e">
         <f>25602/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D28" s="185">
+      <c r="D28" s="175">
         <v>2931</v>
       </c>
-      <c r="E28" s="186"/>
-      <c r="F28" s="184">
+      <c r="E28" s="176"/>
+      <c r="F28" s="174">
         <v>103</v>
       </c>
-      <c r="G28" s="200">
+      <c r="G28" s="190">
         <v>51</v>
       </c>
-      <c r="H28" s="185">
+      <c r="H28" s="175">
         <v>783</v>
       </c>
-      <c r="I28" s="185">
+      <c r="I28" s="175">
         <v>1495</v>
       </c>
-      <c r="J28" s="185">
+      <c r="J28" s="175">
         <v>2840</v>
       </c>
-      <c r="K28" s="203">
+      <c r="K28" s="193">
         <f t="shared" ref="K28:K64" si="0">K27</f>
         <v>156065</v>
       </c>
-      <c r="M28" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N28" s="171">
+      <c r="M28" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N28" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="19">
-      <c r="B29" s="180">
+      <c r="B29" s="170">
         <v>2015</v>
       </c>
-      <c r="C29" s="187" t="e">
+      <c r="C29" s="177" t="e">
         <f>30945/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D29" s="187">
+      <c r="D29" s="177">
         <v>3594</v>
       </c>
-      <c r="E29" s="186"/>
-      <c r="F29" s="187">
+      <c r="E29" s="176"/>
+      <c r="F29" s="177">
         <v>111</v>
       </c>
-      <c r="G29" s="201">
+      <c r="G29" s="191">
         <v>45</v>
       </c>
-      <c r="H29" s="187">
+      <c r="H29" s="177">
         <v>721</v>
       </c>
-      <c r="I29" s="187">
+      <c r="I29" s="177">
         <v>1563</v>
       </c>
-      <c r="J29" s="187">
+      <c r="J29" s="177">
         <v>2990</v>
       </c>
-      <c r="K29" s="203">
+      <c r="K29" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M29" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N29" s="171">
+      <c r="M29" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N29" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="19">
-      <c r="B30" s="180">
+      <c r="B30" s="170">
         <v>2016</v>
       </c>
-      <c r="C30" s="187" t="e">
+      <c r="C30" s="177" t="e">
         <f>42029/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D30" s="187">
+      <c r="D30" s="177">
         <v>3665</v>
       </c>
-      <c r="E30" s="186"/>
-      <c r="F30" s="187">
+      <c r="E30" s="176"/>
+      <c r="F30" s="177">
         <v>140</v>
       </c>
-      <c r="G30" s="201">
+      <c r="G30" s="191">
         <v>54</v>
       </c>
-      <c r="H30" s="187">
+      <c r="H30" s="177">
         <v>697</v>
       </c>
-      <c r="I30" s="187">
+      <c r="I30" s="177">
         <v>1725</v>
       </c>
-      <c r="J30" s="187">
+      <c r="J30" s="177">
         <v>3090</v>
       </c>
-      <c r="K30" s="203">
+      <c r="K30" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M30" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N30" s="171">
+      <c r="M30" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N30" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="19">
-      <c r="B31" s="180">
+      <c r="B31" s="170">
         <v>2017</v>
       </c>
-      <c r="C31" s="188" t="e">
+      <c r="C31" s="178" t="e">
         <f>50627/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D31" s="178"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="202">
+      <c r="D31" s="168"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="192">
         <v>63</v>
       </c>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="203">
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="168"/>
+      <c r="K31" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M31" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N31" s="171">
+      <c r="M31" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N31" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="19">
-      <c r="B32" s="180">
+      <c r="B32" s="170">
         <v>2018</v>
       </c>
-      <c r="C32" s="188" t="e">
+      <c r="C32" s="178" t="e">
         <f>61067/plugs</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D32" s="178"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="202">
+      <c r="D32" s="168"/>
+      <c r="E32" s="168"/>
+      <c r="F32" s="168"/>
+      <c r="G32" s="192">
         <v>41</v>
       </c>
-      <c r="H32" s="178"/>
-      <c r="I32" s="178"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="203">
+      <c r="H32" s="168"/>
+      <c r="I32" s="168"/>
+      <c r="J32" s="168"/>
+      <c r="K32" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M32" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N32" s="171">
+      <c r="M32" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N32" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="19">
-      <c r="B33" s="180">
+      <c r="B33" s="170">
         <v>2019</v>
       </c>
-      <c r="C33" s="188">
+      <c r="C33" s="178">
         <f>$R$109+B33*$R$110</f>
         <v>0</v>
       </c>
-      <c r="D33" s="178"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="202">
+      <c r="D33" s="168"/>
+      <c r="E33" s="168"/>
+      <c r="F33" s="168"/>
+      <c r="G33" s="192">
         <v>57</v>
       </c>
-      <c r="H33" s="178"/>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="203">
+      <c r="H33" s="168"/>
+      <c r="I33" s="168"/>
+      <c r="J33" s="168"/>
+      <c r="K33" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M33" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N33" s="171">
+      <c r="M33" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N33" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="19">
-      <c r="B34" s="180">
+      <c r="B34" s="170">
         <v>2020</v>
       </c>
-      <c r="C34" s="188">
+      <c r="C34" s="178">
         <f t="shared" ref="C34:C64" si="1">$R$109+B34*$R$110</f>
         <v>0</v>
       </c>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="202">
+      <c r="D34" s="179"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="179"/>
+      <c r="G34" s="192">
         <v>75</v>
       </c>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="203">
+      <c r="H34" s="179"/>
+      <c r="I34" s="179"/>
+      <c r="J34" s="179"/>
+      <c r="K34" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M34" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N34" s="171">
+      <c r="M34" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N34" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="19">
-      <c r="B35" s="180">
+      <c r="B35" s="170">
         <v>2021</v>
       </c>
-      <c r="C35" s="188">
+      <c r="C35" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="202">
+      <c r="D35" s="168"/>
+      <c r="E35" s="168"/>
+      <c r="F35" s="168"/>
+      <c r="G35" s="192">
         <v>111</v>
       </c>
-      <c r="H35" s="178"/>
-      <c r="I35" s="178"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="203">
+      <c r="H35" s="168"/>
+      <c r="I35" s="168"/>
+      <c r="J35" s="168"/>
+      <c r="K35" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M35" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N35" s="171">
+      <c r="M35" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N35" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="19">
-      <c r="B36" s="180">
+      <c r="B36" s="170">
         <v>2022</v>
       </c>
-      <c r="C36" s="188">
+      <c r="C36" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D36" s="178"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="202">
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="168"/>
+      <c r="G36" s="192">
         <v>161</v>
       </c>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="203">
+      <c r="H36" s="168"/>
+      <c r="I36" s="168"/>
+      <c r="J36" s="168"/>
+      <c r="K36" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M36" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N36" s="171">
+      <c r="M36" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N36" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="19">
-      <c r="B37" s="180">
+      <c r="B37" s="170">
         <v>2023</v>
       </c>
-      <c r="C37" s="188">
+      <c r="C37" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D37" s="178"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="202">
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="192">
         <v>246</v>
       </c>
-      <c r="H37" s="178"/>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="203">
+      <c r="H37" s="168"/>
+      <c r="I37" s="168"/>
+      <c r="J37" s="168"/>
+      <c r="K37" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M37" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N37" s="171">
+      <c r="M37" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N37" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="19">
-      <c r="B38" s="180">
+      <c r="B38" s="170">
         <v>2024</v>
       </c>
-      <c r="C38" s="188">
+      <c r="C38" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D38" s="178"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="202">
+      <c r="D38" s="168"/>
+      <c r="E38" s="168"/>
+      <c r="F38" s="168"/>
+      <c r="G38" s="192">
         <v>967</v>
       </c>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="203">
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="168"/>
+      <c r="K38" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M38" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N38" s="171">
+      <c r="M38" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N38" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="19">
-      <c r="B39" s="180">
+      <c r="B39" s="170">
         <v>2025</v>
       </c>
-      <c r="C39" s="188">
+      <c r="C39" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D39" s="178"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="202">
+      <c r="D39" s="168"/>
+      <c r="E39" s="168"/>
+      <c r="F39" s="168"/>
+      <c r="G39" s="192">
         <v>1975</v>
       </c>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="203">
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="168"/>
+      <c r="K39" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M39" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N39" s="171">
+      <c r="M39" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N39" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="40" spans="2:14" ht="19">
-      <c r="B40" s="180">
+      <c r="B40" s="170">
         <v>2026</v>
       </c>
-      <c r="C40" s="188">
+      <c r="C40" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D40" s="178"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="202">
+      <c r="D40" s="168"/>
+      <c r="E40" s="168"/>
+      <c r="F40" s="168"/>
+      <c r="G40" s="192">
         <v>3242.3900000000003</v>
       </c>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="203">
+      <c r="H40" s="168"/>
+      <c r="I40" s="168"/>
+      <c r="J40" s="168"/>
+      <c r="K40" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M40" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N40" s="171">
+      <c r="M40" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N40" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="19">
-      <c r="B41" s="180">
+      <c r="B41" s="170">
         <v>2027</v>
       </c>
-      <c r="C41" s="188">
+      <c r="C41" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="202">
+      <c r="D41" s="168"/>
+      <c r="E41" s="168"/>
+      <c r="F41" s="168"/>
+      <c r="G41" s="192">
         <v>4626.9699999999993</v>
       </c>
-      <c r="H41" s="178"/>
-      <c r="I41" s="178"/>
-      <c r="J41" s="178"/>
-      <c r="K41" s="203">
+      <c r="H41" s="168"/>
+      <c r="I41" s="168"/>
+      <c r="J41" s="168"/>
+      <c r="K41" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M41" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N41" s="171">
+      <c r="M41" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N41" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="19">
-      <c r="B42" s="180">
+      <c r="B42" s="170">
         <v>2028</v>
       </c>
-      <c r="C42" s="188">
+      <c r="C42" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D42" s="178"/>
-      <c r="E42" s="178"/>
-      <c r="F42" s="178"/>
-      <c r="G42" s="202">
+      <c r="D42" s="168"/>
+      <c r="E42" s="168"/>
+      <c r="F42" s="168"/>
+      <c r="G42" s="192">
         <v>6873.7499999999991</v>
       </c>
-      <c r="H42" s="178"/>
-      <c r="I42" s="178"/>
-      <c r="J42" s="178"/>
-      <c r="K42" s="203">
+      <c r="H42" s="168"/>
+      <c r="I42" s="168"/>
+      <c r="J42" s="168"/>
+      <c r="K42" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M42" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N42" s="171">
+      <c r="M42" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N42" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="43" spans="2:14" ht="19">
-      <c r="B43" s="180">
+      <c r="B43" s="170">
         <v>2029</v>
       </c>
-      <c r="C43" s="188">
+      <c r="C43" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D43" s="178"/>
-      <c r="E43" s="178"/>
-      <c r="F43" s="178"/>
-      <c r="G43" s="202">
+      <c r="D43" s="168"/>
+      <c r="E43" s="168"/>
+      <c r="F43" s="168"/>
+      <c r="G43" s="192">
         <v>8874.9</v>
       </c>
-      <c r="H43" s="178"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="178"/>
-      <c r="K43" s="203">
+      <c r="H43" s="168"/>
+      <c r="I43" s="168"/>
+      <c r="J43" s="168"/>
+      <c r="K43" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M43" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N43" s="171">
+      <c r="M43" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N43" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="44" spans="2:14" ht="19">
-      <c r="B44" s="180">
+      <c r="B44" s="170">
         <v>2030</v>
       </c>
-      <c r="C44" s="188">
+      <c r="C44" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D44" s="178"/>
-      <c r="E44" s="178"/>
-      <c r="F44" s="178"/>
-      <c r="G44" s="202">
+      <c r="D44" s="168"/>
+      <c r="E44" s="168"/>
+      <c r="F44" s="168"/>
+      <c r="G44" s="192">
         <v>11075.6</v>
       </c>
-      <c r="H44" s="178"/>
-      <c r="I44" s="178"/>
-      <c r="J44" s="178"/>
-      <c r="K44" s="203">
+      <c r="H44" s="168"/>
+      <c r="I44" s="168"/>
+      <c r="J44" s="168"/>
+      <c r="K44" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M44" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N44" s="171">
+      <c r="M44" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N44" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="45" spans="2:14" ht="19">
-      <c r="B45" s="180">
+      <c r="B45" s="170">
         <v>2031</v>
       </c>
-      <c r="C45" s="188">
+      <c r="C45" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D45" s="178"/>
-      <c r="E45" s="178"/>
-      <c r="F45" s="178"/>
-      <c r="G45" s="202">
+      <c r="D45" s="168"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="168"/>
+      <c r="G45" s="192">
         <v>13478.789999999997</v>
       </c>
-      <c r="H45" s="178"/>
-      <c r="I45" s="178"/>
-      <c r="J45" s="178"/>
-      <c r="K45" s="203">
+      <c r="H45" s="168"/>
+      <c r="I45" s="168"/>
+      <c r="J45" s="168"/>
+      <c r="K45" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M45" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N45" s="171">
+      <c r="M45" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N45" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="46" spans="2:14" ht="19">
-      <c r="B46" s="180">
+      <c r="B46" s="170">
         <v>2032</v>
       </c>
-      <c r="C46" s="188">
+      <c r="C46" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D46" s="178"/>
-      <c r="E46" s="178"/>
-      <c r="F46" s="178"/>
-      <c r="G46" s="202">
+      <c r="D46" s="168"/>
+      <c r="E46" s="168"/>
+      <c r="F46" s="168"/>
+      <c r="G46" s="192">
         <v>16001.890000000003</v>
       </c>
-      <c r="H46" s="178"/>
-      <c r="I46" s="178"/>
-      <c r="J46" s="178"/>
-      <c r="K46" s="203">
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="168"/>
+      <c r="K46" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M46" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N46" s="171">
+      <c r="M46" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N46" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="47" spans="2:14" ht="19">
-      <c r="B47" s="180">
+      <c r="B47" s="170">
         <v>2033</v>
       </c>
-      <c r="C47" s="188">
+      <c r="C47" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D47" s="178"/>
-      <c r="E47" s="178"/>
-      <c r="F47" s="178"/>
-      <c r="G47" s="202">
+      <c r="D47" s="168"/>
+      <c r="E47" s="168"/>
+      <c r="F47" s="168"/>
+      <c r="G47" s="192">
         <v>18199.889999999996</v>
       </c>
-      <c r="H47" s="178"/>
-      <c r="I47" s="178"/>
-      <c r="J47" s="178"/>
-      <c r="K47" s="203">
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="168"/>
+      <c r="K47" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M47" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N47" s="171">
+      <c r="M47" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N47" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="48" spans="2:14" ht="19">
-      <c r="B48" s="180">
+      <c r="B48" s="170">
         <v>2034</v>
       </c>
-      <c r="C48" s="188">
+      <c r="C48" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D48" s="178"/>
-      <c r="E48" s="178"/>
-      <c r="F48" s="178"/>
-      <c r="G48" s="202">
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="192">
         <v>20480.889999999996</v>
       </c>
-      <c r="H48" s="178"/>
-      <c r="I48" s="178"/>
-      <c r="J48" s="178"/>
-      <c r="K48" s="203">
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M48" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N48" s="171">
+      <c r="M48" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N48" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="49" spans="2:14" ht="19">
-      <c r="B49" s="180">
+      <c r="B49" s="170">
         <v>2035</v>
       </c>
-      <c r="C49" s="188">
+      <c r="C49" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D49" s="178"/>
-      <c r="E49" s="178"/>
-      <c r="F49" s="178"/>
-      <c r="G49" s="202">
+      <c r="D49" s="168"/>
+      <c r="E49" s="168"/>
+      <c r="F49" s="168"/>
+      <c r="G49" s="192">
         <v>22921.889999999996</v>
       </c>
-      <c r="H49" s="178"/>
-      <c r="I49" s="178"/>
-      <c r="J49" s="178"/>
-      <c r="K49" s="203">
+      <c r="H49" s="168"/>
+      <c r="I49" s="168"/>
+      <c r="J49" s="168"/>
+      <c r="K49" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M49" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N49" s="171">
+      <c r="M49" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N49" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="19">
-      <c r="B50" s="180">
+      <c r="B50" s="170">
         <v>2036</v>
       </c>
-      <c r="C50" s="188">
+      <c r="C50" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D50" s="178"/>
-      <c r="E50" s="178"/>
-      <c r="F50" s="178"/>
-      <c r="G50" s="202">
+      <c r="D50" s="168"/>
+      <c r="E50" s="168"/>
+      <c r="F50" s="168"/>
+      <c r="G50" s="192">
         <v>25534.889999999996</v>
       </c>
-      <c r="H50" s="178"/>
-      <c r="I50" s="178"/>
-      <c r="J50" s="178"/>
-      <c r="K50" s="203">
+      <c r="H50" s="168"/>
+      <c r="I50" s="168"/>
+      <c r="J50" s="168"/>
+      <c r="K50" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M50" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N50" s="171">
+      <c r="M50" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N50" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="51" spans="2:14" ht="19">
-      <c r="B51" s="180">
+      <c r="B51" s="170">
         <v>2037</v>
       </c>
-      <c r="C51" s="188">
+      <c r="C51" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D51" s="178"/>
-      <c r="E51" s="178"/>
-      <c r="F51" s="178"/>
-      <c r="G51" s="202">
+      <c r="D51" s="168"/>
+      <c r="E51" s="168"/>
+      <c r="F51" s="168"/>
+      <c r="G51" s="192">
         <v>28238.889999999996</v>
       </c>
-      <c r="H51" s="178"/>
-      <c r="I51" s="178"/>
-      <c r="J51" s="178"/>
-      <c r="K51" s="203">
+      <c r="H51" s="168"/>
+      <c r="I51" s="168"/>
+      <c r="J51" s="168"/>
+      <c r="K51" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M51" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N51" s="171">
+      <c r="M51" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N51" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="52" spans="2:14" ht="19">
-      <c r="B52" s="180">
+      <c r="B52" s="170">
         <v>2038</v>
       </c>
-      <c r="C52" s="188">
+      <c r="C52" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="202">
+      <c r="D52" s="168"/>
+      <c r="E52" s="168"/>
+      <c r="F52" s="168"/>
+      <c r="G52" s="192">
         <v>31005.889999999996</v>
       </c>
-      <c r="H52" s="178"/>
-      <c r="I52" s="178"/>
-      <c r="J52" s="178"/>
-      <c r="K52" s="203">
+      <c r="H52" s="168"/>
+      <c r="I52" s="168"/>
+      <c r="J52" s="168"/>
+      <c r="K52" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M52" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N52" s="171">
+      <c r="M52" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N52" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="53" spans="2:14" ht="19">
-      <c r="B53" s="180">
+      <c r="B53" s="170">
         <v>2039</v>
       </c>
-      <c r="C53" s="188">
+      <c r="C53" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="202">
+      <c r="D53" s="168"/>
+      <c r="E53" s="168"/>
+      <c r="F53" s="168"/>
+      <c r="G53" s="192">
         <v>33834.89</v>
       </c>
-      <c r="H53" s="178"/>
-      <c r="I53" s="178"/>
-      <c r="J53" s="178"/>
-      <c r="K53" s="203">
+      <c r="H53" s="168"/>
+      <c r="I53" s="168"/>
+      <c r="J53" s="168"/>
+      <c r="K53" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M53" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N53" s="171">
+      <c r="M53" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N53" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="54" spans="2:14" ht="19">
-      <c r="B54" s="180">
+      <c r="B54" s="170">
         <v>2040</v>
       </c>
-      <c r="C54" s="188">
+      <c r="C54" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="202">
+      <c r="D54" s="168"/>
+      <c r="E54" s="168"/>
+      <c r="F54" s="168"/>
+      <c r="G54" s="192">
         <v>36523.89</v>
       </c>
-      <c r="H54" s="178"/>
-      <c r="I54" s="178"/>
-      <c r="J54" s="178"/>
-      <c r="K54" s="203">
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="168"/>
+      <c r="K54" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M54" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N54" s="171">
+      <c r="M54" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N54" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="55" spans="2:14" ht="19">
-      <c r="B55" s="180">
+      <c r="B55" s="170">
         <v>2041</v>
       </c>
-      <c r="C55" s="188">
+      <c r="C55" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D55" s="190"/>
-      <c r="E55" s="190"/>
-      <c r="F55" s="190"/>
-      <c r="G55" s="202">
+      <c r="D55" s="180"/>
+      <c r="E55" s="180"/>
+      <c r="F55" s="180"/>
+      <c r="G55" s="192">
         <v>39429.890000000007</v>
       </c>
-      <c r="H55" s="190"/>
-      <c r="I55" s="190"/>
-      <c r="J55" s="190"/>
-      <c r="K55" s="203">
+      <c r="H55" s="180"/>
+      <c r="I55" s="180"/>
+      <c r="J55" s="180"/>
+      <c r="K55" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M55" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N55" s="171">
+      <c r="M55" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N55" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="56" spans="2:14" ht="19">
-      <c r="B56" s="180">
+      <c r="B56" s="170">
         <v>2042</v>
       </c>
-      <c r="C56" s="188">
+      <c r="C56" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D56" s="190"/>
-      <c r="E56" s="190"/>
-      <c r="F56" s="190"/>
-      <c r="G56" s="202">
+      <c r="D56" s="180"/>
+      <c r="E56" s="180"/>
+      <c r="F56" s="180"/>
+      <c r="G56" s="192">
         <v>42341.890000000007</v>
       </c>
-      <c r="H56" s="190"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="203">
+      <c r="H56" s="180"/>
+      <c r="I56" s="180"/>
+      <c r="J56" s="180"/>
+      <c r="K56" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M56" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N56" s="171">
+      <c r="M56" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N56" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="57" spans="2:14" ht="19">
-      <c r="B57" s="180">
+      <c r="B57" s="170">
         <v>2043</v>
       </c>
-      <c r="C57" s="188">
+      <c r="C57" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D57" s="190"/>
-      <c r="E57" s="190"/>
-      <c r="F57" s="190"/>
-      <c r="G57" s="202">
+      <c r="D57" s="180"/>
+      <c r="E57" s="180"/>
+      <c r="F57" s="180"/>
+      <c r="G57" s="192">
         <v>45272.890000000007</v>
       </c>
-      <c r="H57" s="190"/>
-      <c r="I57" s="190"/>
-      <c r="J57" s="190"/>
-      <c r="K57" s="203">
+      <c r="H57" s="180"/>
+      <c r="I57" s="180"/>
+      <c r="J57" s="180"/>
+      <c r="K57" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M57" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N57" s="171">
+      <c r="M57" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N57" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="58" spans="2:14" ht="19">
-      <c r="B58" s="180">
+      <c r="B58" s="170">
         <v>2044</v>
       </c>
-      <c r="C58" s="188">
+      <c r="C58" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D58" s="190"/>
-      <c r="E58" s="190"/>
-      <c r="F58" s="190"/>
-      <c r="G58" s="202">
+      <c r="D58" s="180"/>
+      <c r="E58" s="180"/>
+      <c r="F58" s="180"/>
+      <c r="G58" s="192">
         <v>48191.890000000007</v>
       </c>
-      <c r="H58" s="190"/>
-      <c r="I58" s="190"/>
-      <c r="J58" s="190"/>
-      <c r="K58" s="203">
+      <c r="H58" s="180"/>
+      <c r="I58" s="180"/>
+      <c r="J58" s="180"/>
+      <c r="K58" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M58" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N58" s="171">
+      <c r="M58" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N58" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="59" spans="2:14" ht="19">
-      <c r="B59" s="180">
+      <c r="B59" s="170">
         <v>2045</v>
       </c>
-      <c r="C59" s="188">
+      <c r="C59" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D59" s="190"/>
-      <c r="E59" s="190"/>
-      <c r="F59" s="190"/>
-      <c r="G59" s="202">
+      <c r="D59" s="180"/>
+      <c r="E59" s="180"/>
+      <c r="F59" s="180"/>
+      <c r="G59" s="192">
         <v>51068.890000000007</v>
       </c>
-      <c r="H59" s="190"/>
-      <c r="I59" s="190"/>
-      <c r="J59" s="190"/>
-      <c r="K59" s="203">
+      <c r="H59" s="180"/>
+      <c r="I59" s="180"/>
+      <c r="J59" s="180"/>
+      <c r="K59" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M59" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N59" s="171">
+      <c r="M59" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N59" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="60" spans="2:14" ht="19">
-      <c r="B60" s="180">
+      <c r="B60" s="170">
         <v>2046</v>
       </c>
-      <c r="C60" s="188">
+      <c r="C60" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D60" s="190"/>
-      <c r="E60" s="190"/>
-      <c r="F60" s="190"/>
-      <c r="G60" s="202">
+      <c r="D60" s="180"/>
+      <c r="E60" s="180"/>
+      <c r="F60" s="180"/>
+      <c r="G60" s="192">
         <v>53824.890000000007</v>
       </c>
-      <c r="H60" s="190"/>
-      <c r="I60" s="190"/>
-      <c r="J60" s="190"/>
-      <c r="K60" s="203">
+      <c r="H60" s="180"/>
+      <c r="I60" s="180"/>
+      <c r="J60" s="180"/>
+      <c r="K60" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M60" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N60" s="171">
+      <c r="M60" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N60" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="61" spans="2:14" ht="19">
-      <c r="B61" s="180">
+      <c r="B61" s="170">
         <v>2047</v>
       </c>
-      <c r="C61" s="188">
+      <c r="C61" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D61" s="190"/>
-      <c r="E61" s="190"/>
-      <c r="F61" s="190"/>
-      <c r="G61" s="202">
+      <c r="D61" s="180"/>
+      <c r="E61" s="180"/>
+      <c r="F61" s="180"/>
+      <c r="G61" s="192">
         <v>56484.890000000007</v>
       </c>
-      <c r="H61" s="190"/>
-      <c r="I61" s="190"/>
-      <c r="J61" s="190"/>
-      <c r="K61" s="203">
+      <c r="H61" s="180"/>
+      <c r="I61" s="180"/>
+      <c r="J61" s="180"/>
+      <c r="K61" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M61" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N61" s="171">
+      <c r="M61" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N61" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="62" spans="2:14" ht="19">
-      <c r="B62" s="180">
+      <c r="B62" s="170">
         <v>2048</v>
       </c>
-      <c r="C62" s="188">
+      <c r="C62" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D62" s="190"/>
-      <c r="E62" s="190"/>
-      <c r="F62" s="190"/>
-      <c r="G62" s="202">
+      <c r="D62" s="180"/>
+      <c r="E62" s="180"/>
+      <c r="F62" s="180"/>
+      <c r="G62" s="192">
         <v>59039.890000000007</v>
       </c>
-      <c r="H62" s="190"/>
-      <c r="I62" s="190"/>
-      <c r="J62" s="190"/>
-      <c r="K62" s="203">
+      <c r="H62" s="180"/>
+      <c r="I62" s="180"/>
+      <c r="J62" s="180"/>
+      <c r="K62" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M62" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N62" s="171">
+      <c r="M62" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N62" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="63" spans="2:14" ht="19">
-      <c r="B63" s="180">
+      <c r="B63" s="170">
         <v>2049</v>
       </c>
-      <c r="C63" s="188">
+      <c r="C63" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D63" s="190"/>
-      <c r="E63" s="190"/>
-      <c r="F63" s="190"/>
-      <c r="G63" s="202">
+      <c r="D63" s="180"/>
+      <c r="E63" s="180"/>
+      <c r="F63" s="180"/>
+      <c r="G63" s="192">
         <v>61442.890000000007</v>
       </c>
-      <c r="H63" s="190"/>
-      <c r="I63" s="190"/>
-      <c r="J63" s="190"/>
-      <c r="K63" s="203">
+      <c r="H63" s="180"/>
+      <c r="I63" s="180"/>
+      <c r="J63" s="180"/>
+      <c r="K63" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M63" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N63" s="171">
+      <c r="M63" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N63" s="161">
         <v>100000</v>
       </c>
     </row>
     <row r="64" spans="2:14" ht="19">
-      <c r="B64" s="180">
+      <c r="B64" s="170">
         <v>2050</v>
       </c>
-      <c r="C64" s="188">
+      <c r="C64" s="178">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="D64" s="190"/>
-      <c r="E64" s="190"/>
-      <c r="F64" s="190"/>
-      <c r="G64" s="202">
+      <c r="D64" s="180"/>
+      <c r="E64" s="180"/>
+      <c r="F64" s="180"/>
+      <c r="G64" s="192">
         <v>63797.890000000007</v>
       </c>
-      <c r="H64" s="190"/>
-      <c r="I64" s="190"/>
-      <c r="J64" s="190"/>
-      <c r="K64" s="203">
+      <c r="H64" s="180"/>
+      <c r="I64" s="180"/>
+      <c r="J64" s="180"/>
+      <c r="K64" s="193">
         <f t="shared" si="0"/>
         <v>156065</v>
       </c>
-      <c r="M64" s="171">
-        <v>100000</v>
-      </c>
-      <c r="N64" s="171">
+      <c r="M64" s="161">
+        <v>100000</v>
+      </c>
+      <c r="N64" s="161">
         <v>100000</v>
       </c>
     </row>
